--- a/REGULAR/OJT/PENALES, GUILLERMA.xlsx
+++ b/REGULAR/OJT/PENALES, GUILLERMA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437BD9F6-8235-4A66-B0CB-AD8D0E4EF646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="475">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1465,7 +1464,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2151,7 +2150,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2199,7 +2197,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2240,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2304,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2364,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2430,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2493,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2591,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2650,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,7 +2715,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2758,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2833,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,7 +3019,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3087,7 +3085,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3145,7 +3143,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3209,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3265,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3340,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3385,7 +3383,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3451,7 +3449,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3505,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3586,7 +3584,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3603,26 +3601,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K894" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K894" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K895" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K895"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3929,7 +3927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3939,7 +3937,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3947,34 +3945,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K894"/>
+  <dimension ref="A2:K895"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A822" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="H835" sqref="H835"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A822"/>
+      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection pane="bottomLeft" activeCell="K836" sqref="K836"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3997,7 +3995,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4015,7 +4013,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4037,7 +4035,7 @@
       <c r="J4" s="64"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4045,7 +4043,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4058,7 +4056,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -4075,7 +4073,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4110,7 +4108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4129,12 +4127,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>72</v>
       </c>
@@ -4156,7 +4154,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>32295</v>
       </c>
@@ -4176,7 +4174,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>32325</v>
@@ -4197,7 +4195,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>32356</v>
@@ -4218,7 +4216,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A17" si="0">EDATE(A13,1)</f>
         <v>32387</v>
@@ -4239,7 +4237,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>32417</v>
@@ -4260,7 +4258,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>32448</v>
@@ -4281,7 +4279,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>32478</v>
@@ -4306,7 +4304,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>74</v>
       </c>
@@ -4324,7 +4322,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f>EDATE(A17,1)</f>
         <v>32509</v>
@@ -4345,7 +4343,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>EDATE(A19,1)</f>
         <v>32540</v>
@@ -4366,7 +4364,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" ref="A21:A30" si="1">EDATE(A20,1)</f>
         <v>32568</v>
@@ -4387,7 +4385,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="1"/>
         <v>32599</v>
@@ -4408,7 +4406,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="1"/>
         <v>32629</v>
@@ -4429,7 +4427,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="1"/>
         <v>32660</v>
@@ -4450,7 +4448,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="1"/>
         <v>32690</v>
@@ -4471,7 +4469,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="1"/>
         <v>32721</v>
@@ -4492,7 +4490,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f>EDATE(A26,1)</f>
         <v>32752</v>
@@ -4513,7 +4511,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>32782</v>
@@ -4534,7 +4532,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>32813</v>
@@ -4555,7 +4553,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="1"/>
         <v>32843</v>
@@ -4580,7 +4578,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>75</v>
       </c>
@@ -4598,7 +4596,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f>EDATE(A30,1)</f>
         <v>32874</v>
@@ -4619,7 +4617,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f>EDATE(A32,1)</f>
         <v>32905</v>
@@ -4640,7 +4638,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" ref="A34:A43" si="2">EDATE(A33,1)</f>
         <v>32933</v>
@@ -4661,7 +4659,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="2"/>
         <v>32964</v>
@@ -4682,7 +4680,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="2"/>
         <v>32994</v>
@@ -4703,7 +4701,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f t="shared" si="2"/>
         <v>33025</v>
@@ -4724,7 +4722,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="2"/>
         <v>33055</v>
@@ -4745,7 +4743,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="2"/>
         <v>33086</v>
@@ -4766,7 +4764,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="2"/>
         <v>33117</v>
@@ -4787,7 +4785,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>33147</v>
@@ -4808,7 +4806,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>33178</v>
@@ -4829,7 +4827,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="2"/>
         <v>33208</v>
@@ -4854,7 +4852,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>76</v>
       </c>
@@ -4872,7 +4870,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f>EDATE(A43,1)</f>
         <v>33239</v>
@@ -4893,7 +4891,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f>EDATE(A45,1)</f>
         <v>33270</v>
@@ -4914,7 +4912,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" ref="A47:A56" si="3">EDATE(A46,1)</f>
         <v>33298</v>
@@ -4935,7 +4933,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="3"/>
         <v>33329</v>
@@ -4956,7 +4954,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="3"/>
         <v>33359</v>
@@ -4977,7 +4975,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="3"/>
         <v>33390</v>
@@ -4998,7 +4996,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="3"/>
         <v>33420</v>
@@ -5019,7 +5017,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" si="3"/>
         <v>33451</v>
@@ -5040,7 +5038,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="3"/>
         <v>33482</v>
@@ -5061,7 +5059,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="3"/>
         <v>33512</v>
@@ -5082,7 +5080,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f>EDATE(A54,1)</f>
         <v>33543</v>
@@ -5103,7 +5101,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f t="shared" si="3"/>
         <v>33573</v>
@@ -5128,7 +5126,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
         <v>77</v>
       </c>
@@ -5146,7 +5144,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f>EDATE(A56,1)</f>
         <v>33604</v>
@@ -5167,7 +5165,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f>EDATE(A58,1)</f>
         <v>33635</v>
@@ -5188,7 +5186,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" ref="A60:A69" si="4">EDATE(A59,1)</f>
         <v>33664</v>
@@ -5209,7 +5207,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="4"/>
         <v>33695</v>
@@ -5230,7 +5228,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f t="shared" si="4"/>
         <v>33725</v>
@@ -5251,7 +5249,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="4"/>
         <v>33756</v>
@@ -5272,7 +5270,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="4"/>
         <v>33786</v>
@@ -5293,7 +5291,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" si="4"/>
         <v>33817</v>
@@ -5314,7 +5312,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="4"/>
         <v>33848</v>
@@ -5335,7 +5333,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="4"/>
         <v>33878</v>
@@ -5356,7 +5354,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f>EDATE(A67,1)</f>
         <v>33909</v>
@@ -5377,7 +5375,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="4"/>
         <v>33939</v>
@@ -5402,7 +5400,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
         <v>78</v>
       </c>
@@ -5420,7 +5418,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f>EDATE(A69,1)</f>
         <v>33970</v>
@@ -5441,7 +5439,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f>EDATE(A71,1)</f>
         <v>34001</v>
@@ -5462,7 +5460,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" ref="A73:A81" si="5">EDATE(A72,1)</f>
         <v>34029</v>
@@ -5483,7 +5481,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="5"/>
         <v>34060</v>
@@ -5504,7 +5502,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f t="shared" si="5"/>
         <v>34090</v>
@@ -5525,7 +5523,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" si="5"/>
         <v>34121</v>
@@ -5546,7 +5544,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" si="5"/>
         <v>34151</v>
@@ -5567,7 +5565,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="5"/>
         <v>34182</v>
@@ -5588,7 +5586,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="5"/>
         <v>34213</v>
@@ -5609,7 +5607,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="5"/>
         <v>34243</v>
@@ -5630,7 +5628,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="5"/>
         <v>34274</v>
@@ -5651,7 +5649,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f>EDATE(A81,1)</f>
         <v>34304</v>
@@ -5676,7 +5674,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
         <v>79</v>
       </c>
@@ -5694,7 +5692,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="50" t="s">
         <v>80</v>
       </c>
@@ -5716,7 +5714,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="52" t="s">
         <v>82</v>
       </c>
@@ -5738,7 +5736,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>34608</v>
       </c>
@@ -5762,7 +5760,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f>EDATE(A86,1)</f>
         <v>34639</v>
@@ -5787,7 +5785,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f>EDATE(A87,1)</f>
         <v>34669</v>
@@ -5812,7 +5810,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
         <v>86</v>
       </c>
@@ -5830,7 +5828,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f>EDATE(A88,1)</f>
         <v>34700</v>
@@ -5855,7 +5853,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>87</v>
@@ -5875,7 +5873,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>34731</v>
@@ -5900,7 +5898,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" ref="A93:A107" si="6">EDATE(A92,1)</f>
         <v>34759</v>
@@ -5925,7 +5923,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>53</v>
@@ -5945,7 +5943,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>34790</v>
@@ -5970,7 +5968,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="6"/>
         <v>34820</v>
@@ -5995,7 +5993,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>53</v>
@@ -6015,7 +6013,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f>EDATE(A96,1)</f>
         <v>34851</v>
@@ -6040,7 +6038,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>91</v>
@@ -6060,7 +6058,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>34881</v>
@@ -6085,7 +6083,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>54</v>
@@ -6105,7 +6103,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f>EDATE(A100,1)</f>
         <v>34912</v>
@@ -6130,7 +6128,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>54</v>
@@ -6150,7 +6148,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f>EDATE(A102,1)</f>
         <v>34943</v>
@@ -6175,7 +6173,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" si="6"/>
         <v>34973</v>
@@ -6200,7 +6198,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f>EDATE(A105,1)</f>
         <v>35004</v>
@@ -6221,7 +6219,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="6"/>
         <v>35034</v>
@@ -6244,7 +6242,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="45" t="s">
         <v>94</v>
       </c>
@@ -6262,7 +6260,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f>EDATE(A107,1)</f>
         <v>35065</v>
@@ -6283,7 +6281,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f>EDATE(A109,1)</f>
         <v>35096</v>
@@ -6308,7 +6306,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>95</v>
@@ -6328,7 +6326,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f>EDATE(A110,1)</f>
         <v>35125</v>
@@ -6349,7 +6347,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" ref="A113:A122" si="7">EDATE(A112,1)</f>
         <v>35156</v>
@@ -6370,7 +6368,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" si="7"/>
         <v>35186</v>
@@ -6395,7 +6393,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>53</v>
@@ -6415,7 +6413,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f>EDATE(A114,1)</f>
         <v>35217</v>
@@ -6440,7 +6438,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>96</v>
@@ -6460,7 +6458,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f>EDATE(A116,1)</f>
         <v>35247</v>
@@ -6481,7 +6479,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f t="shared" si="7"/>
         <v>35278</v>
@@ -6506,7 +6504,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>53</v>
@@ -6526,7 +6524,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f>EDATE(A119,1)</f>
         <v>35309</v>
@@ -6547,7 +6545,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f t="shared" si="7"/>
         <v>35339</v>
@@ -6572,7 +6570,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>85</v>
@@ -6592,7 +6590,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f>EDATE(A122,1)</f>
         <v>35370</v>
@@ -6617,7 +6615,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f>EDATE(A124,1)</f>
         <v>35400</v>
@@ -6642,7 +6640,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
         <v>98</v>
       </c>
@@ -6660,7 +6658,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <f>EDATE(A125,1)</f>
         <v>35431</v>
@@ -6681,7 +6679,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A127,1)</f>
         <v>35462</v>
@@ -6702,7 +6700,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" ref="A129:A140" si="8">EDATE(A128,1)</f>
         <v>35490</v>
@@ -6723,7 +6721,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" si="8"/>
         <v>35521</v>
@@ -6744,7 +6742,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f t="shared" si="8"/>
         <v>35551</v>
@@ -6765,7 +6763,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f t="shared" si="8"/>
         <v>35582</v>
@@ -6786,7 +6784,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f t="shared" si="8"/>
         <v>35612</v>
@@ -6813,7 +6811,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>53</v>
@@ -6835,7 +6833,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f>EDATE(A133,1)</f>
         <v>35643</v>
@@ -6862,7 +6860,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>53</v>
@@ -6884,7 +6882,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f>EDATE(A135,1)</f>
         <v>35674</v>
@@ -6911,7 +6909,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f>EDATE(A137,1)</f>
         <v>35704</v>
@@ -6938,7 +6936,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f t="shared" si="8"/>
         <v>35735</v>
@@ -6963,7 +6961,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <f t="shared" si="8"/>
         <v>35765</v>
@@ -6988,7 +6986,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="45" t="s">
         <v>101</v>
       </c>
@@ -7006,7 +7004,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EDATE(A140,1)</f>
         <v>35796</v>
@@ -7027,7 +7025,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f>EDATE(A142,1)</f>
         <v>35827</v>
@@ -7048,7 +7046,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f t="shared" ref="A144:A148" si="9">EDATE(A143,1)</f>
         <v>35855</v>
@@ -7069,7 +7067,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f t="shared" si="9"/>
         <v>35886</v>
@@ -7094,7 +7092,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <f t="shared" si="9"/>
         <v>35916</v>
@@ -7119,7 +7117,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f t="shared" si="9"/>
         <v>35947</v>
@@ -7144,7 +7142,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <f t="shared" si="9"/>
         <v>35977</v>
@@ -7171,7 +7169,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>103</v>
@@ -7191,7 +7189,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <f>EDATE(A148,1)</f>
         <v>36008</v>
@@ -7218,7 +7216,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>50</v>
@@ -7238,7 +7236,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>104</v>
@@ -7258,7 +7256,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f>EDATE(A150,1)</f>
         <v>36039</v>
@@ -7285,7 +7283,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>105</v>
@@ -7305,7 +7303,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>36069</v>
@@ -7332,7 +7330,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>53</v>
@@ -7352,7 +7350,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="53"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>106</v>
@@ -7372,7 +7370,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="53"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <f>EDATE(A155,1)</f>
         <v>36100</v>
@@ -7397,7 +7395,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A158,1)</f>
         <v>36130</v>
@@ -7418,7 +7416,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="45" t="s">
         <v>108</v>
       </c>
@@ -7436,7 +7434,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f>EDATE(A159,1)</f>
         <v>36161</v>
@@ -7463,7 +7461,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>109</v>
@@ -7483,7 +7481,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <f>EDATE(A161,1)</f>
         <v>36192</v>
@@ -7510,7 +7508,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>51</v>
@@ -7530,7 +7528,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>53</v>
@@ -7552,7 +7550,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>110</v>
@@ -7572,7 +7570,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <f>EDATE(A163,1)</f>
         <v>36220</v>
@@ -7597,7 +7595,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f t="shared" ref="A168" si="10">EDATE(A167,1)</f>
         <v>36251</v>
@@ -7622,7 +7620,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>53</v>
@@ -7644,7 +7642,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>112</v>
@@ -7664,7 +7662,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <f>EDATE(A168,1)</f>
         <v>36281</v>
@@ -7691,7 +7689,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>50</v>
@@ -7711,7 +7709,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>113</v>
@@ -7731,7 +7729,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <f>EDATE(A171,1)</f>
         <v>36312</v>
@@ -7758,7 +7756,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>50</v>
@@ -7778,7 +7776,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>114</v>
@@ -7798,7 +7796,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f>EDATE(A174,1)</f>
         <v>36342</v>
@@ -7825,7 +7823,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>53</v>
@@ -7847,7 +7845,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>116</v>
@@ -7867,7 +7865,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="53"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f>EDATE(A177,1)</f>
         <v>36373</v>
@@ -7894,7 +7892,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>117</v>
@@ -7914,7 +7912,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>50</v>
@@ -7934,7 +7932,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <f>EDATE(A180,1)</f>
         <v>36404</v>
@@ -7961,7 +7959,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>53</v>
@@ -7983,7 +7981,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>118</v>
@@ -8003,7 +8001,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f>EDATE(A183,1)</f>
         <v>36434</v>
@@ -8030,7 +8028,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>91</v>
@@ -8052,7 +8050,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>119</v>
@@ -8072,7 +8070,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f>EDATE(A186,1)</f>
         <v>36465</v>
@@ -8099,7 +8097,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>97</v>
@@ -8121,7 +8119,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>120</v>
@@ -8141,7 +8139,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f>EDATE(A189,1)</f>
         <v>36495</v>
@@ -8168,7 +8166,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8190,7 +8188,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>121</v>
@@ -8210,7 +8208,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="45" t="s">
         <v>122</v>
       </c>
@@ -8228,7 +8226,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f>EDATE(A192,1)</f>
         <v>36526</v>
@@ -8255,7 +8253,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>50</v>
@@ -8275,7 +8273,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>123</v>
@@ -8295,7 +8293,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>56</v>
@@ -8317,7 +8315,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f>EDATE(A196,1)</f>
         <v>36557</v>
@@ -8342,7 +8340,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f t="shared" ref="A201" si="11">EDATE(A200,1)</f>
         <v>36586</v>
@@ -8369,7 +8367,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>124</v>
@@ -8389,7 +8387,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <f>EDATE(A201,1)</f>
         <v>36617</v>
@@ -8416,7 +8414,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>50</v>
@@ -8436,7 +8434,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>125</v>
@@ -8456,7 +8454,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <f>EDATE(A203,1)</f>
         <v>36647</v>
@@ -8481,7 +8479,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <f>EDATE(A206,1)</f>
         <v>36678</v>
@@ -8506,7 +8504,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>127</v>
@@ -8526,7 +8524,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f>EDATE(A207,1)</f>
         <v>36708</v>
@@ -8553,7 +8551,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>128</v>
@@ -8573,7 +8571,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f>EDATE(A209,1)</f>
         <v>36739</v>
@@ -8600,7 +8598,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>91</v>
@@ -8622,7 +8620,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>123</v>
@@ -8642,7 +8640,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <f>EDATE(A211,1)</f>
         <v>36770</v>
@@ -8669,7 +8667,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>91</v>
@@ -8691,7 +8689,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>129</v>
@@ -8711,7 +8709,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f>EDATE(A214,1)</f>
         <v>36800</v>
@@ -8738,7 +8736,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>91</v>
@@ -8760,7 +8758,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>130</v>
@@ -8780,7 +8778,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f>EDATE(A217,1)</f>
         <v>36831</v>
@@ -8807,7 +8805,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>54</v>
@@ -8829,7 +8827,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>56</v>
@@ -8851,7 +8849,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>131</v>
@@ -8871,7 +8869,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <f>EDATE(A220,1)</f>
         <v>36861</v>
@@ -8898,7 +8896,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>92</v>
@@ -8920,7 +8918,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>132</v>
@@ -8940,7 +8938,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="s">
         <v>133</v>
       </c>
@@ -8958,7 +8956,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f>EDATE(A224,1)</f>
         <v>36892</v>
@@ -8983,7 +8981,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f>EDATE(A228,1)</f>
         <v>36923</v>
@@ -9010,7 +9008,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>53</v>
@@ -9032,7 +9030,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>134</v>
@@ -9052,7 +9050,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f>EDATE(A229,1)</f>
         <v>36951</v>
@@ -9077,7 +9075,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <f t="shared" ref="A233:A234" si="12">EDATE(A232,1)</f>
         <v>36982</v>
@@ -9102,7 +9100,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f t="shared" si="12"/>
         <v>37012</v>
@@ -9129,7 +9127,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>137</v>
@@ -9149,7 +9147,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>37043</v>
@@ -9176,7 +9174,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>50</v>
@@ -9196,7 +9194,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>50</v>
@@ -9216,7 +9214,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>138</v>
@@ -9236,7 +9234,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="53"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <f>EDATE(A236,1)</f>
         <v>37073</v>
@@ -9263,7 +9261,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>53</v>
@@ -9285,7 +9283,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>139</v>
@@ -9305,7 +9303,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f>EDATE(A240,1)</f>
         <v>37104</v>
@@ -9332,7 +9330,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>140</v>
@@ -9352,7 +9350,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>37135</v>
@@ -9379,7 +9377,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>115</v>
@@ -9401,7 +9399,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>141</v>
@@ -9421,7 +9419,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <f>EDATE(A245,1)</f>
         <v>37165</v>
@@ -9448,7 +9446,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>53</v>
@@ -9470,7 +9468,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>142</v>
@@ -9490,7 +9488,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f>EDATE(A248,1)</f>
         <v>37196</v>
@@ -9517,7 +9515,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>53</v>
@@ -9539,7 +9537,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>143</v>
@@ -9559,7 +9557,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>37226</v>
@@ -9584,7 +9582,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="45" t="s">
         <v>145</v>
       </c>
@@ -9602,7 +9600,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>37257</v>
@@ -9627,7 +9625,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f>EDATE(A256,1)</f>
         <v>37288</v>
@@ -9654,7 +9652,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>92</v>
@@ -9676,7 +9674,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>54</v>
@@ -9698,7 +9696,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>50</v>
@@ -9718,7 +9716,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>50</v>
@@ -9738,7 +9736,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>53</v>
@@ -9760,7 +9758,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>56</v>
@@ -9782,7 +9780,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>148</v>
@@ -9802,7 +9800,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="53"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f>EDATE(A257,1)</f>
         <v>37316</v>
@@ -9827,7 +9825,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f t="shared" ref="A266:A291" si="13">EDATE(A265,1)</f>
         <v>37347</v>
@@ -9854,7 +9852,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>149</v>
@@ -9874,7 +9872,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f>EDATE(A266,1)</f>
         <v>37377</v>
@@ -9901,7 +9899,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>56</v>
@@ -9923,7 +9921,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>53</v>
@@ -9945,7 +9943,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>53</v>
@@ -9967,7 +9965,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>56</v>
@@ -9989,7 +9987,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>150</v>
@@ -10009,7 +10007,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f>EDATE(A268,1)</f>
         <v>37408</v>
@@ -10034,7 +10032,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>56</v>
@@ -10056,7 +10054,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>151</v>
@@ -10076,7 +10074,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="53"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>53</v>
@@ -10098,7 +10096,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <f>EDATE(A274,1)</f>
         <v>37438</v>
@@ -10125,7 +10123,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>92</v>
@@ -10147,7 +10145,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>152</v>
@@ -10167,7 +10165,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <f>EDATE(A278,1)</f>
         <v>37469</v>
@@ -10194,7 +10192,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>153</v>
@@ -10214,7 +10212,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>53</v>
@@ -10236,7 +10234,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f>EDATE(A281,1)</f>
         <v>37500</v>
@@ -10263,7 +10261,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>92</v>
@@ -10285,7 +10283,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>56</v>
@@ -10307,7 +10305,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>154</v>
@@ -10327,7 +10325,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="53"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <f>EDATE(A284,1)</f>
         <v>37530</v>
@@ -10354,7 +10352,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>155</v>
@@ -10374,7 +10372,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <f>EDATE(A288,1)</f>
         <v>37561</v>
@@ -10399,7 +10397,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f t="shared" si="13"/>
         <v>37591</v>
@@ -10426,7 +10424,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>157</v>
@@ -10446,7 +10444,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="45" t="s">
         <v>158</v>
       </c>
@@ -10464,7 +10462,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f>EDATE(A291,1)</f>
         <v>37622</v>
@@ -10491,7 +10489,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>53</v>
@@ -10513,7 +10511,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>159</v>
@@ -10533,7 +10531,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f>EDATE(A294,1)</f>
         <v>37653</v>
@@ -10560,7 +10558,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>161</v>
@@ -10580,7 +10578,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <f>EDATE(A297,1)</f>
         <v>37681</v>
@@ -10605,7 +10603,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>163</v>
@@ -10625,7 +10623,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f>EDATE(A299,1)</f>
         <v>37712</v>
@@ -10652,7 +10650,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>53</v>
@@ -10674,7 +10672,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>164</v>
@@ -10694,7 +10692,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f>EDATE(A301,1)</f>
         <v>37742</v>
@@ -10721,7 +10719,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>50</v>
@@ -10741,7 +10739,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>165</v>
@@ -10761,7 +10759,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="53"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f>EDATE(A304,1)</f>
         <v>37773</v>
@@ -10788,7 +10786,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>166</v>
@@ -10808,7 +10806,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f>EDATE(A307,1)</f>
         <v>37803</v>
@@ -10835,7 +10833,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>50</v>
@@ -10855,7 +10853,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>167</v>
@@ -10875,7 +10873,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>92</v>
@@ -10897,7 +10895,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f>EDATE(A309,1)</f>
         <v>37834</v>
@@ -10918,7 +10916,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f t="shared" ref="A314:A318" si="14">EDATE(A313,1)</f>
         <v>37865</v>
@@ -10941,7 +10939,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>56</v>
@@ -10961,7 +10959,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>168</v>
@@ -10981,7 +10979,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f>EDATE(A314,1)</f>
         <v>37895</v>
@@ -11006,7 +11004,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <f t="shared" si="14"/>
         <v>37926</v>
@@ -11033,7 +11031,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>170</v>
@@ -11053,7 +11051,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="53"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <f>EDATE(A318,1)</f>
         <v>37956</v>
@@ -11080,7 +11078,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>53</v>
@@ -11102,7 +11100,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>171</v>
@@ -11122,7 +11120,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="45" t="s">
         <v>172</v>
       </c>
@@ -11140,7 +11138,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f>EDATE(A320,1)</f>
         <v>37987</v>
@@ -11165,7 +11163,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <f>EDATE(A324,1)</f>
         <v>38018</v>
@@ -11190,7 +11188,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>54</v>
@@ -11212,7 +11210,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <f>EDATE(A325,1)</f>
         <v>38047</v>
@@ -11239,7 +11237,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>50</v>
@@ -11259,7 +11257,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>175</v>
@@ -11279,7 +11277,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <f>EDATE(A327,1)</f>
         <v>38078</v>
@@ -11304,7 +11302,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>54</v>
@@ -11326,7 +11324,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>176</v>
@@ -11346,7 +11344,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <f>EDATE(A330,1)</f>
         <v>38108</v>
@@ -11373,7 +11371,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>50</v>
@@ -11393,7 +11391,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>177</v>
@@ -11413,7 +11411,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f>EDATE(A333,1)</f>
         <v>38139</v>
@@ -11440,7 +11438,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>51</v>
@@ -11462,7 +11460,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>53</v>
@@ -11484,7 +11482,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>56</v>
@@ -11506,7 +11504,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>127</v>
@@ -11526,7 +11524,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A336,1)</f>
         <v>38169</v>
@@ -11549,7 +11547,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>178</v>
@@ -11569,7 +11567,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>38200</v>
@@ -11596,7 +11594,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>92</v>
@@ -11618,7 +11616,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>119</v>
@@ -11638,7 +11636,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f>EDATE(A343,1)</f>
         <v>38231</v>
@@ -11665,7 +11663,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>53</v>
@@ -11687,7 +11685,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>179</v>
@@ -11707,7 +11705,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="53"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <f>EDATE(A346,1)</f>
         <v>38261</v>
@@ -11734,7 +11732,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>180</v>
@@ -11754,7 +11752,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="53"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f t="shared" ref="A351" si="15">EDATE(A349,1)</f>
         <v>38292</v>
@@ -11781,7 +11779,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>181</v>
@@ -11801,7 +11799,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <f>EDATE(A351,1)</f>
         <v>38322</v>
@@ -11828,7 +11826,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>53</v>
@@ -11850,7 +11848,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>182</v>
@@ -11870,7 +11868,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="45" t="s">
         <v>183</v>
       </c>
@@ -11888,7 +11886,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <f>EDATE(A353,1)</f>
         <v>38353</v>
@@ -11913,7 +11911,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>53</v>
@@ -11935,7 +11933,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>53</v>
@@ -11957,7 +11955,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>184</v>
@@ -11977,7 +11975,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <f>EDATE(A357,1)</f>
         <v>38384</v>
@@ -12004,7 +12002,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>185</v>
@@ -12024,7 +12022,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <f>EDATE(A361,1)</f>
         <v>38412</v>
@@ -12051,7 +12049,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>186</v>
@@ -12071,7 +12069,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>38443</v>
@@ -12096,7 +12094,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <f t="shared" ref="A366:A388" si="16">EDATE(A365,1)</f>
         <v>38473</v>
@@ -12123,7 +12121,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>68</v>
@@ -12145,7 +12143,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>56</v>
@@ -12167,7 +12165,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>188</v>
@@ -12187,7 +12185,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="53"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <f>EDATE(A366,1)</f>
         <v>38504</v>
@@ -12214,7 +12212,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>50</v>
@@ -12234,7 +12232,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>56</v>
@@ -12256,7 +12254,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>53</v>
@@ -12278,7 +12276,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>189</v>
@@ -12298,7 +12296,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <f>EDATE(A370,1)</f>
         <v>38534</v>
@@ -12325,7 +12323,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>53</v>
@@ -12347,7 +12345,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>53</v>
@@ -12369,7 +12367,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>190</v>
@@ -12389,7 +12387,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f>EDATE(A375,1)</f>
         <v>38565</v>
@@ -12414,7 +12412,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>53</v>
@@ -12432,7 +12430,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>191</v>
@@ -12452,7 +12450,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <f>EDATE(A379,1)</f>
         <v>38596</v>
@@ -12479,7 +12477,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>68</v>
@@ -12501,7 +12499,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>192</v>
@@ -12521,7 +12519,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <f>EDATE(A382,1)</f>
         <v>38626</v>
@@ -12546,7 +12544,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>194</v>
@@ -12566,7 +12564,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <f>EDATE(A385,1)</f>
         <v>38657</v>
@@ -12591,7 +12589,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <f t="shared" si="16"/>
         <v>38687</v>
@@ -12618,7 +12616,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>196</v>
@@ -12640,7 +12638,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="45" t="s">
         <v>197</v>
       </c>
@@ -12658,7 +12656,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>38718</v>
@@ -12685,7 +12683,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>50</v>
@@ -12705,7 +12703,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>198</v>
@@ -12725,7 +12723,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <f>EDATE(A391,1)</f>
         <v>38749</v>
@@ -12750,7 +12748,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <f t="shared" ref="A395:A411" si="17">EDATE(A394,1)</f>
         <v>38777</v>
@@ -12775,7 +12773,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>50</v>
@@ -12795,7 +12793,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>200</v>
@@ -12815,7 +12813,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <f>EDATE(A395,1)</f>
         <v>38808</v>
@@ -12840,7 +12838,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>68</v>
@@ -12862,7 +12860,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>202</v>
@@ -12884,7 +12882,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>54</v>
@@ -12906,7 +12904,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>68</v>
@@ -12928,7 +12926,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <f>EDATE(A398,1)</f>
         <v>38838</v>
@@ -12953,7 +12951,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <f t="shared" si="17"/>
         <v>38869</v>
@@ -12978,7 +12976,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <f t="shared" si="17"/>
         <v>38899</v>
@@ -13005,7 +13003,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>53</v>
@@ -13027,7 +13025,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>68</v>
@@ -13049,7 +13047,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>92</v>
@@ -13071,7 +13069,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>205</v>
@@ -13091,7 +13089,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <f>EDATE(A405,1)</f>
         <v>38930</v>
@@ -13116,7 +13114,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <f t="shared" si="17"/>
         <v>38961</v>
@@ -13143,7 +13141,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>207</v>
@@ -13163,7 +13161,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <f>EDATE(A411,1)</f>
         <v>38991</v>
@@ -13188,7 +13186,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <f>EDATE(A413,1)</f>
         <v>39022</v>
@@ -13215,7 +13213,7 @@
         <v>45260</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>209</v>
@@ -13235,7 +13233,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <f>EDATE(A414,1)</f>
         <v>39052</v>
@@ -13262,7 +13260,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>210</v>
@@ -13282,7 +13280,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="45" t="s">
         <v>211</v>
       </c>
@@ -13300,7 +13298,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <f>EDATE(A416,1)</f>
         <v>39083</v>
@@ -13327,7 +13325,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>68</v>
@@ -13349,7 +13347,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>50</v>
@@ -13369,7 +13367,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>212</v>
@@ -13389,7 +13387,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <f>EDATE(A419,1)</f>
         <v>39114</v>
@@ -13416,7 +13414,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>213</v>
@@ -13438,7 +13436,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>214</v>
@@ -13458,7 +13456,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <f>EDATE(A423,1)</f>
         <v>39142</v>
@@ -13483,7 +13481,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>68</v>
@@ -13505,7 +13503,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
         <v>53</v>
@@ -13527,7 +13525,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>215</v>
@@ -13547,7 +13545,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <f>EDATE(A426,1)</f>
         <v>39173</v>
@@ -13574,7 +13572,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>216</v>
@@ -13594,7 +13592,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="53"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <f>EDATE(A430,1)</f>
         <v>39203</v>
@@ -13621,7 +13619,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>53</v>
@@ -13643,7 +13641,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>50</v>
@@ -13663,7 +13661,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>217</v>
@@ -13683,7 +13681,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23">
         <f>EDATE(A432,1)</f>
         <v>39234</v>
@@ -13710,7 +13708,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
         <v>218</v>
@@ -13730,7 +13728,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <f>EDATE(A436,1)</f>
         <v>39264</v>
@@ -13757,7 +13755,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>219</v>
@@ -13777,7 +13775,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <f>EDATE(A438,1)</f>
         <v>39295</v>
@@ -13804,7 +13802,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23"/>
       <c r="B441" s="20" t="s">
         <v>220</v>
@@ -13824,7 +13822,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23">
         <f>EDATE(A440,1)</f>
         <v>39326</v>
@@ -13851,7 +13849,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>221</v>
@@ -13871,7 +13869,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <f>EDATE(A442,1)</f>
         <v>39356</v>
@@ -13896,7 +13894,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <f t="shared" ref="A445" si="18">EDATE(A444,1)</f>
         <v>39387</v>
@@ -13923,7 +13921,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>54</v>
@@ -13945,7 +13943,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>68</v>
@@ -13967,7 +13965,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>223</v>
@@ -13987,7 +13985,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <f>EDATE(A445,1)</f>
         <v>39417</v>
@@ -14012,7 +14010,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="45" t="s">
         <v>225</v>
       </c>
@@ -14030,7 +14028,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <f>EDATE(A449,1)</f>
         <v>39448</v>
@@ -14055,7 +14053,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>68</v>
@@ -14077,7 +14075,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>226</v>
@@ -14097,7 +14095,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <f>EDATE(A451,1)</f>
         <v>39479</v>
@@ -14124,7 +14122,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>53</v>
@@ -14146,7 +14144,7 @@
         <v>47150</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>227</v>
@@ -14166,7 +14164,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23">
         <f>EDATE(A454,1)</f>
         <v>39508</v>
@@ -14193,7 +14191,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>50</v>
@@ -14213,7 +14211,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23"/>
       <c r="B459" s="20" t="s">
         <v>228</v>
@@ -14233,7 +14231,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23">
         <f>EDATE(A457,1)</f>
         <v>39539</v>
@@ -14260,7 +14258,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>53</v>
@@ -14282,7 +14280,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23"/>
       <c r="B462" s="20" t="s">
         <v>229</v>
@@ -14302,7 +14300,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <f>EDATE(A460,1)</f>
         <v>39569</v>
@@ -14329,7 +14327,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23"/>
       <c r="B464" s="20" t="s">
         <v>85</v>
@@ -14351,7 +14349,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
         <v>230</v>
@@ -14371,7 +14369,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f>EDATE(A463,1)</f>
         <v>39600</v>
@@ -14398,7 +14396,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>53</v>
@@ -14420,7 +14418,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>50</v>
@@ -14440,7 +14438,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <f>EDATE(A466,1)</f>
         <v>39630</v>
@@ -14467,7 +14465,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23"/>
       <c r="B470" s="20" t="s">
         <v>231</v>
@@ -14487,7 +14485,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="53"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <f>EDATE(A469,1)</f>
         <v>39661</v>
@@ -14512,7 +14510,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23"/>
       <c r="B472" s="20" t="s">
         <v>232</v>
@@ -14532,7 +14530,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <f>EDATE(A471,1)</f>
         <v>39692</v>
@@ -14559,7 +14557,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23"/>
       <c r="B474" s="20" t="s">
         <v>233</v>
@@ -14579,7 +14577,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23">
         <f>EDATE(A473,1)</f>
         <v>39722</v>
@@ -14606,7 +14604,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23"/>
       <c r="B476" s="20" t="s">
         <v>68</v>
@@ -14628,7 +14626,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>234</v>
@@ -14648,7 +14646,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23">
         <f t="shared" ref="A478" si="19">EDATE(A475,1)</f>
         <v>39753</v>
@@ -14673,7 +14671,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <f>EDATE(A478,1)</f>
         <v>39783</v>
@@ -14700,7 +14698,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>236</v>
@@ -14720,7 +14718,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="45" t="s">
         <v>237</v>
       </c>
@@ -14738,7 +14736,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23">
         <f>EDATE(A479,1)</f>
         <v>39814</v>
@@ -14765,7 +14763,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>238</v>
@@ -14785,7 +14783,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <f>EDATE(A482,1)</f>
         <v>39845</v>
@@ -14812,7 +14810,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23"/>
       <c r="B485" s="20" t="s">
         <v>53</v>
@@ -14834,7 +14832,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23"/>
       <c r="B486" s="20" t="s">
         <v>213</v>
@@ -14856,7 +14854,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>50</v>
@@ -14876,7 +14874,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>239</v>
@@ -14896,7 +14894,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <f>EDATE(A484,1)</f>
         <v>39873</v>
@@ -14921,7 +14919,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <f t="shared" ref="A490:A501" si="20">EDATE(A489,1)</f>
         <v>39904</v>
@@ -14946,7 +14944,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23">
         <f t="shared" si="20"/>
         <v>39934</v>
@@ -14973,7 +14971,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23"/>
       <c r="B492" s="20" t="s">
         <v>53</v>
@@ -14995,7 +14993,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23"/>
       <c r="B493" s="20" t="s">
         <v>242</v>
@@ -15015,7 +15013,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23">
         <f>EDATE(A491,1)</f>
         <v>39965</v>
@@ -15042,7 +15040,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>243</v>
@@ -15062,7 +15060,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23">
         <f>EDATE(A494,1)</f>
         <v>39995</v>
@@ -15087,7 +15085,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
         <v>53</v>
@@ -15109,7 +15107,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23">
         <f>EDATE(A496,1)</f>
         <v>40026</v>
@@ -15136,7 +15134,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23"/>
       <c r="B499" s="20" t="s">
         <v>245</v>
@@ -15156,7 +15154,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23">
         <f>EDATE(A498,1)</f>
         <v>40057</v>
@@ -15181,7 +15179,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23">
         <f t="shared" si="20"/>
         <v>40087</v>
@@ -15208,7 +15206,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>50</v>
@@ -15228,7 +15226,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23"/>
       <c r="B503" s="20" t="s">
         <v>247</v>
@@ -15248,7 +15246,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23">
         <f>EDATE(A501,1)</f>
         <v>40118</v>
@@ -15275,7 +15273,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="23"/>
       <c r="B505" s="20" t="s">
         <v>248</v>
@@ -15295,7 +15293,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="23">
         <f>EDATE(A504,1)</f>
         <v>40148</v>
@@ -15320,7 +15318,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23"/>
       <c r="B507" s="20" t="s">
         <v>249</v>
@@ -15340,7 +15338,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23"/>
       <c r="B508" s="20" t="s">
         <v>53</v>
@@ -15362,7 +15360,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="45" t="s">
         <v>250</v>
       </c>
@@ -15380,7 +15378,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23">
         <f>EDATE(A506,1)</f>
         <v>40179</v>
@@ -15407,7 +15405,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23"/>
       <c r="B511" s="20" t="s">
         <v>50</v>
@@ -15427,7 +15425,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>53</v>
@@ -15449,7 +15447,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="23"/>
       <c r="B513" s="20" t="s">
         <v>251</v>
@@ -15469,7 +15467,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="23">
         <f>EDATE(A510,1)</f>
         <v>40210</v>
@@ -15494,7 +15492,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23"/>
       <c r="B515" s="20" t="s">
         <v>53</v>
@@ -15516,7 +15514,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>53</v>
@@ -15538,7 +15536,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23"/>
       <c r="B517" s="20" t="s">
         <v>54</v>
@@ -15560,7 +15558,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23"/>
       <c r="B518" s="20" t="s">
         <v>252</v>
@@ -15580,7 +15578,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="23">
         <f>EDATE(A514,1)</f>
         <v>40238</v>
@@ -15607,7 +15605,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="23"/>
       <c r="B520" s="20" t="s">
         <v>53</v>
@@ -15629,7 +15627,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="23"/>
       <c r="B521" s="20" t="s">
         <v>127</v>
@@ -15649,7 +15647,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="23">
         <f>EDATE(A519,1)</f>
         <v>40269</v>
@@ -15676,7 +15674,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="23"/>
       <c r="B523" s="20" t="s">
         <v>53</v>
@@ -15698,7 +15696,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="23"/>
       <c r="B524" s="20" t="s">
         <v>253</v>
@@ -15718,7 +15716,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="23">
         <f>EDATE(A522,1)</f>
         <v>40299</v>
@@ -15745,7 +15743,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="23"/>
       <c r="B526" s="20" t="s">
         <v>53</v>
@@ -15767,7 +15765,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="23"/>
       <c r="B527" s="20" t="s">
         <v>53</v>
@@ -15789,7 +15787,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="23"/>
       <c r="B528" s="20" t="s">
         <v>53</v>
@@ -15811,7 +15809,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="23"/>
       <c r="B529" s="20" t="s">
         <v>254</v>
@@ -15831,7 +15829,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="23">
         <f>EDATE(A525,1)</f>
         <v>40330</v>
@@ -15858,7 +15856,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="23"/>
       <c r="B531" s="20" t="s">
         <v>256</v>
@@ -15878,7 +15876,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23">
         <f>EDATE(A530,1)</f>
         <v>40360</v>
@@ -15905,7 +15903,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="23"/>
       <c r="B533" s="20" t="s">
         <v>53</v>
@@ -15927,7 +15925,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
         <v>50</v>
@@ -15947,7 +15945,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="23"/>
       <c r="B535" s="20" t="s">
         <v>257</v>
@@ -15967,7 +15965,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="23">
         <f>EDATE(A532,1)</f>
         <v>40391</v>
@@ -15994,7 +15992,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="23"/>
       <c r="B537" s="20" t="s">
         <v>54</v>
@@ -16016,7 +16014,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="23"/>
       <c r="B538" s="20" t="s">
         <v>258</v>
@@ -16036,7 +16034,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="23"/>
       <c r="B539" s="20" t="s">
         <v>92</v>
@@ -16056,7 +16054,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="23">
         <f>EDATE(A536,1)</f>
         <v>40422</v>
@@ -16083,7 +16081,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="23"/>
       <c r="B541" s="20" t="s">
         <v>56</v>
@@ -16105,7 +16103,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="23"/>
       <c r="B542" s="20" t="s">
         <v>259</v>
@@ -16125,7 +16123,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="23">
         <f>EDATE(A540,1)</f>
         <v>40452</v>
@@ -16152,7 +16150,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="23"/>
       <c r="B544" s="20" t="s">
         <v>260</v>
@@ -16172,7 +16170,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="23">
         <f>EDATE(A543,1)</f>
         <v>40483</v>
@@ -16199,7 +16197,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="23"/>
       <c r="B546" s="20" t="s">
         <v>261</v>
@@ -16219,7 +16217,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="23"/>
       <c r="B547" s="20" t="s">
         <v>53</v>
@@ -16241,7 +16239,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="23">
         <f t="shared" ref="A548" si="21">EDATE(A545,1)</f>
         <v>40513</v>
@@ -16266,7 +16264,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="45" t="s">
         <v>262</v>
       </c>
@@ -16284,7 +16282,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="23">
         <f>EDATE(A548,1)</f>
         <v>40544</v>
@@ -16309,7 +16307,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="23"/>
       <c r="B551" s="20" t="s">
         <v>54</v>
@@ -16331,7 +16329,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="23"/>
       <c r="B552" s="20" t="s">
         <v>263</v>
@@ -16351,7 +16349,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="23">
         <f>EDATE(A550,1)</f>
         <v>40575</v>
@@ -16378,7 +16376,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="23"/>
       <c r="B554" s="20" t="s">
         <v>92</v>
@@ -16400,7 +16398,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="23"/>
       <c r="B555" s="20" t="s">
         <v>264</v>
@@ -16420,7 +16418,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="23">
         <f>EDATE(A553,1)</f>
         <v>40603</v>
@@ -16447,7 +16445,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="23"/>
       <c r="B557" s="20" t="s">
         <v>50</v>
@@ -16467,7 +16465,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="23"/>
       <c r="B558" s="20" t="s">
         <v>53</v>
@@ -16489,7 +16487,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="23"/>
       <c r="B559" s="20" t="s">
         <v>265</v>
@@ -16509,7 +16507,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="23">
         <f>EDATE(A556,1)</f>
         <v>40634</v>
@@ -16534,7 +16532,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="23">
         <f t="shared" ref="A561:A566" si="22">EDATE(A560,1)</f>
         <v>40664</v>
@@ -16559,7 +16557,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="23">
         <f t="shared" si="22"/>
         <v>40695</v>
@@ -16586,7 +16584,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="23"/>
       <c r="B563" s="20" t="s">
         <v>50</v>
@@ -16606,7 +16604,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="23"/>
       <c r="B564" s="20" t="s">
         <v>268</v>
@@ -16626,7 +16624,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="23">
         <f>EDATE(A562,1)</f>
         <v>40725</v>
@@ -16651,7 +16649,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="23">
         <f t="shared" si="22"/>
         <v>40756</v>
@@ -16678,7 +16676,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="23"/>
       <c r="B567" s="20" t="s">
         <v>53</v>
@@ -16700,7 +16698,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="23"/>
       <c r="B568" s="20" t="s">
         <v>270</v>
@@ -16720,7 +16718,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="23">
         <f>EDATE(A566,1)</f>
         <v>40787</v>
@@ -16747,7 +16745,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="23"/>
       <c r="B570" s="20" t="s">
         <v>53</v>
@@ -16769,7 +16767,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="23"/>
       <c r="B571" s="20" t="s">
         <v>271</v>
@@ -16789,7 +16787,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="23">
         <f>EDATE(A569,1)</f>
         <v>40817</v>
@@ -16816,7 +16814,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="23"/>
       <c r="B573" s="20" t="s">
         <v>54</v>
@@ -16838,7 +16836,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="23"/>
       <c r="B574" s="20" t="s">
         <v>53</v>
@@ -16860,7 +16858,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="23"/>
       <c r="B575" s="20" t="s">
         <v>272</v>
@@ -16880,7 +16878,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="23">
         <f>EDATE(A572,1)</f>
         <v>40848</v>
@@ -16907,7 +16905,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="23"/>
       <c r="B577" s="20" t="s">
         <v>273</v>
@@ -16927,7 +16925,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="23">
         <f>EDATE(A576,1)</f>
         <v>40878</v>
@@ -16954,7 +16952,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="23"/>
       <c r="B579" s="20" t="s">
         <v>274</v>
@@ -16974,7 +16972,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="45" t="s">
         <v>275</v>
       </c>
@@ -16992,7 +16990,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="23">
         <f>EDATE(A578,1)</f>
         <v>40909</v>
@@ -17017,7 +17015,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="23"/>
       <c r="B582" s="20" t="s">
         <v>53</v>
@@ -17039,7 +17037,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="23"/>
       <c r="B583" s="20" t="s">
         <v>276</v>
@@ -17059,7 +17057,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="23">
         <f>EDATE(A581,1)</f>
         <v>40940</v>
@@ -17086,7 +17084,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="23"/>
       <c r="B585" s="20" t="s">
         <v>54</v>
@@ -17108,7 +17106,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="23"/>
       <c r="B586" s="20" t="s">
         <v>56</v>
@@ -17130,7 +17128,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="23"/>
       <c r="B587" s="20" t="s">
         <v>277</v>
@@ -17150,7 +17148,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="23">
         <f>EDATE(A584,1)</f>
         <v>40969</v>
@@ -17177,7 +17175,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="23"/>
       <c r="B589" s="20" t="s">
         <v>278</v>
@@ -17197,7 +17195,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="23">
         <f>EDATE(A588,1)</f>
         <v>41000</v>
@@ -17224,7 +17222,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="23"/>
       <c r="B591" s="20" t="s">
         <v>50</v>
@@ -17244,7 +17242,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="23"/>
       <c r="B592" s="20" t="s">
         <v>53</v>
@@ -17266,7 +17264,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="23"/>
       <c r="B593" s="20" t="s">
         <v>279</v>
@@ -17286,7 +17284,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="53"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="23">
         <f>EDATE(A590,1)</f>
         <v>41030</v>
@@ -17313,7 +17311,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="23"/>
       <c r="B595" s="20" t="s">
         <v>54</v>
@@ -17335,7 +17333,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="23"/>
       <c r="B596" s="20" t="s">
         <v>53</v>
@@ -17357,7 +17355,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="23"/>
       <c r="B597" s="20" t="s">
         <v>280</v>
@@ -17377,7 +17375,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="23">
         <f>EDATE(A594,1)</f>
         <v>41061</v>
@@ -17402,7 +17400,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="23">
         <f t="shared" ref="A599:A601" si="23">EDATE(A598,1)</f>
         <v>41091</v>
@@ -17427,7 +17425,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="23">
         <f t="shared" si="23"/>
         <v>41122</v>
@@ -17452,7 +17450,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="23">
         <f t="shared" si="23"/>
         <v>41153</v>
@@ -17479,7 +17477,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="23"/>
       <c r="B602" s="20" t="s">
         <v>92</v>
@@ -17501,7 +17499,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="23"/>
       <c r="B603" s="20" t="s">
         <v>283</v>
@@ -17521,7 +17519,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="23">
         <f>EDATE(A601,1)</f>
         <v>41183</v>
@@ -17548,7 +17546,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="23"/>
       <c r="B605" s="20" t="s">
         <v>284</v>
@@ -17568,7 +17566,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="23">
         <f>EDATE(A604,1)</f>
         <v>41214</v>
@@ -17595,7 +17593,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="23"/>
       <c r="B607" s="20" t="s">
         <v>285</v>
@@ -17615,7 +17613,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="23">
         <f>EDATE(A606,1)</f>
         <v>41244</v>
@@ -17640,7 +17638,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="23"/>
       <c r="B609" s="20" t="s">
         <v>286</v>
@@ -17660,7 +17658,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="45" t="s">
         <v>287</v>
       </c>
@@ -17678,7 +17676,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="23">
         <f>EDATE(A608,1)</f>
         <v>41275</v>
@@ -17705,7 +17703,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="23"/>
       <c r="B612" s="20" t="s">
         <v>288</v>
@@ -17725,7 +17723,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="53"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="23">
         <f>EDATE(A611,1)</f>
         <v>41306</v>
@@ -17750,7 +17748,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="23"/>
       <c r="B614" s="20" t="s">
         <v>53</v>
@@ -17772,7 +17770,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="23"/>
       <c r="B615" s="20" t="s">
         <v>289</v>
@@ -17792,7 +17790,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="53"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="23">
         <f>EDATE(A613,1)</f>
         <v>41334</v>
@@ -17817,7 +17815,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="23">
         <f t="shared" ref="A617:A631" si="24">EDATE(A616,1)</f>
         <v>41365</v>
@@ -17842,7 +17840,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="23"/>
       <c r="B618" s="20" t="s">
         <v>54</v>
@@ -17864,7 +17862,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="23"/>
       <c r="B619" s="20" t="s">
         <v>53</v>
@@ -17886,7 +17884,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="23"/>
       <c r="B620" s="20" t="s">
         <v>291</v>
@@ -17906,7 +17904,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="23">
         <f>EDATE(A617,1)</f>
         <v>41395</v>
@@ -17933,7 +17931,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="23"/>
       <c r="B622" s="20" t="s">
         <v>292</v>
@@ -17953,7 +17951,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="23">
         <f>EDATE(A621,1)</f>
         <v>41426</v>
@@ -17980,7 +17978,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="23"/>
       <c r="B624" s="20" t="s">
         <v>293</v>
@@ -18000,7 +17998,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="23">
         <f>EDATE(A623,1)</f>
         <v>41456</v>
@@ -18027,7 +18025,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="23"/>
       <c r="B626" s="20" t="s">
         <v>87</v>
@@ -18049,7 +18047,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="23"/>
       <c r="B627" s="20" t="s">
         <v>294</v>
@@ -18069,7 +18067,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="23">
         <f>EDATE(A625,1)</f>
         <v>41487</v>
@@ -18096,7 +18094,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="23"/>
       <c r="B629" s="20" t="s">
         <v>295</v>
@@ -18116,7 +18114,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="23">
         <f>EDATE(A628,1)</f>
         <v>41518</v>
@@ -18141,7 +18139,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="23">
         <f t="shared" si="24"/>
         <v>41548</v>
@@ -18168,7 +18166,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="23"/>
       <c r="B632" s="20" t="s">
         <v>185</v>
@@ -18188,7 +18186,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="23">
         <f>EDATE(A631,1)</f>
         <v>41579</v>
@@ -18215,7 +18213,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="23"/>
       <c r="B634" s="20" t="s">
         <v>50</v>
@@ -18235,7 +18233,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="23"/>
       <c r="B635" s="20" t="s">
         <v>87</v>
@@ -18257,7 +18255,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="23"/>
       <c r="B636" s="20" t="s">
         <v>116</v>
@@ -18277,7 +18275,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="23">
         <f>EDATE(A633,1)</f>
         <v>41609</v>
@@ -18304,7 +18302,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="23"/>
       <c r="B638" s="20" t="s">
         <v>53</v>
@@ -18326,7 +18324,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="23"/>
       <c r="B639" s="20" t="s">
         <v>297</v>
@@ -18346,7 +18344,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="23"/>
       <c r="B640" s="20" t="s">
         <v>298</v>
@@ -18366,7 +18364,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="45" t="s">
         <v>299</v>
       </c>
@@ -18384,7 +18382,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="23">
         <f>EDATE(A637,1)</f>
         <v>41640</v>
@@ -18411,7 +18409,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="23"/>
       <c r="B643" s="20" t="s">
         <v>202</v>
@@ -18433,7 +18431,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="23"/>
       <c r="B644" s="20" t="s">
         <v>300</v>
@@ -18453,7 +18451,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="23">
         <f>EDATE(A642,1)</f>
         <v>41671</v>
@@ -18478,7 +18476,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="23">
         <f t="shared" ref="A646:A663" si="25">EDATE(A645,1)</f>
         <v>41699</v>
@@ -18499,7 +18497,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="23">
         <f t="shared" si="25"/>
         <v>41730</v>
@@ -18524,7 +18522,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="23"/>
       <c r="B648" s="20" t="s">
         <v>302</v>
@@ -18546,7 +18544,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="23">
         <f>EDATE(A647,1)</f>
         <v>41760</v>
@@ -18573,7 +18571,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="23"/>
       <c r="B650" s="20" t="s">
         <v>303</v>
@@ -18593,7 +18591,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="23">
         <f>EDATE(A649,1)</f>
         <v>41791</v>
@@ -18620,7 +18618,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="23"/>
       <c r="B652" s="20" t="s">
         <v>53</v>
@@ -18642,7 +18640,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="23"/>
       <c r="B653" s="20" t="s">
         <v>53</v>
@@ -18664,7 +18662,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="23"/>
       <c r="B654" s="20" t="s">
         <v>304</v>
@@ -18684,7 +18682,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="23">
         <f>EDATE(A651,1)</f>
         <v>41821</v>
@@ -18711,7 +18709,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="23"/>
       <c r="B656" s="20" t="s">
         <v>50</v>
@@ -18731,7 +18729,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="23"/>
       <c r="B657" s="20" t="s">
         <v>92</v>
@@ -18753,7 +18751,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="23"/>
       <c r="B658" s="20" t="s">
         <v>305</v>
@@ -18773,7 +18771,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="23">
         <f>EDATE(A655,1)</f>
         <v>41852</v>
@@ -18800,7 +18798,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="23"/>
       <c r="B660" s="20" t="s">
         <v>53</v>
@@ -18822,7 +18820,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="23"/>
       <c r="B661" s="20" t="s">
         <v>306</v>
@@ -18842,7 +18840,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="23">
         <f>EDATE(A659,1)</f>
         <v>41883</v>
@@ -18867,7 +18865,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="23">
         <f t="shared" si="25"/>
         <v>41913</v>
@@ -18894,7 +18892,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="23"/>
       <c r="B664" s="20" t="s">
         <v>308</v>
@@ -18914,7 +18912,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="23">
         <f>EDATE(A663,1)</f>
         <v>41944</v>
@@ -18941,7 +18939,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="23"/>
       <c r="B666" s="20" t="s">
         <v>54</v>
@@ -18963,7 +18961,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="23"/>
       <c r="B667" s="20" t="s">
         <v>310</v>
@@ -18983,7 +18981,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="23">
         <f>EDATE(A665,1)</f>
         <v>41974</v>
@@ -19010,7 +19008,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="23"/>
       <c r="B669" s="20" t="s">
         <v>311</v>
@@ -19030,7 +19028,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="45" t="s">
         <v>312</v>
       </c>
@@ -19048,7 +19046,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="23">
         <f>EDATE(A668,1)</f>
         <v>42005</v>
@@ -19075,7 +19073,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="23"/>
       <c r="B672" s="20" t="s">
         <v>50</v>
@@ -19095,7 +19093,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="23"/>
       <c r="B673" s="20" t="s">
         <v>313</v>
@@ -19115,7 +19113,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="23">
         <f>EDATE(A671,1)</f>
         <v>42036</v>
@@ -19142,7 +19140,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="23"/>
       <c r="B675" s="20" t="s">
         <v>314</v>
@@ -19162,7 +19160,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="23">
         <f>EDATE(A674,1)</f>
         <v>42064</v>
@@ -19183,7 +19181,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="23">
         <f t="shared" ref="A677:A692" si="26">EDATE(A676,1)</f>
         <v>42095</v>
@@ -19210,7 +19208,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="23"/>
       <c r="B678" s="20" t="s">
         <v>50</v>
@@ -19230,7 +19228,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="23"/>
       <c r="B679" s="20" t="s">
         <v>315</v>
@@ -19250,7 +19248,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="23">
         <f>EDATE(A677,1)</f>
         <v>42125</v>
@@ -19277,7 +19275,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="23"/>
       <c r="B681" s="20" t="s">
         <v>68</v>
@@ -19299,7 +19297,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="23"/>
       <c r="B682" s="20" t="s">
         <v>316</v>
@@ -19319,7 +19317,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="23">
         <f>EDATE(A680,1)</f>
         <v>42156</v>
@@ -19346,7 +19344,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="23"/>
       <c r="B684" s="20" t="s">
         <v>317</v>
@@ -19366,7 +19364,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="23">
         <f>EDATE(A683,1)</f>
         <v>42186</v>
@@ -19393,7 +19391,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="23"/>
       <c r="B686" s="20" t="s">
         <v>53</v>
@@ -19415,7 +19413,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="23"/>
       <c r="B687" s="20" t="s">
         <v>53</v>
@@ -19437,7 +19435,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="23"/>
       <c r="B688" s="20" t="s">
         <v>318</v>
@@ -19457,7 +19455,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="23">
         <f>EDATE(A685,1)</f>
         <v>42217</v>
@@ -19484,7 +19482,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="23"/>
       <c r="B690" s="20" t="s">
         <v>319</v>
@@ -19504,7 +19502,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="23">
         <f>EDATE(A689,1)</f>
         <v>42248</v>
@@ -19529,7 +19527,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="23">
         <f t="shared" si="26"/>
         <v>42278</v>
@@ -19556,7 +19554,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="23"/>
       <c r="B693" s="20" t="s">
         <v>50</v>
@@ -19576,7 +19574,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="23"/>
       <c r="B694" s="20" t="s">
         <v>53</v>
@@ -19596,7 +19594,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="23"/>
       <c r="B695" s="20" t="s">
         <v>321</v>
@@ -19616,7 +19614,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="23">
         <f>EDATE(A692,1)</f>
         <v>42309</v>
@@ -19641,7 +19639,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="23"/>
       <c r="B697" s="20" t="s">
         <v>53</v>
@@ -19663,7 +19661,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="23">
         <f>EDATE(A696,1)</f>
         <v>42339</v>
@@ -19690,7 +19688,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="23"/>
       <c r="B699" s="20" t="s">
         <v>323</v>
@@ -19710,7 +19708,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="45" t="s">
         <v>324</v>
       </c>
@@ -19728,7 +19726,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="23">
         <f>EDATE(A698,1)</f>
         <v>42370</v>
@@ -19755,7 +19753,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="23"/>
       <c r="B702" s="20" t="s">
         <v>50</v>
@@ -19775,7 +19773,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="23"/>
       <c r="B703" s="20" t="s">
         <v>223</v>
@@ -19795,7 +19793,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="23">
         <f>EDATE(A701,1)</f>
         <v>42401</v>
@@ -19822,7 +19820,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="23"/>
       <c r="B705" s="20" t="s">
         <v>50</v>
@@ -19842,7 +19840,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="23"/>
       <c r="B706" s="20" t="s">
         <v>53</v>
@@ -19864,7 +19862,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="23"/>
       <c r="B707" s="20" t="s">
         <v>325</v>
@@ -19884,7 +19882,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="23">
         <f>EDATE(A704,1)</f>
         <v>42430</v>
@@ -19909,7 +19907,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="23">
         <f t="shared" ref="A709:A717" si="27">EDATE(A708,1)</f>
         <v>42461</v>
@@ -19936,7 +19934,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="23"/>
       <c r="B710" s="20" t="s">
         <v>327</v>
@@ -19956,7 +19954,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="23">
         <f>EDATE(A709,1)</f>
         <v>42491</v>
@@ -19981,7 +19979,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="23">
         <f t="shared" si="27"/>
         <v>42522</v>
@@ -20008,7 +20006,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="23"/>
       <c r="B713" s="20" t="s">
         <v>329</v>
@@ -20028,7 +20026,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="53"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="23">
         <f>EDATE(A712,1)</f>
         <v>42552</v>
@@ -20053,7 +20051,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="23">
         <f t="shared" si="27"/>
         <v>42583</v>
@@ -20078,7 +20076,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="23">
         <f t="shared" si="27"/>
         <v>42614</v>
@@ -20103,7 +20101,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="23">
         <f t="shared" si="27"/>
         <v>42644</v>
@@ -20130,7 +20128,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="23"/>
       <c r="B718" s="20" t="s">
         <v>53</v>
@@ -20152,7 +20150,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="23"/>
       <c r="B719" s="20" t="s">
         <v>332</v>
@@ -20172,7 +20170,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="23">
         <f>EDATE(A717,1)</f>
         <v>42675</v>
@@ -20199,7 +20197,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="23"/>
       <c r="B721" s="20" t="s">
         <v>50</v>
@@ -20219,7 +20217,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="23"/>
       <c r="B722" s="20" t="s">
         <v>333</v>
@@ -20239,7 +20237,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="23">
         <f>EDATE(A720,1)</f>
         <v>42705</v>
@@ -20266,7 +20264,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="23"/>
       <c r="B724" s="20" t="s">
         <v>87</v>
@@ -20288,7 +20286,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="23"/>
       <c r="B725" s="20" t="s">
         <v>334</v>
@@ -20308,7 +20306,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="45" t="s">
         <v>335</v>
       </c>
@@ -20326,7 +20324,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="23">
         <f>EDATE(A723,1)</f>
         <v>42736</v>
@@ -20351,7 +20349,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="23"/>
       <c r="B728" s="20" t="s">
         <v>53</v>
@@ -20373,7 +20371,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="23"/>
       <c r="B729" s="20" t="s">
         <v>336</v>
@@ -20393,7 +20391,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="23">
         <f>EDATE(A727,1)</f>
         <v>42767</v>
@@ -20418,7 +20416,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="23"/>
       <c r="B731" s="20" t="s">
         <v>53</v>
@@ -20440,7 +20438,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="23"/>
       <c r="B732" s="20" t="s">
         <v>57</v>
@@ -20462,7 +20460,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="23"/>
       <c r="B733" s="20" t="s">
         <v>53</v>
@@ -20484,7 +20482,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="23"/>
       <c r="B734" s="20" t="s">
         <v>56</v>
@@ -20506,7 +20504,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="23"/>
       <c r="B735" s="20" t="s">
         <v>337</v>
@@ -20526,7 +20524,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="23">
         <f>EDATE(A730,1)</f>
         <v>42795</v>
@@ -20547,7 +20545,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="23">
         <f t="shared" ref="A737:A746" si="28">EDATE(A736,1)</f>
         <v>42826</v>
@@ -20568,7 +20566,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="23">
         <f t="shared" si="28"/>
         <v>42856</v>
@@ -20589,7 +20587,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="23">
         <f t="shared" si="28"/>
         <v>42887</v>
@@ -20616,7 +20614,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="23"/>
       <c r="B740" s="20" t="s">
         <v>87</v>
@@ -20638,7 +20636,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="23">
         <f>EDATE(A739,1)</f>
         <v>42917</v>
@@ -20665,7 +20663,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="23"/>
       <c r="B742" s="20" t="s">
         <v>53</v>
@@ -20687,7 +20685,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="23">
         <f>EDATE(A741,1)</f>
         <v>42948</v>
@@ -20708,7 +20706,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="23">
         <f t="shared" si="28"/>
         <v>42979</v>
@@ -20729,7 +20727,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="23">
         <f t="shared" si="28"/>
         <v>43009</v>
@@ -20750,7 +20748,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="23">
         <f t="shared" si="28"/>
         <v>43040</v>
@@ -20771,7 +20769,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="23">
         <f>EDATE(A746,1)</f>
         <v>43070</v>
@@ -20796,7 +20794,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="23"/>
       <c r="B748" s="20" t="s">
         <v>73</v>
@@ -20816,7 +20814,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="45" t="s">
         <v>339</v>
       </c>
@@ -20834,7 +20832,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="23">
         <f>EDATE(A747,1)</f>
         <v>43101</v>
@@ -20861,7 +20859,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="23"/>
       <c r="B751" s="20" t="s">
         <v>50</v>
@@ -20881,7 +20879,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="23">
         <f>EDATE(A750,1)</f>
         <v>43132</v>
@@ -20902,7 +20900,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="23">
         <f t="shared" ref="A753:A762" si="29">EDATE(A752,1)</f>
         <v>43160</v>
@@ -20927,7 +20925,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="23"/>
       <c r="B754" s="20" t="s">
         <v>53</v>
@@ -20949,7 +20947,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="23"/>
       <c r="B755" s="20" t="s">
         <v>50</v>
@@ -20969,7 +20967,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="23">
         <f>EDATE(A753,1)</f>
         <v>43191</v>
@@ -20990,7 +20988,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="23">
         <f t="shared" si="29"/>
         <v>43221</v>
@@ -21011,7 +21009,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="23">
         <f t="shared" si="29"/>
         <v>43252</v>
@@ -21038,7 +21036,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="23">
         <f t="shared" si="29"/>
         <v>43282</v>
@@ -21059,7 +21057,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="23">
         <f t="shared" si="29"/>
         <v>43313</v>
@@ -21080,7 +21078,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="23">
         <f t="shared" si="29"/>
         <v>43344</v>
@@ -21101,7 +21099,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="23">
         <f t="shared" si="29"/>
         <v>43374</v>
@@ -21128,7 +21126,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="23">
         <f>EDATE(A762,1)</f>
         <v>43405</v>
@@ -21155,7 +21153,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="23">
         <f>EDATE(A763,1)</f>
         <v>43435</v>
@@ -21182,7 +21180,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="23"/>
       <c r="B765" s="20" t="s">
         <v>53</v>
@@ -21204,7 +21202,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="23"/>
       <c r="B766" s="20" t="s">
         <v>53</v>
@@ -21226,7 +21224,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="45" t="s">
         <v>46</v>
       </c>
@@ -21244,7 +21242,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="39">
         <v>43466</v>
       </c>
@@ -21268,7 +21266,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="39">
         <v>43497</v>
       </c>
@@ -21294,7 +21292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="39">
         <v>43525</v>
       </c>
@@ -21314,7 +21312,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="39">
         <v>43556</v>
       </c>
@@ -21334,7 +21332,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="39">
         <v>43586</v>
       </c>
@@ -21360,7 +21358,7 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="39">
         <v>43617</v>
       </c>
@@ -21380,7 +21378,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="39">
         <v>43647</v>
       </c>
@@ -21404,7 +21402,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="39">
         <v>43678</v>
       </c>
@@ -21424,7 +21422,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="39">
         <v>43709</v>
       </c>
@@ -21450,7 +21448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="39"/>
       <c r="B777" s="20" t="s">
         <v>56</v>
@@ -21472,7 +21470,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="39">
         <v>43739</v>
       </c>
@@ -21498,7 +21496,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="39">
         <v>43770</v>
       </c>
@@ -21518,7 +21516,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="39">
         <v>43800</v>
       </c>
@@ -21544,7 +21542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="39"/>
       <c r="B781" s="20" t="s">
         <v>50</v>
@@ -21564,7 +21562,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="45" t="s">
         <v>48</v>
       </c>
@@ -21582,7 +21580,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="39">
         <v>43831</v>
       </c>
@@ -21606,7 +21604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="39">
         <v>43862</v>
       </c>
@@ -21632,7 +21630,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="39">
         <v>43891</v>
       </c>
@@ -21652,7 +21650,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="39">
         <v>43922</v>
       </c>
@@ -21672,7 +21670,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="39">
         <v>43952</v>
       </c>
@@ -21692,7 +21690,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="39">
         <v>43983</v>
       </c>
@@ -21712,7 +21710,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="39">
         <v>44013</v>
       </c>
@@ -21736,7 +21734,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="39">
         <v>44044</v>
       </c>
@@ -21756,7 +21754,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="39">
         <v>44075</v>
       </c>
@@ -21776,7 +21774,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="39">
         <v>44105</v>
       </c>
@@ -21800,7 +21798,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="39">
         <v>44136</v>
       </c>
@@ -21824,7 +21822,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="39">
         <v>44166</v>
       </c>
@@ -21850,7 +21848,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="39"/>
       <c r="B795" s="20" t="s">
         <v>51</v>
@@ -21872,7 +21870,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="45" t="s">
         <v>47</v>
       </c>
@@ -21890,7 +21888,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="39">
         <v>44197</v>
       </c>
@@ -21910,7 +21908,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="39">
         <v>44228</v>
       </c>
@@ -21934,7 +21932,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="39">
         <v>44256</v>
       </c>
@@ -21954,7 +21952,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="39">
         <v>44287</v>
       </c>
@@ -21974,7 +21972,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="39">
         <v>44317</v>
       </c>
@@ -21994,7 +21992,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="39">
         <v>44348</v>
       </c>
@@ -22018,7 +22016,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="39"/>
       <c r="B803" s="20" t="s">
         <v>57</v>
@@ -22040,7 +22038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="39"/>
       <c r="B804" s="20" t="s">
         <v>56</v>
@@ -22062,7 +22060,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="39">
         <v>44378</v>
       </c>
@@ -22082,7 +22080,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="39">
         <v>44409</v>
       </c>
@@ -22102,7 +22100,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="39">
         <v>44440</v>
       </c>
@@ -22122,7 +22120,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="39">
         <v>44470</v>
       </c>
@@ -22142,7 +22140,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="39">
         <v>44501</v>
       </c>
@@ -22166,7 +22164,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="39"/>
       <c r="B810" s="20" t="s">
         <v>65</v>
@@ -22186,7 +22184,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="39">
         <v>44531</v>
       </c>
@@ -22210,7 +22208,7 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="45" t="s">
         <v>49</v>
       </c>
@@ -22228,7 +22226,7 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="39">
         <v>44562</v>
       </c>
@@ -22248,7 +22246,7 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="39">
         <v>44593</v>
       </c>
@@ -22268,7 +22266,7 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="39">
         <v>44621</v>
       </c>
@@ -22292,7 +22290,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="39">
         <v>44652</v>
       </c>
@@ -22312,7 +22310,7 @@
       <c r="J816" s="11"/>
       <c r="K816" s="20"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="39">
         <v>44682</v>
       </c>
@@ -22338,7 +22336,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="39">
         <v>44713</v>
       </c>
@@ -22358,7 +22356,7 @@
       <c r="J818" s="11"/>
       <c r="K818" s="20"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="39">
         <v>44743</v>
       </c>
@@ -22384,7 +22382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="39">
         <v>44774</v>
       </c>
@@ -22404,7 +22402,7 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="39">
         <v>44805</v>
       </c>
@@ -22428,7 +22426,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="39">
         <v>44835</v>
       </c>
@@ -22454,7 +22452,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="39">
         <v>44866</v>
       </c>
@@ -22480,7 +22478,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="39"/>
       <c r="B824" s="20" t="s">
         <v>50</v>
@@ -22500,7 +22498,7 @@
         <v>44879</v>
       </c>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="39">
         <v>44896</v>
       </c>
@@ -22526,7 +22524,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="39"/>
       <c r="B826" s="20" t="s">
         <v>68</v>
@@ -22548,7 +22546,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="39"/>
       <c r="B827" s="20" t="s">
         <v>56</v>
@@ -22570,7 +22568,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="45" t="s">
         <v>70</v>
       </c>
@@ -22588,7 +22586,7 @@
       <c r="J828" s="11"/>
       <c r="K828" s="20"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="39">
         <v>44927</v>
       </c>
@@ -22612,7 +22610,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="39">
         <v>44958</v>
       </c>
@@ -22638,7 +22636,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="39">
         <v>44986</v>
       </c>
@@ -22658,7 +22656,7 @@
       <c r="J831" s="11"/>
       <c r="K831" s="20"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" s="39">
         <v>45017</v>
       </c>
@@ -22678,7 +22676,7 @@
       <c r="J832" s="11"/>
       <c r="K832" s="20"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" s="39">
         <v>45047</v>
       </c>
@@ -22702,7 +22700,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" s="39">
         <v>45078</v>
       </c>
@@ -22726,11 +22724,11 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A835" s="39">
-        <v>45108</v>
-      </c>
-      <c r="B835" s="20"/>
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A835" s="39"/>
+      <c r="B835" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C835" s="13"/>
       <c r="D835" s="38"/>
       <c r="E835" s="9"/>
@@ -22739,14 +22737,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H835" s="38"/>
+      <c r="H835" s="38">
+        <v>1</v>
+      </c>
       <c r="I835" s="9"/>
       <c r="J835" s="11"/>
-      <c r="K835" s="20"/>
-    </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K835" s="46">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" s="39">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B836" s="20"/>
       <c r="C836" s="13"/>
@@ -22762,9 +22764,9 @@
       <c r="J836" s="11"/>
       <c r="K836" s="20"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B837" s="20"/>
       <c r="C837" s="13"/>
@@ -22780,9 +22782,9 @@
       <c r="J837" s="11"/>
       <c r="K837" s="20"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A838" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B838" s="20"/>
       <c r="C838" s="13"/>
@@ -22798,9 +22800,9 @@
       <c r="J838" s="11"/>
       <c r="K838" s="20"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B839" s="20"/>
       <c r="C839" s="13"/>
@@ -22816,9 +22818,9 @@
       <c r="J839" s="11"/>
       <c r="K839" s="20"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A840" s="39">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B840" s="20"/>
       <c r="C840" s="13"/>
@@ -22834,9 +22836,9 @@
       <c r="J840" s="11"/>
       <c r="K840" s="20"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A841" s="39">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B841" s="20"/>
       <c r="C841" s="13"/>
@@ -22852,9 +22854,9 @@
       <c r="J841" s="11"/>
       <c r="K841" s="20"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A842" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B842" s="20"/>
       <c r="C842" s="13"/>
@@ -22870,9 +22872,9 @@
       <c r="J842" s="11"/>
       <c r="K842" s="20"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A843" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B843" s="20"/>
       <c r="C843" s="13"/>
@@ -22888,9 +22890,9 @@
       <c r="J843" s="11"/>
       <c r="K843" s="20"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A844" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B844" s="20"/>
       <c r="C844" s="13"/>
@@ -22906,9 +22908,9 @@
       <c r="J844" s="11"/>
       <c r="K844" s="20"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A845" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B845" s="20"/>
       <c r="C845" s="13"/>
@@ -22924,9 +22926,9 @@
       <c r="J845" s="11"/>
       <c r="K845" s="20"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B846" s="20"/>
       <c r="C846" s="13"/>
@@ -22942,9 +22944,9 @@
       <c r="J846" s="11"/>
       <c r="K846" s="20"/>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A847" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B847" s="20"/>
       <c r="C847" s="13"/>
@@ -22960,9 +22962,9 @@
       <c r="J847" s="11"/>
       <c r="K847" s="20"/>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A848" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B848" s="20"/>
       <c r="C848" s="13"/>
@@ -22978,9 +22980,9 @@
       <c r="J848" s="11"/>
       <c r="K848" s="20"/>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A849" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B849" s="20"/>
       <c r="C849" s="13"/>
@@ -22996,9 +22998,9 @@
       <c r="J849" s="11"/>
       <c r="K849" s="20"/>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A850" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B850" s="20"/>
       <c r="C850" s="13"/>
@@ -23014,9 +23016,9 @@
       <c r="J850" s="11"/>
       <c r="K850" s="20"/>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A851" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B851" s="20"/>
       <c r="C851" s="13"/>
@@ -23032,9 +23034,9 @@
       <c r="J851" s="11"/>
       <c r="K851" s="20"/>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A852" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B852" s="20"/>
       <c r="C852" s="13"/>
@@ -23050,9 +23052,9 @@
       <c r="J852" s="11"/>
       <c r="K852" s="20"/>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A853" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B853" s="20"/>
       <c r="C853" s="13"/>
@@ -23068,9 +23070,9 @@
       <c r="J853" s="11"/>
       <c r="K853" s="20"/>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A854" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B854" s="20"/>
       <c r="C854" s="13"/>
@@ -23086,9 +23088,9 @@
       <c r="J854" s="11"/>
       <c r="K854" s="20"/>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A855" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B855" s="20"/>
       <c r="C855" s="13"/>
@@ -23104,9 +23106,9 @@
       <c r="J855" s="11"/>
       <c r="K855" s="20"/>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A856" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B856" s="20"/>
       <c r="C856" s="13"/>
@@ -23122,9 +23124,9 @@
       <c r="J856" s="11"/>
       <c r="K856" s="20"/>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A857" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B857" s="20"/>
       <c r="C857" s="13"/>
@@ -23140,9 +23142,9 @@
       <c r="J857" s="11"/>
       <c r="K857" s="20"/>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A858" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B858" s="20"/>
       <c r="C858" s="13"/>
@@ -23158,9 +23160,9 @@
       <c r="J858" s="11"/>
       <c r="K858" s="20"/>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A859" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B859" s="20"/>
       <c r="C859" s="13"/>
@@ -23176,9 +23178,9 @@
       <c r="J859" s="11"/>
       <c r="K859" s="20"/>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A860" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B860" s="20"/>
       <c r="C860" s="13"/>
@@ -23194,9 +23196,9 @@
       <c r="J860" s="11"/>
       <c r="K860" s="20"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A861" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B861" s="20"/>
       <c r="C861" s="13"/>
@@ -23212,9 +23214,9 @@
       <c r="J861" s="11"/>
       <c r="K861" s="20"/>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A862" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B862" s="20"/>
       <c r="C862" s="13"/>
@@ -23230,9 +23232,9 @@
       <c r="J862" s="11"/>
       <c r="K862" s="20"/>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A863" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B863" s="20"/>
       <c r="C863" s="13"/>
@@ -23248,9 +23250,9 @@
       <c r="J863" s="11"/>
       <c r="K863" s="20"/>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A864" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B864" s="20"/>
       <c r="C864" s="13"/>
@@ -23266,9 +23268,9 @@
       <c r="J864" s="11"/>
       <c r="K864" s="20"/>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A865" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B865" s="20"/>
       <c r="C865" s="13"/>
@@ -23284,9 +23286,9 @@
       <c r="J865" s="11"/>
       <c r="K865" s="20"/>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A866" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B866" s="20"/>
       <c r="C866" s="13"/>
@@ -23302,9 +23304,9 @@
       <c r="J866" s="11"/>
       <c r="K866" s="20"/>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A867" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B867" s="20"/>
       <c r="C867" s="13"/>
@@ -23320,9 +23322,9 @@
       <c r="J867" s="11"/>
       <c r="K867" s="20"/>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A868" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B868" s="20"/>
       <c r="C868" s="13"/>
@@ -23338,9 +23340,9 @@
       <c r="J868" s="11"/>
       <c r="K868" s="20"/>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A869" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B869" s="20"/>
       <c r="C869" s="13"/>
@@ -23356,9 +23358,9 @@
       <c r="J869" s="11"/>
       <c r="K869" s="20"/>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A870" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B870" s="20"/>
       <c r="C870" s="13"/>
@@ -23374,9 +23376,9 @@
       <c r="J870" s="11"/>
       <c r="K870" s="20"/>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A871" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B871" s="20"/>
       <c r="C871" s="13"/>
@@ -23392,9 +23394,9 @@
       <c r="J871" s="11"/>
       <c r="K871" s="20"/>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A872" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B872" s="20"/>
       <c r="C872" s="13"/>
@@ -23410,9 +23412,9 @@
       <c r="J872" s="11"/>
       <c r="K872" s="20"/>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A873" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B873" s="20"/>
       <c r="C873" s="13"/>
@@ -23428,9 +23430,9 @@
       <c r="J873" s="11"/>
       <c r="K873" s="20"/>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A874" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B874" s="20"/>
       <c r="C874" s="13"/>
@@ -23446,9 +23448,9 @@
       <c r="J874" s="11"/>
       <c r="K874" s="20"/>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A875" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B875" s="20"/>
       <c r="C875" s="13"/>
@@ -23464,9 +23466,9 @@
       <c r="J875" s="11"/>
       <c r="K875" s="20"/>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A876" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B876" s="20"/>
       <c r="C876" s="13"/>
@@ -23482,9 +23484,9 @@
       <c r="J876" s="11"/>
       <c r="K876" s="20"/>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A877" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B877" s="20"/>
       <c r="C877" s="13"/>
@@ -23500,9 +23502,9 @@
       <c r="J877" s="11"/>
       <c r="K877" s="20"/>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A878" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B878" s="20"/>
       <c r="C878" s="13"/>
@@ -23518,9 +23520,9 @@
       <c r="J878" s="11"/>
       <c r="K878" s="20"/>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A879" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B879" s="20"/>
       <c r="C879" s="13"/>
@@ -23536,9 +23538,9 @@
       <c r="J879" s="11"/>
       <c r="K879" s="20"/>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A880" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B880" s="20"/>
       <c r="C880" s="13"/>
@@ -23554,9 +23556,9 @@
       <c r="J880" s="11"/>
       <c r="K880" s="20"/>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A881" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B881" s="20"/>
       <c r="C881" s="13"/>
@@ -23572,9 +23574,9 @@
       <c r="J881" s="11"/>
       <c r="K881" s="20"/>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A882" s="39">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B882" s="20"/>
       <c r="C882" s="13"/>
@@ -23590,9 +23592,9 @@
       <c r="J882" s="11"/>
       <c r="K882" s="20"/>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A883" s="39">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B883" s="20"/>
       <c r="C883" s="13"/>
@@ -23608,9 +23610,9 @@
       <c r="J883" s="11"/>
       <c r="K883" s="20"/>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A884" s="39">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B884" s="20"/>
       <c r="C884" s="13"/>
@@ -23626,9 +23628,9 @@
       <c r="J884" s="11"/>
       <c r="K884" s="20"/>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A885" s="39">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B885" s="20"/>
       <c r="C885" s="13"/>
@@ -23644,9 +23646,9 @@
       <c r="J885" s="11"/>
       <c r="K885" s="20"/>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A886" s="39">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B886" s="20"/>
       <c r="C886" s="13"/>
@@ -23662,9 +23664,9 @@
       <c r="J886" s="11"/>
       <c r="K886" s="20"/>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A887" s="39">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B887" s="20"/>
       <c r="C887" s="13"/>
@@ -23680,9 +23682,9 @@
       <c r="J887" s="11"/>
       <c r="K887" s="20"/>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A888" s="39">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B888" s="20"/>
       <c r="C888" s="13"/>
@@ -23698,15 +23700,14 @@
       <c r="J888" s="11"/>
       <c r="K888" s="20"/>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A889" s="39"/>
+    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A889" s="39">
+        <v>46722</v>
+      </c>
       <c r="B889" s="20"/>
       <c r="C889" s="13"/>
       <c r="D889" s="38"/>
-      <c r="E889" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.3920000000000528</v>
-      </c>
+      <c r="E889" s="9"/>
       <c r="F889" s="20"/>
       <c r="G889" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -23717,7 +23718,7 @@
       <c r="J889" s="11"/>
       <c r="K889" s="20"/>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A890" s="39"/>
       <c r="B890" s="20"/>
       <c r="C890" s="13"/>
@@ -23736,7 +23737,7 @@
       <c r="J890" s="11"/>
       <c r="K890" s="20"/>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A891" s="39"/>
       <c r="B891" s="20"/>
       <c r="C891" s="13"/>
@@ -23755,7 +23756,7 @@
       <c r="J891" s="11"/>
       <c r="K891" s="20"/>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A892" s="39"/>
       <c r="B892" s="20"/>
       <c r="C892" s="13"/>
@@ -23774,7 +23775,7 @@
       <c r="J892" s="11"/>
       <c r="K892" s="20"/>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A893" s="39"/>
       <c r="B893" s="20"/>
       <c r="C893" s="13"/>
@@ -23793,7 +23794,7 @@
       <c r="J893" s="11"/>
       <c r="K893" s="20"/>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A894" s="39"/>
       <c r="B894" s="20"/>
       <c r="C894" s="13"/>
@@ -23811,6 +23812,25 @@
       <c r="I894" s="9"/>
       <c r="J894" s="11"/>
       <c r="K894" s="20"/>
+    </row>
+    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A895" s="39"/>
+      <c r="B895" s="20"/>
+      <c r="C895" s="13"/>
+      <c r="D895" s="38"/>
+      <c r="E895" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>7.3920000000000528</v>
+      </c>
+      <c r="F895" s="20"/>
+      <c r="G895" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H895" s="38"/>
+      <c r="I895" s="9"/>
+      <c r="J895" s="11"/>
+      <c r="K895" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -23827,10 +23847,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23853,28 +23873,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
@@ -23887,7 +23907,7 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -23916,7 +23936,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -23938,17 +23958,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -23969,7 +23989,7 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -23996,7 +24016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -24022,7 +24042,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -24048,7 +24068,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -24074,7 +24094,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -24100,7 +24120,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -24126,7 +24146,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -24152,7 +24172,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -24178,7 +24198,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -24198,7 +24218,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -24218,7 +24238,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -24238,7 +24258,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -24259,7 +24279,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -24280,7 +24300,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -24301,7 +24321,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -24322,7 +24342,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -24343,7 +24363,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -24364,7 +24384,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -24385,7 +24405,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -24406,7 +24426,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -24427,7 +24447,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -24448,7 +24468,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -24469,7 +24489,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -24490,7 +24510,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -24511,7 +24531,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -24532,7 +24552,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -24553,7 +24573,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -24574,7 +24594,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -24595,7 +24615,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -24616,7 +24636,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -24637,7 +24657,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -24658,7 +24678,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -24667,7 +24687,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -24676,7 +24696,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -24685,7 +24705,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -24694,7 +24714,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -24703,7 +24723,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -24712,7 +24732,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -24721,7 +24741,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -24730,7 +24750,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -24739,7 +24759,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -24748,7 +24768,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -24757,7 +24777,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -24766,7 +24786,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -24775,7 +24795,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -24784,7 +24804,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -24793,7 +24813,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -24802,7 +24822,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -24811,7 +24831,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -24820,7 +24840,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -24829,7 +24849,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -24838,7 +24858,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -24847,7 +24867,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -24856,7 +24876,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -24865,7 +24885,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -24874,7 +24894,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -24883,7 +24903,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -24892,7 +24912,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -24901,7 +24921,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -24910,7 +24930,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -24919,7 +24939,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/PENALES, GUILLERMA.xlsx
+++ b/REGULAR/OJT/PENALES, GUILLERMA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55007EBA-096E-432E-B4AB-F5B15308A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="476">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1459,12 +1460,15 @@
   </si>
   <si>
     <t>BDAY L. 04/6</t>
+  </si>
+  <si>
+    <t>SINGAPORE 8/8-10/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2197,7 +2201,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2244,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2308,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2368,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2434,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2497,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2595,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2654,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2719,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2762,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2837,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3023,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3089,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,7 +3147,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3209,7 +3213,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,7 +3269,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3344,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3383,7 +3387,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3449,7 +3453,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3505,7 +3509,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3584,7 +3588,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3601,26 +3605,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K895" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K895"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K896" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K896" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3927,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3937,7 +3941,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3945,34 +3949,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K895"/>
+  <dimension ref="A2:K896"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A822"/>
+      <pane ySplit="3576" topLeftCell="A825" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="K836" sqref="K836"/>
+      <selection pane="bottomLeft" activeCell="K837" sqref="K837"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3995,7 +3999,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4013,7 +4017,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4035,7 +4039,7 @@
       <c r="J4" s="64"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4043,7 +4047,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4056,7 +4060,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -4073,7 +4077,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4108,7 +4112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4117,7 +4121,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.3920000000000528</v>
+        <v>5.6420000000000528</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4127,12 +4131,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>89</v>
+        <v>89.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>72</v>
       </c>
@@ -4154,7 +4158,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>32295</v>
       </c>
@@ -4174,7 +4178,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>32325</v>
@@ -4195,7 +4199,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>32356</v>
@@ -4216,7 +4220,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A17" si="0">EDATE(A13,1)</f>
         <v>32387</v>
@@ -4237,7 +4241,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>32417</v>
@@ -4258,7 +4262,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>32448</v>
@@ -4279,7 +4283,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>32478</v>
@@ -4304,7 +4308,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
         <v>74</v>
       </c>
@@ -4322,7 +4326,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f>EDATE(A17,1)</f>
         <v>32509</v>
@@ -4343,7 +4347,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f>EDATE(A19,1)</f>
         <v>32540</v>
@@ -4364,7 +4368,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" ref="A21:A30" si="1">EDATE(A20,1)</f>
         <v>32568</v>
@@ -4385,7 +4389,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="1"/>
         <v>32599</v>
@@ -4406,7 +4410,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="1"/>
         <v>32629</v>
@@ -4427,7 +4431,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="1"/>
         <v>32660</v>
@@ -4448,7 +4452,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <f t="shared" si="1"/>
         <v>32690</v>
@@ -4469,7 +4473,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f t="shared" si="1"/>
         <v>32721</v>
@@ -4490,7 +4494,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f>EDATE(A26,1)</f>
         <v>32752</v>
@@ -4511,7 +4515,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>32782</v>
@@ -4532,7 +4536,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>32813</v>
@@ -4553,7 +4557,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f t="shared" si="1"/>
         <v>32843</v>
@@ -4578,7 +4582,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>75</v>
       </c>
@@ -4596,7 +4600,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f>EDATE(A30,1)</f>
         <v>32874</v>
@@ -4617,7 +4621,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f>EDATE(A32,1)</f>
         <v>32905</v>
@@ -4638,7 +4642,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f t="shared" ref="A34:A43" si="2">EDATE(A33,1)</f>
         <v>32933</v>
@@ -4659,7 +4663,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <f t="shared" si="2"/>
         <v>32964</v>
@@ -4680,7 +4684,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <f t="shared" si="2"/>
         <v>32994</v>
@@ -4701,7 +4705,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f t="shared" si="2"/>
         <v>33025</v>
@@ -4722,7 +4726,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <f t="shared" si="2"/>
         <v>33055</v>
@@ -4743,7 +4747,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <f t="shared" si="2"/>
         <v>33086</v>
@@ -4764,7 +4768,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f t="shared" si="2"/>
         <v>33117</v>
@@ -4785,7 +4789,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>33147</v>
@@ -4806,7 +4810,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>33178</v>
@@ -4827,7 +4831,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f t="shared" si="2"/>
         <v>33208</v>
@@ -4852,7 +4856,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
         <v>76</v>
       </c>
@@ -4870,7 +4874,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <f>EDATE(A43,1)</f>
         <v>33239</v>
@@ -4891,7 +4895,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f>EDATE(A45,1)</f>
         <v>33270</v>
@@ -4912,7 +4916,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <f t="shared" ref="A47:A56" si="3">EDATE(A46,1)</f>
         <v>33298</v>
@@ -4933,7 +4937,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f t="shared" si="3"/>
         <v>33329</v>
@@ -4954,7 +4958,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="3"/>
         <v>33359</v>
@@ -4975,7 +4979,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f t="shared" si="3"/>
         <v>33390</v>
@@ -4996,7 +5000,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f t="shared" si="3"/>
         <v>33420</v>
@@ -5017,7 +5021,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <f t="shared" si="3"/>
         <v>33451</v>
@@ -5038,7 +5042,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f t="shared" si="3"/>
         <v>33482</v>
@@ -5059,7 +5063,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f t="shared" si="3"/>
         <v>33512</v>
@@ -5080,7 +5084,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <f>EDATE(A54,1)</f>
         <v>33543</v>
@@ -5101,7 +5105,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f t="shared" si="3"/>
         <v>33573</v>
@@ -5126,7 +5130,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
         <v>77</v>
       </c>
@@ -5144,7 +5148,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <f>EDATE(A56,1)</f>
         <v>33604</v>
@@ -5165,7 +5169,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f>EDATE(A58,1)</f>
         <v>33635</v>
@@ -5186,7 +5190,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f t="shared" ref="A60:A69" si="4">EDATE(A59,1)</f>
         <v>33664</v>
@@ -5207,7 +5211,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <f t="shared" si="4"/>
         <v>33695</v>
@@ -5228,7 +5232,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <f t="shared" si="4"/>
         <v>33725</v>
@@ -5249,7 +5253,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <f t="shared" si="4"/>
         <v>33756</v>
@@ -5270,7 +5274,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f t="shared" si="4"/>
         <v>33786</v>
@@ -5291,7 +5295,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f t="shared" si="4"/>
         <v>33817</v>
@@ -5312,7 +5316,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f t="shared" si="4"/>
         <v>33848</v>
@@ -5333,7 +5337,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <f t="shared" si="4"/>
         <v>33878</v>
@@ -5354,7 +5358,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f>EDATE(A67,1)</f>
         <v>33909</v>
@@ -5375,7 +5379,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <f t="shared" si="4"/>
         <v>33939</v>
@@ -5400,7 +5404,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="45" t="s">
         <v>78</v>
       </c>
@@ -5418,7 +5422,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <f>EDATE(A69,1)</f>
         <v>33970</v>
@@ -5439,7 +5443,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f>EDATE(A71,1)</f>
         <v>34001</v>
@@ -5460,7 +5464,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f t="shared" ref="A73:A81" si="5">EDATE(A72,1)</f>
         <v>34029</v>
@@ -5481,7 +5485,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <f t="shared" si="5"/>
         <v>34060</v>
@@ -5502,7 +5506,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <f t="shared" si="5"/>
         <v>34090</v>
@@ -5523,7 +5527,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <f t="shared" si="5"/>
         <v>34121</v>
@@ -5544,7 +5548,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f t="shared" si="5"/>
         <v>34151</v>
@@ -5565,7 +5569,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <f t="shared" si="5"/>
         <v>34182</v>
@@ -5586,7 +5590,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f t="shared" si="5"/>
         <v>34213</v>
@@ -5607,7 +5611,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f t="shared" si="5"/>
         <v>34243</v>
@@ -5628,7 +5632,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <f t="shared" si="5"/>
         <v>34274</v>
@@ -5649,7 +5653,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f>EDATE(A81,1)</f>
         <v>34304</v>
@@ -5674,7 +5678,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="49" t="s">
         <v>79</v>
       </c>
@@ -5692,7 +5696,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="50" t="s">
         <v>80</v>
       </c>
@@ -5714,7 +5718,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="52" t="s">
         <v>82</v>
       </c>
@@ -5736,7 +5740,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>34608</v>
       </c>
@@ -5760,7 +5764,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f>EDATE(A86,1)</f>
         <v>34639</v>
@@ -5785,7 +5789,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <f>EDATE(A87,1)</f>
         <v>34669</v>
@@ -5810,7 +5814,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="45" t="s">
         <v>86</v>
       </c>
@@ -5828,7 +5832,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f>EDATE(A88,1)</f>
         <v>34700</v>
@@ -5853,7 +5857,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>87</v>
@@ -5873,7 +5877,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>34731</v>
@@ -5898,7 +5902,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f t="shared" ref="A93:A107" si="6">EDATE(A92,1)</f>
         <v>34759</v>
@@ -5923,7 +5927,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>53</v>
@@ -5943,7 +5947,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>34790</v>
@@ -5968,7 +5972,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f t="shared" si="6"/>
         <v>34820</v>
@@ -5993,7 +5997,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>53</v>
@@ -6013,7 +6017,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <f>EDATE(A96,1)</f>
         <v>34851</v>
@@ -6038,7 +6042,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>91</v>
@@ -6058,7 +6062,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>34881</v>
@@ -6083,7 +6087,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>54</v>
@@ -6103,7 +6107,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <f>EDATE(A100,1)</f>
         <v>34912</v>
@@ -6128,7 +6132,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>54</v>
@@ -6148,7 +6152,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <f>EDATE(A102,1)</f>
         <v>34943</v>
@@ -6173,7 +6177,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <f t="shared" si="6"/>
         <v>34973</v>
@@ -6198,7 +6202,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <f>EDATE(A105,1)</f>
         <v>35004</v>
@@ -6219,7 +6223,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <f t="shared" si="6"/>
         <v>35034</v>
@@ -6242,7 +6246,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="45" t="s">
         <v>94</v>
       </c>
@@ -6260,7 +6264,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <f>EDATE(A107,1)</f>
         <v>35065</v>
@@ -6281,7 +6285,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <f>EDATE(A109,1)</f>
         <v>35096</v>
@@ -6306,7 +6310,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>95</v>
@@ -6326,7 +6330,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f>EDATE(A110,1)</f>
         <v>35125</v>
@@ -6347,7 +6351,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f t="shared" ref="A113:A122" si="7">EDATE(A112,1)</f>
         <v>35156</v>
@@ -6368,7 +6372,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <f t="shared" si="7"/>
         <v>35186</v>
@@ -6393,7 +6397,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>53</v>
@@ -6413,7 +6417,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <f>EDATE(A114,1)</f>
         <v>35217</v>
@@ -6438,7 +6442,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>96</v>
@@ -6458,7 +6462,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <f>EDATE(A116,1)</f>
         <v>35247</v>
@@ -6479,7 +6483,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <f t="shared" si="7"/>
         <v>35278</v>
@@ -6504,7 +6508,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>53</v>
@@ -6524,7 +6528,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <f>EDATE(A119,1)</f>
         <v>35309</v>
@@ -6545,7 +6549,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <f t="shared" si="7"/>
         <v>35339</v>
@@ -6570,7 +6574,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>85</v>
@@ -6590,7 +6594,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <f>EDATE(A122,1)</f>
         <v>35370</v>
@@ -6615,7 +6619,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <f>EDATE(A124,1)</f>
         <v>35400</v>
@@ -6640,7 +6644,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="45" t="s">
         <v>98</v>
       </c>
@@ -6658,7 +6662,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <f>EDATE(A125,1)</f>
         <v>35431</v>
@@ -6679,7 +6683,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <f>EDATE(A127,1)</f>
         <v>35462</v>
@@ -6700,7 +6704,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f t="shared" ref="A129:A140" si="8">EDATE(A128,1)</f>
         <v>35490</v>
@@ -6721,7 +6725,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <f t="shared" si="8"/>
         <v>35521</v>
@@ -6742,7 +6746,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <f t="shared" si="8"/>
         <v>35551</v>
@@ -6763,7 +6767,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <f t="shared" si="8"/>
         <v>35582</v>
@@ -6784,7 +6788,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f t="shared" si="8"/>
         <v>35612</v>
@@ -6811,7 +6815,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>53</v>
@@ -6833,7 +6837,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <f>EDATE(A133,1)</f>
         <v>35643</v>
@@ -6860,7 +6864,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>53</v>
@@ -6882,7 +6886,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <f>EDATE(A135,1)</f>
         <v>35674</v>
@@ -6909,7 +6913,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <f>EDATE(A137,1)</f>
         <v>35704</v>
@@ -6936,7 +6940,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <f t="shared" si="8"/>
         <v>35735</v>
@@ -6961,7 +6965,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <f t="shared" si="8"/>
         <v>35765</v>
@@ -6986,7 +6990,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="45" t="s">
         <v>101</v>
       </c>
@@ -7004,7 +7008,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <f>EDATE(A140,1)</f>
         <v>35796</v>
@@ -7025,7 +7029,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <f>EDATE(A142,1)</f>
         <v>35827</v>
@@ -7046,7 +7050,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f t="shared" ref="A144:A148" si="9">EDATE(A143,1)</f>
         <v>35855</v>
@@ -7067,7 +7071,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <f t="shared" si="9"/>
         <v>35886</v>
@@ -7092,7 +7096,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <f t="shared" si="9"/>
         <v>35916</v>
@@ -7117,7 +7121,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <f t="shared" si="9"/>
         <v>35947</v>
@@ -7142,7 +7146,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <f t="shared" si="9"/>
         <v>35977</v>
@@ -7169,7 +7173,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>103</v>
@@ -7189,7 +7193,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <f>EDATE(A148,1)</f>
         <v>36008</v>
@@ -7216,7 +7220,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>50</v>
@@ -7236,7 +7240,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>104</v>
@@ -7256,7 +7260,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <f>EDATE(A150,1)</f>
         <v>36039</v>
@@ -7283,7 +7287,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>105</v>
@@ -7303,7 +7307,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>36069</v>
@@ -7330,7 +7334,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>53</v>
@@ -7350,7 +7354,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="53"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>106</v>
@@ -7370,7 +7374,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="53"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <f>EDATE(A155,1)</f>
         <v>36100</v>
@@ -7395,7 +7399,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <f>EDATE(A158,1)</f>
         <v>36130</v>
@@ -7416,7 +7420,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="45" t="s">
         <v>108</v>
       </c>
@@ -7434,7 +7438,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <f>EDATE(A159,1)</f>
         <v>36161</v>
@@ -7461,7 +7465,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>109</v>
@@ -7481,7 +7485,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <f>EDATE(A161,1)</f>
         <v>36192</v>
@@ -7508,7 +7512,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>51</v>
@@ -7528,7 +7532,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>53</v>
@@ -7550,7 +7554,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>110</v>
@@ -7570,7 +7574,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <f>EDATE(A163,1)</f>
         <v>36220</v>
@@ -7595,7 +7599,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <f t="shared" ref="A168" si="10">EDATE(A167,1)</f>
         <v>36251</v>
@@ -7620,7 +7624,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>53</v>
@@ -7642,7 +7646,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>112</v>
@@ -7662,7 +7666,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <f>EDATE(A168,1)</f>
         <v>36281</v>
@@ -7689,7 +7693,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>50</v>
@@ -7709,7 +7713,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>113</v>
@@ -7729,7 +7733,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <f>EDATE(A171,1)</f>
         <v>36312</v>
@@ -7756,7 +7760,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>50</v>
@@ -7776,7 +7780,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>114</v>
@@ -7796,7 +7800,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <f>EDATE(A174,1)</f>
         <v>36342</v>
@@ -7823,7 +7827,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>53</v>
@@ -7845,7 +7849,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>116</v>
@@ -7865,7 +7869,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="53"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <f>EDATE(A177,1)</f>
         <v>36373</v>
@@ -7892,7 +7896,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>117</v>
@@ -7912,7 +7916,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>50</v>
@@ -7932,7 +7936,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <f>EDATE(A180,1)</f>
         <v>36404</v>
@@ -7959,7 +7963,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>53</v>
@@ -7981,7 +7985,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>118</v>
@@ -8001,7 +8005,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <f>EDATE(A183,1)</f>
         <v>36434</v>
@@ -8028,7 +8032,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>91</v>
@@ -8050,7 +8054,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>119</v>
@@ -8070,7 +8074,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <f>EDATE(A186,1)</f>
         <v>36465</v>
@@ -8097,7 +8101,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>97</v>
@@ -8119,7 +8123,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>120</v>
@@ -8139,7 +8143,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <f>EDATE(A189,1)</f>
         <v>36495</v>
@@ -8166,7 +8170,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8188,7 +8192,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>121</v>
@@ -8208,7 +8212,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="45" t="s">
         <v>122</v>
       </c>
@@ -8226,7 +8230,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f>EDATE(A192,1)</f>
         <v>36526</v>
@@ -8253,7 +8257,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>50</v>
@@ -8273,7 +8277,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>123</v>
@@ -8293,7 +8297,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>56</v>
@@ -8315,7 +8319,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <f>EDATE(A196,1)</f>
         <v>36557</v>
@@ -8340,7 +8344,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <f t="shared" ref="A201" si="11">EDATE(A200,1)</f>
         <v>36586</v>
@@ -8367,7 +8371,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>124</v>
@@ -8387,7 +8391,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <f>EDATE(A201,1)</f>
         <v>36617</v>
@@ -8414,7 +8418,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>50</v>
@@ -8434,7 +8438,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>125</v>
@@ -8454,7 +8458,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <f>EDATE(A203,1)</f>
         <v>36647</v>
@@ -8479,7 +8483,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <f>EDATE(A206,1)</f>
         <v>36678</v>
@@ -8504,7 +8508,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>127</v>
@@ -8524,7 +8528,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23">
         <f>EDATE(A207,1)</f>
         <v>36708</v>
@@ -8551,7 +8555,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>128</v>
@@ -8571,7 +8575,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <f>EDATE(A209,1)</f>
         <v>36739</v>
@@ -8598,7 +8602,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>91</v>
@@ -8620,7 +8624,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>123</v>
@@ -8640,7 +8644,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <f>EDATE(A211,1)</f>
         <v>36770</v>
@@ -8667,7 +8671,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>91</v>
@@ -8689,7 +8693,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>129</v>
@@ -8709,7 +8713,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <f>EDATE(A214,1)</f>
         <v>36800</v>
@@ -8736,7 +8740,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>91</v>
@@ -8758,7 +8762,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>130</v>
@@ -8778,7 +8782,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <f>EDATE(A217,1)</f>
         <v>36831</v>
@@ -8805,7 +8809,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>54</v>
@@ -8827,7 +8831,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>56</v>
@@ -8849,7 +8853,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>131</v>
@@ -8869,7 +8873,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <f>EDATE(A220,1)</f>
         <v>36861</v>
@@ -8896,7 +8900,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>92</v>
@@ -8918,7 +8922,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>132</v>
@@ -8938,7 +8942,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="45" t="s">
         <v>133</v>
       </c>
@@ -8956,7 +8960,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <f>EDATE(A224,1)</f>
         <v>36892</v>
@@ -8981,7 +8985,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <f>EDATE(A228,1)</f>
         <v>36923</v>
@@ -9008,7 +9012,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>53</v>
@@ -9030,7 +9034,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>134</v>
@@ -9050,7 +9054,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f>EDATE(A229,1)</f>
         <v>36951</v>
@@ -9075,7 +9079,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <f t="shared" ref="A233:A234" si="12">EDATE(A232,1)</f>
         <v>36982</v>
@@ -9100,7 +9104,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <f t="shared" si="12"/>
         <v>37012</v>
@@ -9127,7 +9131,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>137</v>
@@ -9147,7 +9151,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>37043</v>
@@ -9174,7 +9178,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>50</v>
@@ -9194,7 +9198,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>50</v>
@@ -9214,7 +9218,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>138</v>
@@ -9234,7 +9238,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="53"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <f>EDATE(A236,1)</f>
         <v>37073</v>
@@ -9261,7 +9265,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>53</v>
@@ -9283,7 +9287,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>139</v>
@@ -9303,7 +9307,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <f>EDATE(A240,1)</f>
         <v>37104</v>
@@ -9330,7 +9334,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>140</v>
@@ -9350,7 +9354,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>37135</v>
@@ -9377,7 +9381,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>115</v>
@@ -9399,7 +9403,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>141</v>
@@ -9419,7 +9423,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23">
         <f>EDATE(A245,1)</f>
         <v>37165</v>
@@ -9446,7 +9450,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>53</v>
@@ -9468,7 +9472,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>142</v>
@@ -9488,7 +9492,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <f>EDATE(A248,1)</f>
         <v>37196</v>
@@ -9515,7 +9519,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>53</v>
@@ -9537,7 +9541,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>143</v>
@@ -9557,7 +9561,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>37226</v>
@@ -9582,7 +9586,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="45" t="s">
         <v>145</v>
       </c>
@@ -9600,7 +9604,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>37257</v>
@@ -9625,7 +9629,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <f>EDATE(A256,1)</f>
         <v>37288</v>
@@ -9652,7 +9656,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>92</v>
@@ -9674,7 +9678,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>54</v>
@@ -9696,7 +9700,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>50</v>
@@ -9716,7 +9720,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>50</v>
@@ -9736,7 +9740,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>53</v>
@@ -9758,7 +9762,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>56</v>
@@ -9780,7 +9784,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>148</v>
@@ -9800,7 +9804,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="53"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <f>EDATE(A257,1)</f>
         <v>37316</v>
@@ -9825,7 +9829,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <f t="shared" ref="A266:A291" si="13">EDATE(A265,1)</f>
         <v>37347</v>
@@ -9852,7 +9856,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>149</v>
@@ -9872,7 +9876,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
         <f>EDATE(A266,1)</f>
         <v>37377</v>
@@ -9899,7 +9903,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>56</v>
@@ -9921,7 +9925,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>53</v>
@@ -9943,7 +9947,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>53</v>
@@ -9965,7 +9969,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>56</v>
@@ -9987,7 +9991,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>150</v>
@@ -10007,7 +10011,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <f>EDATE(A268,1)</f>
         <v>37408</v>
@@ -10032,7 +10036,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>56</v>
@@ -10054,7 +10058,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>151</v>
@@ -10074,7 +10078,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="53"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>53</v>
@@ -10096,7 +10100,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <f>EDATE(A274,1)</f>
         <v>37438</v>
@@ -10123,7 +10127,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>92</v>
@@ -10145,7 +10149,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>152</v>
@@ -10165,7 +10169,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23">
         <f>EDATE(A278,1)</f>
         <v>37469</v>
@@ -10192,7 +10196,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>153</v>
@@ -10212,7 +10216,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>53</v>
@@ -10234,7 +10238,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <f>EDATE(A281,1)</f>
         <v>37500</v>
@@ -10261,7 +10265,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>92</v>
@@ -10283,7 +10287,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>56</v>
@@ -10305,7 +10309,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>154</v>
@@ -10325,7 +10329,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="53"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <f>EDATE(A284,1)</f>
         <v>37530</v>
@@ -10352,7 +10356,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>155</v>
@@ -10372,7 +10376,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <f>EDATE(A288,1)</f>
         <v>37561</v>
@@ -10397,7 +10401,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <f t="shared" si="13"/>
         <v>37591</v>
@@ -10424,7 +10428,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>157</v>
@@ -10444,7 +10448,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="45" t="s">
         <v>158</v>
       </c>
@@ -10462,7 +10466,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <f>EDATE(A291,1)</f>
         <v>37622</v>
@@ -10489,7 +10493,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>53</v>
@@ -10511,7 +10515,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>159</v>
@@ -10531,7 +10535,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <f>EDATE(A294,1)</f>
         <v>37653</v>
@@ -10558,7 +10562,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>161</v>
@@ -10578,7 +10582,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <f>EDATE(A297,1)</f>
         <v>37681</v>
@@ -10603,7 +10607,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>163</v>
@@ -10623,7 +10627,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <f>EDATE(A299,1)</f>
         <v>37712</v>
@@ -10650,7 +10654,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>53</v>
@@ -10672,7 +10676,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>164</v>
@@ -10692,7 +10696,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <f>EDATE(A301,1)</f>
         <v>37742</v>
@@ -10719,7 +10723,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>50</v>
@@ -10739,7 +10743,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>165</v>
@@ -10759,7 +10763,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="53"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <f>EDATE(A304,1)</f>
         <v>37773</v>
@@ -10786,7 +10790,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>166</v>
@@ -10806,7 +10810,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <f>EDATE(A307,1)</f>
         <v>37803</v>
@@ -10833,7 +10837,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>50</v>
@@ -10853,7 +10857,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>167</v>
@@ -10873,7 +10877,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>92</v>
@@ -10895,7 +10899,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <f>EDATE(A309,1)</f>
         <v>37834</v>
@@ -10916,7 +10920,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <f t="shared" ref="A314:A318" si="14">EDATE(A313,1)</f>
         <v>37865</v>
@@ -10939,7 +10943,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>56</v>
@@ -10959,7 +10963,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>168</v>
@@ -10979,7 +10983,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <f>EDATE(A314,1)</f>
         <v>37895</v>
@@ -11004,7 +11008,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <f t="shared" si="14"/>
         <v>37926</v>
@@ -11031,7 +11035,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>170</v>
@@ -11051,7 +11055,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="53"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <f>EDATE(A318,1)</f>
         <v>37956</v>
@@ -11078,7 +11082,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>53</v>
@@ -11100,7 +11104,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>171</v>
@@ -11120,7 +11124,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="45" t="s">
         <v>172</v>
       </c>
@@ -11138,7 +11142,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <f>EDATE(A320,1)</f>
         <v>37987</v>
@@ -11163,7 +11167,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <f>EDATE(A324,1)</f>
         <v>38018</v>
@@ -11188,7 +11192,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>54</v>
@@ -11210,7 +11214,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <f>EDATE(A325,1)</f>
         <v>38047</v>
@@ -11237,7 +11241,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>50</v>
@@ -11257,7 +11261,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>175</v>
@@ -11277,7 +11281,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <f>EDATE(A327,1)</f>
         <v>38078</v>
@@ -11302,7 +11306,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>54</v>
@@ -11324,7 +11328,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>176</v>
@@ -11344,7 +11348,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <f>EDATE(A330,1)</f>
         <v>38108</v>
@@ -11371,7 +11375,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>50</v>
@@ -11391,7 +11395,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>177</v>
@@ -11411,7 +11415,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <f>EDATE(A333,1)</f>
         <v>38139</v>
@@ -11438,7 +11442,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>51</v>
@@ -11460,7 +11464,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>53</v>
@@ -11482,7 +11486,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>56</v>
@@ -11504,7 +11508,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>127</v>
@@ -11524,7 +11528,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <f>EDATE(A336,1)</f>
         <v>38169</v>
@@ -11547,7 +11551,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>178</v>
@@ -11567,7 +11571,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>38200</v>
@@ -11594,7 +11598,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>92</v>
@@ -11616,7 +11620,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>119</v>
@@ -11636,7 +11640,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <f>EDATE(A343,1)</f>
         <v>38231</v>
@@ -11663,7 +11667,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>53</v>
@@ -11685,7 +11689,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>179</v>
@@ -11705,7 +11709,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="53"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <f>EDATE(A346,1)</f>
         <v>38261</v>
@@ -11732,7 +11736,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>180</v>
@@ -11752,7 +11756,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="53"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <f t="shared" ref="A351" si="15">EDATE(A349,1)</f>
         <v>38292</v>
@@ -11779,7 +11783,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>181</v>
@@ -11799,7 +11803,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <f>EDATE(A351,1)</f>
         <v>38322</v>
@@ -11826,7 +11830,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>53</v>
@@ -11848,7 +11852,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>182</v>
@@ -11868,7 +11872,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="45" t="s">
         <v>183</v>
       </c>
@@ -11886,7 +11890,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <f>EDATE(A353,1)</f>
         <v>38353</v>
@@ -11911,7 +11915,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>53</v>
@@ -11933,7 +11937,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>53</v>
@@ -11955,7 +11959,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>184</v>
@@ -11975,7 +11979,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f>EDATE(A357,1)</f>
         <v>38384</v>
@@ -12002,7 +12006,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>185</v>
@@ -12022,7 +12026,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
         <f>EDATE(A361,1)</f>
         <v>38412</v>
@@ -12049,7 +12053,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>186</v>
@@ -12069,7 +12073,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>38443</v>
@@ -12094,7 +12098,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <f t="shared" ref="A366:A388" si="16">EDATE(A365,1)</f>
         <v>38473</v>
@@ -12121,7 +12125,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>68</v>
@@ -12143,7 +12147,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>56</v>
@@ -12165,7 +12169,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>188</v>
@@ -12185,7 +12189,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="53"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <f>EDATE(A366,1)</f>
         <v>38504</v>
@@ -12212,7 +12216,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>50</v>
@@ -12232,7 +12236,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>56</v>
@@ -12254,7 +12258,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>53</v>
@@ -12276,7 +12280,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>189</v>
@@ -12296,7 +12300,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <f>EDATE(A370,1)</f>
         <v>38534</v>
@@ -12323,7 +12327,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>53</v>
@@ -12345,7 +12349,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>53</v>
@@ -12367,7 +12371,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>190</v>
@@ -12387,7 +12391,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EDATE(A375,1)</f>
         <v>38565</v>
@@ -12412,7 +12416,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>53</v>
@@ -12430,7 +12434,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>191</v>
@@ -12450,7 +12454,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23">
         <f>EDATE(A379,1)</f>
         <v>38596</v>
@@ -12477,7 +12481,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>68</v>
@@ -12499,7 +12503,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>192</v>
@@ -12519,7 +12523,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <f>EDATE(A382,1)</f>
         <v>38626</v>
@@ -12544,7 +12548,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>194</v>
@@ -12564,7 +12568,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <f>EDATE(A385,1)</f>
         <v>38657</v>
@@ -12589,7 +12593,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <f t="shared" si="16"/>
         <v>38687</v>
@@ -12616,7 +12620,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>196</v>
@@ -12638,7 +12642,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="45" t="s">
         <v>197</v>
       </c>
@@ -12656,7 +12660,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>38718</v>
@@ -12683,7 +12687,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>50</v>
@@ -12703,7 +12707,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>198</v>
@@ -12723,7 +12727,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
         <f>EDATE(A391,1)</f>
         <v>38749</v>
@@ -12748,7 +12752,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <f t="shared" ref="A395:A411" si="17">EDATE(A394,1)</f>
         <v>38777</v>
@@ -12773,7 +12777,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>50</v>
@@ -12793,7 +12797,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>200</v>
@@ -12813,7 +12817,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23">
         <f>EDATE(A395,1)</f>
         <v>38808</v>
@@ -12838,7 +12842,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>68</v>
@@ -12860,7 +12864,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>202</v>
@@ -12882,7 +12886,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>54</v>
@@ -12904,7 +12908,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>68</v>
@@ -12926,7 +12930,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23">
         <f>EDATE(A398,1)</f>
         <v>38838</v>
@@ -12951,7 +12955,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <f t="shared" si="17"/>
         <v>38869</v>
@@ -12976,7 +12980,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <f t="shared" si="17"/>
         <v>38899</v>
@@ -13003,7 +13007,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>53</v>
@@ -13025,7 +13029,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>68</v>
@@ -13047,7 +13051,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>92</v>
@@ -13069,7 +13073,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>205</v>
@@ -13089,7 +13093,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23">
         <f>EDATE(A405,1)</f>
         <v>38930</v>
@@ -13114,7 +13118,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23">
         <f t="shared" si="17"/>
         <v>38961</v>
@@ -13141,7 +13145,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>207</v>
@@ -13161,7 +13165,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <f>EDATE(A411,1)</f>
         <v>38991</v>
@@ -13186,7 +13190,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23">
         <f>EDATE(A413,1)</f>
         <v>39022</v>
@@ -13213,7 +13217,7 @@
         <v>45260</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>209</v>
@@ -13233,7 +13237,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23">
         <f>EDATE(A414,1)</f>
         <v>39052</v>
@@ -13260,7 +13264,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>210</v>
@@ -13280,7 +13284,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="45" t="s">
         <v>211</v>
       </c>
@@ -13298,7 +13302,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23">
         <f>EDATE(A416,1)</f>
         <v>39083</v>
@@ -13325,7 +13329,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>68</v>
@@ -13347,7 +13351,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>50</v>
@@ -13367,7 +13371,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>212</v>
@@ -13387,7 +13391,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
         <f>EDATE(A419,1)</f>
         <v>39114</v>
@@ -13414,7 +13418,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>213</v>
@@ -13436,7 +13440,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>214</v>
@@ -13456,7 +13460,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23">
         <f>EDATE(A423,1)</f>
         <v>39142</v>
@@ -13481,7 +13485,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>68</v>
@@ -13503,7 +13507,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
         <v>53</v>
@@ -13525,7 +13529,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>215</v>
@@ -13545,7 +13549,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23">
         <f>EDATE(A426,1)</f>
         <v>39173</v>
@@ -13572,7 +13576,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>216</v>
@@ -13592,7 +13596,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="53"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <f>EDATE(A430,1)</f>
         <v>39203</v>
@@ -13619,7 +13623,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>53</v>
@@ -13641,7 +13645,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>50</v>
@@ -13661,7 +13665,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>217</v>
@@ -13681,7 +13685,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23">
         <f>EDATE(A432,1)</f>
         <v>39234</v>
@@ -13708,7 +13712,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
         <v>218</v>
@@ -13728,7 +13732,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23">
         <f>EDATE(A436,1)</f>
         <v>39264</v>
@@ -13755,7 +13759,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>219</v>
@@ -13775,7 +13779,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23">
         <f>EDATE(A438,1)</f>
         <v>39295</v>
@@ -13802,7 +13806,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23"/>
       <c r="B441" s="20" t="s">
         <v>220</v>
@@ -13822,7 +13826,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23">
         <f>EDATE(A440,1)</f>
         <v>39326</v>
@@ -13849,7 +13853,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>221</v>
@@ -13869,7 +13873,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23">
         <f>EDATE(A442,1)</f>
         <v>39356</v>
@@ -13894,7 +13898,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23">
         <f t="shared" ref="A445" si="18">EDATE(A444,1)</f>
         <v>39387</v>
@@ -13921,7 +13925,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>54</v>
@@ -13943,7 +13947,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>68</v>
@@ -13965,7 +13969,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>223</v>
@@ -13985,7 +13989,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <f>EDATE(A445,1)</f>
         <v>39417</v>
@@ -14010,7 +14014,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="45" t="s">
         <v>225</v>
       </c>
@@ -14028,7 +14032,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23">
         <f>EDATE(A449,1)</f>
         <v>39448</v>
@@ -14053,7 +14057,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>68</v>
@@ -14075,7 +14079,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>226</v>
@@ -14095,7 +14099,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23">
         <f>EDATE(A451,1)</f>
         <v>39479</v>
@@ -14122,7 +14126,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>53</v>
@@ -14144,7 +14148,7 @@
         <v>47150</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>227</v>
@@ -14164,7 +14168,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="23">
         <f>EDATE(A454,1)</f>
         <v>39508</v>
@@ -14191,7 +14195,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>50</v>
@@ -14211,7 +14215,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="23"/>
       <c r="B459" s="20" t="s">
         <v>228</v>
@@ -14231,7 +14235,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="23">
         <f>EDATE(A457,1)</f>
         <v>39539</v>
@@ -14258,7 +14262,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>53</v>
@@ -14280,7 +14284,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="23"/>
       <c r="B462" s="20" t="s">
         <v>229</v>
@@ -14300,7 +14304,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23">
         <f>EDATE(A460,1)</f>
         <v>39569</v>
@@ -14327,7 +14331,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="23"/>
       <c r="B464" s="20" t="s">
         <v>85</v>
@@ -14349,7 +14353,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
         <v>230</v>
@@ -14369,7 +14373,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23">
         <f>EDATE(A463,1)</f>
         <v>39600</v>
@@ -14396,7 +14400,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>53</v>
@@ -14418,7 +14422,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>50</v>
@@ -14438,7 +14442,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="23">
         <f>EDATE(A466,1)</f>
         <v>39630</v>
@@ -14465,7 +14469,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="23"/>
       <c r="B470" s="20" t="s">
         <v>231</v>
@@ -14485,7 +14489,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="53"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="23">
         <f>EDATE(A469,1)</f>
         <v>39661</v>
@@ -14510,7 +14514,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="23"/>
       <c r="B472" s="20" t="s">
         <v>232</v>
@@ -14530,7 +14534,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="23">
         <f>EDATE(A471,1)</f>
         <v>39692</v>
@@ -14557,7 +14561,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="23"/>
       <c r="B474" s="20" t="s">
         <v>233</v>
@@ -14577,7 +14581,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="23">
         <f>EDATE(A473,1)</f>
         <v>39722</v>
@@ -14604,7 +14608,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="23"/>
       <c r="B476" s="20" t="s">
         <v>68</v>
@@ -14626,7 +14630,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>234</v>
@@ -14646,7 +14650,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="23">
         <f t="shared" ref="A478" si="19">EDATE(A475,1)</f>
         <v>39753</v>
@@ -14671,7 +14675,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="23">
         <f>EDATE(A478,1)</f>
         <v>39783</v>
@@ -14698,7 +14702,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>236</v>
@@ -14718,7 +14722,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="45" t="s">
         <v>237</v>
       </c>
@@ -14736,7 +14740,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="23">
         <f>EDATE(A479,1)</f>
         <v>39814</v>
@@ -14763,7 +14767,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>238</v>
@@ -14783,7 +14787,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="23">
         <f>EDATE(A482,1)</f>
         <v>39845</v>
@@ -14810,7 +14814,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="23"/>
       <c r="B485" s="20" t="s">
         <v>53</v>
@@ -14832,7 +14836,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="23"/>
       <c r="B486" s="20" t="s">
         <v>213</v>
@@ -14854,7 +14858,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>50</v>
@@ -14874,7 +14878,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>239</v>
@@ -14894,7 +14898,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="23">
         <f>EDATE(A484,1)</f>
         <v>39873</v>
@@ -14919,7 +14923,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="23">
         <f t="shared" ref="A490:A501" si="20">EDATE(A489,1)</f>
         <v>39904</v>
@@ -14944,7 +14948,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="23">
         <f t="shared" si="20"/>
         <v>39934</v>
@@ -14971,7 +14975,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="23"/>
       <c r="B492" s="20" t="s">
         <v>53</v>
@@ -14993,7 +14997,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="23"/>
       <c r="B493" s="20" t="s">
         <v>242</v>
@@ -15013,7 +15017,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="23">
         <f>EDATE(A491,1)</f>
         <v>39965</v>
@@ -15040,7 +15044,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>243</v>
@@ -15060,7 +15064,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="23">
         <f>EDATE(A494,1)</f>
         <v>39995</v>
@@ -15085,7 +15089,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
         <v>53</v>
@@ -15107,7 +15111,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="23">
         <f>EDATE(A496,1)</f>
         <v>40026</v>
@@ -15134,7 +15138,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="23"/>
       <c r="B499" s="20" t="s">
         <v>245</v>
@@ -15154,7 +15158,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="23">
         <f>EDATE(A498,1)</f>
         <v>40057</v>
@@ -15179,7 +15183,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="23">
         <f t="shared" si="20"/>
         <v>40087</v>
@@ -15206,7 +15210,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>50</v>
@@ -15226,7 +15230,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="23"/>
       <c r="B503" s="20" t="s">
         <v>247</v>
@@ -15246,7 +15250,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="23">
         <f>EDATE(A501,1)</f>
         <v>40118</v>
@@ -15273,7 +15277,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="23"/>
       <c r="B505" s="20" t="s">
         <v>248</v>
@@ -15293,7 +15297,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="23">
         <f>EDATE(A504,1)</f>
         <v>40148</v>
@@ -15318,7 +15322,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="23"/>
       <c r="B507" s="20" t="s">
         <v>249</v>
@@ -15338,7 +15342,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="23"/>
       <c r="B508" s="20" t="s">
         <v>53</v>
@@ -15360,7 +15364,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="45" t="s">
         <v>250</v>
       </c>
@@ -15378,7 +15382,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="23">
         <f>EDATE(A506,1)</f>
         <v>40179</v>
@@ -15405,7 +15409,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="23"/>
       <c r="B511" s="20" t="s">
         <v>50</v>
@@ -15425,7 +15429,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>53</v>
@@ -15447,7 +15451,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="23"/>
       <c r="B513" s="20" t="s">
         <v>251</v>
@@ -15467,7 +15471,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="23">
         <f>EDATE(A510,1)</f>
         <v>40210</v>
@@ -15492,7 +15496,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="23"/>
       <c r="B515" s="20" t="s">
         <v>53</v>
@@ -15514,7 +15518,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>53</v>
@@ -15536,7 +15540,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="23"/>
       <c r="B517" s="20" t="s">
         <v>54</v>
@@ -15558,7 +15562,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="23"/>
       <c r="B518" s="20" t="s">
         <v>252</v>
@@ -15578,7 +15582,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="23">
         <f>EDATE(A514,1)</f>
         <v>40238</v>
@@ -15605,7 +15609,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="23"/>
       <c r="B520" s="20" t="s">
         <v>53</v>
@@ -15627,7 +15631,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="23"/>
       <c r="B521" s="20" t="s">
         <v>127</v>
@@ -15647,7 +15651,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="23">
         <f>EDATE(A519,1)</f>
         <v>40269</v>
@@ -15674,7 +15678,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="23"/>
       <c r="B523" s="20" t="s">
         <v>53</v>
@@ -15696,7 +15700,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="23"/>
       <c r="B524" s="20" t="s">
         <v>253</v>
@@ -15716,7 +15720,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="23">
         <f>EDATE(A522,1)</f>
         <v>40299</v>
@@ -15743,7 +15747,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="23"/>
       <c r="B526" s="20" t="s">
         <v>53</v>
@@ -15765,7 +15769,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="23"/>
       <c r="B527" s="20" t="s">
         <v>53</v>
@@ -15787,7 +15791,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="23"/>
       <c r="B528" s="20" t="s">
         <v>53</v>
@@ -15809,7 +15813,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="23"/>
       <c r="B529" s="20" t="s">
         <v>254</v>
@@ -15829,7 +15833,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="23">
         <f>EDATE(A525,1)</f>
         <v>40330</v>
@@ -15856,7 +15860,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="23"/>
       <c r="B531" s="20" t="s">
         <v>256</v>
@@ -15876,7 +15880,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="23">
         <f>EDATE(A530,1)</f>
         <v>40360</v>
@@ -15903,7 +15907,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="23"/>
       <c r="B533" s="20" t="s">
         <v>53</v>
@@ -15925,7 +15929,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
         <v>50</v>
@@ -15945,7 +15949,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="23"/>
       <c r="B535" s="20" t="s">
         <v>257</v>
@@ -15965,7 +15969,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="23">
         <f>EDATE(A532,1)</f>
         <v>40391</v>
@@ -15992,7 +15996,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="23"/>
       <c r="B537" s="20" t="s">
         <v>54</v>
@@ -16014,7 +16018,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="23"/>
       <c r="B538" s="20" t="s">
         <v>258</v>
@@ -16034,7 +16038,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="23"/>
       <c r="B539" s="20" t="s">
         <v>92</v>
@@ -16054,7 +16058,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="23">
         <f>EDATE(A536,1)</f>
         <v>40422</v>
@@ -16081,7 +16085,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="23"/>
       <c r="B541" s="20" t="s">
         <v>56</v>
@@ -16103,7 +16107,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="23"/>
       <c r="B542" s="20" t="s">
         <v>259</v>
@@ -16123,7 +16127,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="23">
         <f>EDATE(A540,1)</f>
         <v>40452</v>
@@ -16150,7 +16154,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="23"/>
       <c r="B544" s="20" t="s">
         <v>260</v>
@@ -16170,7 +16174,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="23">
         <f>EDATE(A543,1)</f>
         <v>40483</v>
@@ -16197,7 +16201,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="23"/>
       <c r="B546" s="20" t="s">
         <v>261</v>
@@ -16217,7 +16221,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="23"/>
       <c r="B547" s="20" t="s">
         <v>53</v>
@@ -16239,7 +16243,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="23">
         <f t="shared" ref="A548" si="21">EDATE(A545,1)</f>
         <v>40513</v>
@@ -16264,7 +16268,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="45" t="s">
         <v>262</v>
       </c>
@@ -16282,7 +16286,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="23">
         <f>EDATE(A548,1)</f>
         <v>40544</v>
@@ -16307,7 +16311,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="23"/>
       <c r="B551" s="20" t="s">
         <v>54</v>
@@ -16329,7 +16333,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="23"/>
       <c r="B552" s="20" t="s">
         <v>263</v>
@@ -16349,7 +16353,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="23">
         <f>EDATE(A550,1)</f>
         <v>40575</v>
@@ -16376,7 +16380,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="23"/>
       <c r="B554" s="20" t="s">
         <v>92</v>
@@ -16398,7 +16402,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="23"/>
       <c r="B555" s="20" t="s">
         <v>264</v>
@@ -16418,7 +16422,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="23">
         <f>EDATE(A553,1)</f>
         <v>40603</v>
@@ -16445,7 +16449,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="23"/>
       <c r="B557" s="20" t="s">
         <v>50</v>
@@ -16465,7 +16469,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="23"/>
       <c r="B558" s="20" t="s">
         <v>53</v>
@@ -16487,7 +16491,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="23"/>
       <c r="B559" s="20" t="s">
         <v>265</v>
@@ -16507,7 +16511,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="23">
         <f>EDATE(A556,1)</f>
         <v>40634</v>
@@ -16532,7 +16536,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="23">
         <f t="shared" ref="A561:A566" si="22">EDATE(A560,1)</f>
         <v>40664</v>
@@ -16557,7 +16561,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="23">
         <f t="shared" si="22"/>
         <v>40695</v>
@@ -16584,7 +16588,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="23"/>
       <c r="B563" s="20" t="s">
         <v>50</v>
@@ -16604,7 +16608,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="23"/>
       <c r="B564" s="20" t="s">
         <v>268</v>
@@ -16624,7 +16628,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="23">
         <f>EDATE(A562,1)</f>
         <v>40725</v>
@@ -16649,7 +16653,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="23">
         <f t="shared" si="22"/>
         <v>40756</v>
@@ -16676,7 +16680,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="23"/>
       <c r="B567" s="20" t="s">
         <v>53</v>
@@ -16698,7 +16702,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="23"/>
       <c r="B568" s="20" t="s">
         <v>270</v>
@@ -16718,7 +16722,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="23">
         <f>EDATE(A566,1)</f>
         <v>40787</v>
@@ -16745,7 +16749,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="23"/>
       <c r="B570" s="20" t="s">
         <v>53</v>
@@ -16767,7 +16771,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="23"/>
       <c r="B571" s="20" t="s">
         <v>271</v>
@@ -16787,7 +16791,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="23">
         <f>EDATE(A569,1)</f>
         <v>40817</v>
@@ -16814,7 +16818,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="23"/>
       <c r="B573" s="20" t="s">
         <v>54</v>
@@ -16836,7 +16840,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="23"/>
       <c r="B574" s="20" t="s">
         <v>53</v>
@@ -16858,7 +16862,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="23"/>
       <c r="B575" s="20" t="s">
         <v>272</v>
@@ -16878,7 +16882,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="23">
         <f>EDATE(A572,1)</f>
         <v>40848</v>
@@ -16905,7 +16909,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="23"/>
       <c r="B577" s="20" t="s">
         <v>273</v>
@@ -16925,7 +16929,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="23">
         <f>EDATE(A576,1)</f>
         <v>40878</v>
@@ -16952,7 +16956,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="23"/>
       <c r="B579" s="20" t="s">
         <v>274</v>
@@ -16972,7 +16976,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="45" t="s">
         <v>275</v>
       </c>
@@ -16990,7 +16994,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="23">
         <f>EDATE(A578,1)</f>
         <v>40909</v>
@@ -17015,7 +17019,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="23"/>
       <c r="B582" s="20" t="s">
         <v>53</v>
@@ -17037,7 +17041,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="23"/>
       <c r="B583" s="20" t="s">
         <v>276</v>
@@ -17057,7 +17061,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="23">
         <f>EDATE(A581,1)</f>
         <v>40940</v>
@@ -17084,7 +17088,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="23"/>
       <c r="B585" s="20" t="s">
         <v>54</v>
@@ -17106,7 +17110,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="23"/>
       <c r="B586" s="20" t="s">
         <v>56</v>
@@ -17128,7 +17132,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="23"/>
       <c r="B587" s="20" t="s">
         <v>277</v>
@@ -17148,7 +17152,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="23">
         <f>EDATE(A584,1)</f>
         <v>40969</v>
@@ -17175,7 +17179,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="23"/>
       <c r="B589" s="20" t="s">
         <v>278</v>
@@ -17195,7 +17199,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="23">
         <f>EDATE(A588,1)</f>
         <v>41000</v>
@@ -17222,7 +17226,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="23"/>
       <c r="B591" s="20" t="s">
         <v>50</v>
@@ -17242,7 +17246,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="23"/>
       <c r="B592" s="20" t="s">
         <v>53</v>
@@ -17264,7 +17268,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="23"/>
       <c r="B593" s="20" t="s">
         <v>279</v>
@@ -17284,7 +17288,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="53"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="23">
         <f>EDATE(A590,1)</f>
         <v>41030</v>
@@ -17311,7 +17315,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="23"/>
       <c r="B595" s="20" t="s">
         <v>54</v>
@@ -17333,7 +17337,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="23"/>
       <c r="B596" s="20" t="s">
         <v>53</v>
@@ -17355,7 +17359,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="23"/>
       <c r="B597" s="20" t="s">
         <v>280</v>
@@ -17375,7 +17379,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="23">
         <f>EDATE(A594,1)</f>
         <v>41061</v>
@@ -17400,7 +17404,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="23">
         <f t="shared" ref="A599:A601" si="23">EDATE(A598,1)</f>
         <v>41091</v>
@@ -17425,7 +17429,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="23">
         <f t="shared" si="23"/>
         <v>41122</v>
@@ -17450,7 +17454,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="23">
         <f t="shared" si="23"/>
         <v>41153</v>
@@ -17477,7 +17481,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="23"/>
       <c r="B602" s="20" t="s">
         <v>92</v>
@@ -17499,7 +17503,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="23"/>
       <c r="B603" s="20" t="s">
         <v>283</v>
@@ -17519,7 +17523,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="23">
         <f>EDATE(A601,1)</f>
         <v>41183</v>
@@ -17546,7 +17550,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="23"/>
       <c r="B605" s="20" t="s">
         <v>284</v>
@@ -17566,7 +17570,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="23">
         <f>EDATE(A604,1)</f>
         <v>41214</v>
@@ -17593,7 +17597,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="23"/>
       <c r="B607" s="20" t="s">
         <v>285</v>
@@ -17613,7 +17617,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="23">
         <f>EDATE(A606,1)</f>
         <v>41244</v>
@@ -17638,7 +17642,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="23"/>
       <c r="B609" s="20" t="s">
         <v>286</v>
@@ -17658,7 +17662,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="45" t="s">
         <v>287</v>
       </c>
@@ -17676,7 +17680,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="23">
         <f>EDATE(A608,1)</f>
         <v>41275</v>
@@ -17703,7 +17707,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="23"/>
       <c r="B612" s="20" t="s">
         <v>288</v>
@@ -17723,7 +17727,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="53"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="23">
         <f>EDATE(A611,1)</f>
         <v>41306</v>
@@ -17748,7 +17752,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="23"/>
       <c r="B614" s="20" t="s">
         <v>53</v>
@@ -17770,7 +17774,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="23"/>
       <c r="B615" s="20" t="s">
         <v>289</v>
@@ -17790,7 +17794,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="53"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="23">
         <f>EDATE(A613,1)</f>
         <v>41334</v>
@@ -17815,7 +17819,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="23">
         <f t="shared" ref="A617:A631" si="24">EDATE(A616,1)</f>
         <v>41365</v>
@@ -17840,7 +17844,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="23"/>
       <c r="B618" s="20" t="s">
         <v>54</v>
@@ -17862,7 +17866,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="23"/>
       <c r="B619" s="20" t="s">
         <v>53</v>
@@ -17884,7 +17888,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="23"/>
       <c r="B620" s="20" t="s">
         <v>291</v>
@@ -17904,7 +17908,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="23">
         <f>EDATE(A617,1)</f>
         <v>41395</v>
@@ -17931,7 +17935,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="23"/>
       <c r="B622" s="20" t="s">
         <v>292</v>
@@ -17951,7 +17955,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="23">
         <f>EDATE(A621,1)</f>
         <v>41426</v>
@@ -17978,7 +17982,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="23"/>
       <c r="B624" s="20" t="s">
         <v>293</v>
@@ -17998,7 +18002,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="23">
         <f>EDATE(A623,1)</f>
         <v>41456</v>
@@ -18025,7 +18029,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="23"/>
       <c r="B626" s="20" t="s">
         <v>87</v>
@@ -18047,7 +18051,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="23"/>
       <c r="B627" s="20" t="s">
         <v>294</v>
@@ -18067,7 +18071,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="23">
         <f>EDATE(A625,1)</f>
         <v>41487</v>
@@ -18094,7 +18098,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="23"/>
       <c r="B629" s="20" t="s">
         <v>295</v>
@@ -18114,7 +18118,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="23">
         <f>EDATE(A628,1)</f>
         <v>41518</v>
@@ -18139,7 +18143,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="23">
         <f t="shared" si="24"/>
         <v>41548</v>
@@ -18166,7 +18170,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="23"/>
       <c r="B632" s="20" t="s">
         <v>185</v>
@@ -18186,7 +18190,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="23">
         <f>EDATE(A631,1)</f>
         <v>41579</v>
@@ -18213,7 +18217,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="23"/>
       <c r="B634" s="20" t="s">
         <v>50</v>
@@ -18233,7 +18237,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="23"/>
       <c r="B635" s="20" t="s">
         <v>87</v>
@@ -18255,7 +18259,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="23"/>
       <c r="B636" s="20" t="s">
         <v>116</v>
@@ -18275,7 +18279,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="23">
         <f>EDATE(A633,1)</f>
         <v>41609</v>
@@ -18302,7 +18306,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="23"/>
       <c r="B638" s="20" t="s">
         <v>53</v>
@@ -18324,7 +18328,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="23"/>
       <c r="B639" s="20" t="s">
         <v>297</v>
@@ -18344,7 +18348,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="23"/>
       <c r="B640" s="20" t="s">
         <v>298</v>
@@ -18364,7 +18368,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="45" t="s">
         <v>299</v>
       </c>
@@ -18382,7 +18386,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="23">
         <f>EDATE(A637,1)</f>
         <v>41640</v>
@@ -18409,7 +18413,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="23"/>
       <c r="B643" s="20" t="s">
         <v>202</v>
@@ -18431,7 +18435,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="23"/>
       <c r="B644" s="20" t="s">
         <v>300</v>
@@ -18451,7 +18455,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="23">
         <f>EDATE(A642,1)</f>
         <v>41671</v>
@@ -18476,7 +18480,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="23">
         <f t="shared" ref="A646:A663" si="25">EDATE(A645,1)</f>
         <v>41699</v>
@@ -18497,7 +18501,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="23">
         <f t="shared" si="25"/>
         <v>41730</v>
@@ -18522,7 +18526,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="23"/>
       <c r="B648" s="20" t="s">
         <v>302</v>
@@ -18544,7 +18548,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="23">
         <f>EDATE(A647,1)</f>
         <v>41760</v>
@@ -18571,7 +18575,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="23"/>
       <c r="B650" s="20" t="s">
         <v>303</v>
@@ -18591,7 +18595,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="23">
         <f>EDATE(A649,1)</f>
         <v>41791</v>
@@ -18618,7 +18622,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="23"/>
       <c r="B652" s="20" t="s">
         <v>53</v>
@@ -18640,7 +18644,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="23"/>
       <c r="B653" s="20" t="s">
         <v>53</v>
@@ -18662,7 +18666,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="23"/>
       <c r="B654" s="20" t="s">
         <v>304</v>
@@ -18682,7 +18686,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="23">
         <f>EDATE(A651,1)</f>
         <v>41821</v>
@@ -18709,7 +18713,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="23"/>
       <c r="B656" s="20" t="s">
         <v>50</v>
@@ -18729,7 +18733,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="23"/>
       <c r="B657" s="20" t="s">
         <v>92</v>
@@ -18751,7 +18755,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="23"/>
       <c r="B658" s="20" t="s">
         <v>305</v>
@@ -18771,7 +18775,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="23">
         <f>EDATE(A655,1)</f>
         <v>41852</v>
@@ -18798,7 +18802,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="23"/>
       <c r="B660" s="20" t="s">
         <v>53</v>
@@ -18820,7 +18824,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="23"/>
       <c r="B661" s="20" t="s">
         <v>306</v>
@@ -18840,7 +18844,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="23">
         <f>EDATE(A659,1)</f>
         <v>41883</v>
@@ -18865,7 +18869,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="23">
         <f t="shared" si="25"/>
         <v>41913</v>
@@ -18892,7 +18896,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="23"/>
       <c r="B664" s="20" t="s">
         <v>308</v>
@@ -18912,7 +18916,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="23">
         <f>EDATE(A663,1)</f>
         <v>41944</v>
@@ -18939,7 +18943,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="23"/>
       <c r="B666" s="20" t="s">
         <v>54</v>
@@ -18961,7 +18965,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="23"/>
       <c r="B667" s="20" t="s">
         <v>310</v>
@@ -18981,7 +18985,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="23">
         <f>EDATE(A665,1)</f>
         <v>41974</v>
@@ -19008,7 +19012,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="23"/>
       <c r="B669" s="20" t="s">
         <v>311</v>
@@ -19028,7 +19032,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="45" t="s">
         <v>312</v>
       </c>
@@ -19046,7 +19050,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="23">
         <f>EDATE(A668,1)</f>
         <v>42005</v>
@@ -19073,7 +19077,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="23"/>
       <c r="B672" s="20" t="s">
         <v>50</v>
@@ -19093,7 +19097,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="23"/>
       <c r="B673" s="20" t="s">
         <v>313</v>
@@ -19113,7 +19117,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="23">
         <f>EDATE(A671,1)</f>
         <v>42036</v>
@@ -19140,7 +19144,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="23"/>
       <c r="B675" s="20" t="s">
         <v>314</v>
@@ -19160,7 +19164,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="23">
         <f>EDATE(A674,1)</f>
         <v>42064</v>
@@ -19181,7 +19185,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="23">
         <f t="shared" ref="A677:A692" si="26">EDATE(A676,1)</f>
         <v>42095</v>
@@ -19208,7 +19212,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="23"/>
       <c r="B678" s="20" t="s">
         <v>50</v>
@@ -19228,7 +19232,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="23"/>
       <c r="B679" s="20" t="s">
         <v>315</v>
@@ -19248,7 +19252,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="23">
         <f>EDATE(A677,1)</f>
         <v>42125</v>
@@ -19275,7 +19279,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="23"/>
       <c r="B681" s="20" t="s">
         <v>68</v>
@@ -19297,7 +19301,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="23"/>
       <c r="B682" s="20" t="s">
         <v>316</v>
@@ -19317,7 +19321,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="23">
         <f>EDATE(A680,1)</f>
         <v>42156</v>
@@ -19344,7 +19348,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="23"/>
       <c r="B684" s="20" t="s">
         <v>317</v>
@@ -19364,7 +19368,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="23">
         <f>EDATE(A683,1)</f>
         <v>42186</v>
@@ -19391,7 +19395,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="23"/>
       <c r="B686" s="20" t="s">
         <v>53</v>
@@ -19413,7 +19417,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="23"/>
       <c r="B687" s="20" t="s">
         <v>53</v>
@@ -19435,7 +19439,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="23"/>
       <c r="B688" s="20" t="s">
         <v>318</v>
@@ -19455,7 +19459,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="23">
         <f>EDATE(A685,1)</f>
         <v>42217</v>
@@ -19482,7 +19486,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="23"/>
       <c r="B690" s="20" t="s">
         <v>319</v>
@@ -19502,7 +19506,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="23">
         <f>EDATE(A689,1)</f>
         <v>42248</v>
@@ -19527,7 +19531,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="23">
         <f t="shared" si="26"/>
         <v>42278</v>
@@ -19554,7 +19558,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="23"/>
       <c r="B693" s="20" t="s">
         <v>50</v>
@@ -19574,7 +19578,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="23"/>
       <c r="B694" s="20" t="s">
         <v>53</v>
@@ -19594,7 +19598,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="23"/>
       <c r="B695" s="20" t="s">
         <v>321</v>
@@ -19614,7 +19618,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="23">
         <f>EDATE(A692,1)</f>
         <v>42309</v>
@@ -19639,7 +19643,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="23"/>
       <c r="B697" s="20" t="s">
         <v>53</v>
@@ -19661,7 +19665,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="23">
         <f>EDATE(A696,1)</f>
         <v>42339</v>
@@ -19688,7 +19692,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="23"/>
       <c r="B699" s="20" t="s">
         <v>323</v>
@@ -19708,7 +19712,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="45" t="s">
         <v>324</v>
       </c>
@@ -19726,7 +19730,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="23">
         <f>EDATE(A698,1)</f>
         <v>42370</v>
@@ -19753,7 +19757,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="23"/>
       <c r="B702" s="20" t="s">
         <v>50</v>
@@ -19773,7 +19777,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="23"/>
       <c r="B703" s="20" t="s">
         <v>223</v>
@@ -19793,7 +19797,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="23">
         <f>EDATE(A701,1)</f>
         <v>42401</v>
@@ -19820,7 +19824,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="23"/>
       <c r="B705" s="20" t="s">
         <v>50</v>
@@ -19840,7 +19844,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="23"/>
       <c r="B706" s="20" t="s">
         <v>53</v>
@@ -19862,7 +19866,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="23"/>
       <c r="B707" s="20" t="s">
         <v>325</v>
@@ -19882,7 +19886,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="23">
         <f>EDATE(A704,1)</f>
         <v>42430</v>
@@ -19907,7 +19911,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="23">
         <f t="shared" ref="A709:A717" si="27">EDATE(A708,1)</f>
         <v>42461</v>
@@ -19934,7 +19938,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="23"/>
       <c r="B710" s="20" t="s">
         <v>327</v>
@@ -19954,7 +19958,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="23">
         <f>EDATE(A709,1)</f>
         <v>42491</v>
@@ -19979,7 +19983,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="23">
         <f t="shared" si="27"/>
         <v>42522</v>
@@ -20006,7 +20010,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="23"/>
       <c r="B713" s="20" t="s">
         <v>329</v>
@@ -20026,7 +20030,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="53"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="23">
         <f>EDATE(A712,1)</f>
         <v>42552</v>
@@ -20051,7 +20055,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="23">
         <f t="shared" si="27"/>
         <v>42583</v>
@@ -20076,7 +20080,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="23">
         <f t="shared" si="27"/>
         <v>42614</v>
@@ -20101,7 +20105,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="23">
         <f t="shared" si="27"/>
         <v>42644</v>
@@ -20128,7 +20132,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="23"/>
       <c r="B718" s="20" t="s">
         <v>53</v>
@@ -20150,7 +20154,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="23"/>
       <c r="B719" s="20" t="s">
         <v>332</v>
@@ -20170,7 +20174,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="23">
         <f>EDATE(A717,1)</f>
         <v>42675</v>
@@ -20197,7 +20201,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="23"/>
       <c r="B721" s="20" t="s">
         <v>50</v>
@@ -20217,7 +20221,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="23"/>
       <c r="B722" s="20" t="s">
         <v>333</v>
@@ -20237,7 +20241,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="23">
         <f>EDATE(A720,1)</f>
         <v>42705</v>
@@ -20264,7 +20268,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="23"/>
       <c r="B724" s="20" t="s">
         <v>87</v>
@@ -20286,7 +20290,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="23"/>
       <c r="B725" s="20" t="s">
         <v>334</v>
@@ -20306,7 +20310,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="45" t="s">
         <v>335</v>
       </c>
@@ -20324,7 +20328,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="23">
         <f>EDATE(A723,1)</f>
         <v>42736</v>
@@ -20349,7 +20353,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="23"/>
       <c r="B728" s="20" t="s">
         <v>53</v>
@@ -20371,7 +20375,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="23"/>
       <c r="B729" s="20" t="s">
         <v>336</v>
@@ -20391,7 +20395,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="23">
         <f>EDATE(A727,1)</f>
         <v>42767</v>
@@ -20416,7 +20420,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="23"/>
       <c r="B731" s="20" t="s">
         <v>53</v>
@@ -20438,7 +20442,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="23"/>
       <c r="B732" s="20" t="s">
         <v>57</v>
@@ -20460,7 +20464,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="23"/>
       <c r="B733" s="20" t="s">
         <v>53</v>
@@ -20482,7 +20486,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="23"/>
       <c r="B734" s="20" t="s">
         <v>56</v>
@@ -20504,7 +20508,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="23"/>
       <c r="B735" s="20" t="s">
         <v>337</v>
@@ -20524,7 +20528,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="23">
         <f>EDATE(A730,1)</f>
         <v>42795</v>
@@ -20545,7 +20549,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="23">
         <f t="shared" ref="A737:A746" si="28">EDATE(A736,1)</f>
         <v>42826</v>
@@ -20566,7 +20570,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="23">
         <f t="shared" si="28"/>
         <v>42856</v>
@@ -20587,7 +20591,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="23">
         <f t="shared" si="28"/>
         <v>42887</v>
@@ -20614,7 +20618,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="23"/>
       <c r="B740" s="20" t="s">
         <v>87</v>
@@ -20636,7 +20640,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="23">
         <f>EDATE(A739,1)</f>
         <v>42917</v>
@@ -20663,7 +20667,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="23"/>
       <c r="B742" s="20" t="s">
         <v>53</v>
@@ -20685,7 +20689,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="23">
         <f>EDATE(A741,1)</f>
         <v>42948</v>
@@ -20706,7 +20710,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="23">
         <f t="shared" si="28"/>
         <v>42979</v>
@@ -20727,7 +20731,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="23">
         <f t="shared" si="28"/>
         <v>43009</v>
@@ -20748,7 +20752,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="23">
         <f t="shared" si="28"/>
         <v>43040</v>
@@ -20769,7 +20773,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="23">
         <f>EDATE(A746,1)</f>
         <v>43070</v>
@@ -20794,7 +20798,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="23"/>
       <c r="B748" s="20" t="s">
         <v>73</v>
@@ -20814,7 +20818,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="45" t="s">
         <v>339</v>
       </c>
@@ -20832,7 +20836,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="23">
         <f>EDATE(A747,1)</f>
         <v>43101</v>
@@ -20859,7 +20863,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="23"/>
       <c r="B751" s="20" t="s">
         <v>50</v>
@@ -20879,7 +20883,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="23">
         <f>EDATE(A750,1)</f>
         <v>43132</v>
@@ -20900,7 +20904,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="23">
         <f t="shared" ref="A753:A762" si="29">EDATE(A752,1)</f>
         <v>43160</v>
@@ -20925,7 +20929,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="23"/>
       <c r="B754" s="20" t="s">
         <v>53</v>
@@ -20947,7 +20951,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="23"/>
       <c r="B755" s="20" t="s">
         <v>50</v>
@@ -20967,7 +20971,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="23">
         <f>EDATE(A753,1)</f>
         <v>43191</v>
@@ -20988,7 +20992,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="23">
         <f t="shared" si="29"/>
         <v>43221</v>
@@ -21009,7 +21013,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="23">
         <f t="shared" si="29"/>
         <v>43252</v>
@@ -21036,7 +21040,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="23">
         <f t="shared" si="29"/>
         <v>43282</v>
@@ -21057,7 +21061,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="23">
         <f t="shared" si="29"/>
         <v>43313</v>
@@ -21078,7 +21082,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="23">
         <f t="shared" si="29"/>
         <v>43344</v>
@@ -21099,7 +21103,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="23">
         <f t="shared" si="29"/>
         <v>43374</v>
@@ -21126,7 +21130,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="23">
         <f>EDATE(A762,1)</f>
         <v>43405</v>
@@ -21153,7 +21157,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="23">
         <f>EDATE(A763,1)</f>
         <v>43435</v>
@@ -21180,7 +21184,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="23"/>
       <c r="B765" s="20" t="s">
         <v>53</v>
@@ -21202,7 +21206,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="23"/>
       <c r="B766" s="20" t="s">
         <v>53</v>
@@ -21224,7 +21228,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="45" t="s">
         <v>46</v>
       </c>
@@ -21242,7 +21246,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="39">
         <v>43466</v>
       </c>
@@ -21266,7 +21270,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="39">
         <v>43497</v>
       </c>
@@ -21292,7 +21296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="39">
         <v>43525</v>
       </c>
@@ -21312,7 +21316,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="39">
         <v>43556</v>
       </c>
@@ -21332,7 +21336,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="39">
         <v>43586</v>
       </c>
@@ -21358,7 +21362,7 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="39">
         <v>43617</v>
       </c>
@@ -21378,7 +21382,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="39">
         <v>43647</v>
       </c>
@@ -21402,7 +21406,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="39">
         <v>43678</v>
       </c>
@@ -21422,7 +21426,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="39">
         <v>43709</v>
       </c>
@@ -21448,7 +21452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="39"/>
       <c r="B777" s="20" t="s">
         <v>56</v>
@@ -21470,7 +21474,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="39">
         <v>43739</v>
       </c>
@@ -21496,7 +21500,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="39">
         <v>43770</v>
       </c>
@@ -21516,7 +21520,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="39">
         <v>43800</v>
       </c>
@@ -21542,7 +21546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="39"/>
       <c r="B781" s="20" t="s">
         <v>50</v>
@@ -21562,7 +21566,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="45" t="s">
         <v>48</v>
       </c>
@@ -21580,7 +21584,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="39">
         <v>43831</v>
       </c>
@@ -21604,7 +21608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" s="39">
         <v>43862</v>
       </c>
@@ -21630,7 +21634,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="39">
         <v>43891</v>
       </c>
@@ -21650,7 +21654,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" s="39">
         <v>43922</v>
       </c>
@@ -21670,7 +21674,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" s="39">
         <v>43952</v>
       </c>
@@ -21690,7 +21694,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" s="39">
         <v>43983</v>
       </c>
@@ -21710,7 +21714,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" s="39">
         <v>44013</v>
       </c>
@@ -21734,7 +21738,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="39">
         <v>44044</v>
       </c>
@@ -21754,7 +21758,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" s="39">
         <v>44075</v>
       </c>
@@ -21774,7 +21778,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" s="39">
         <v>44105</v>
       </c>
@@ -21798,7 +21802,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A793" s="39">
         <v>44136</v>
       </c>
@@ -21822,7 +21826,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" s="39">
         <v>44166</v>
       </c>
@@ -21848,7 +21852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" s="39"/>
       <c r="B795" s="20" t="s">
         <v>51</v>
@@ -21870,7 +21874,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A796" s="45" t="s">
         <v>47</v>
       </c>
@@ -21888,7 +21892,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" s="39">
         <v>44197</v>
       </c>
@@ -21908,7 +21912,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A798" s="39">
         <v>44228</v>
       </c>
@@ -21932,7 +21936,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A799" s="39">
         <v>44256</v>
       </c>
@@ -21952,7 +21956,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A800" s="39">
         <v>44287</v>
       </c>
@@ -21972,7 +21976,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" s="39">
         <v>44317</v>
       </c>
@@ -21992,7 +21996,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" s="39">
         <v>44348</v>
       </c>
@@ -22016,7 +22020,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A803" s="39"/>
       <c r="B803" s="20" t="s">
         <v>57</v>
@@ -22038,7 +22042,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A804" s="39"/>
       <c r="B804" s="20" t="s">
         <v>56</v>
@@ -22060,7 +22064,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A805" s="39">
         <v>44378</v>
       </c>
@@ -22080,7 +22084,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A806" s="39">
         <v>44409</v>
       </c>
@@ -22100,7 +22104,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" s="39">
         <v>44440</v>
       </c>
@@ -22120,7 +22124,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A808" s="39">
         <v>44470</v>
       </c>
@@ -22140,7 +22144,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A809" s="39">
         <v>44501</v>
       </c>
@@ -22164,7 +22168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A810" s="39"/>
       <c r="B810" s="20" t="s">
         <v>65</v>
@@ -22184,7 +22188,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A811" s="39">
         <v>44531</v>
       </c>
@@ -22208,7 +22212,7 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A812" s="45" t="s">
         <v>49</v>
       </c>
@@ -22226,7 +22230,7 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" s="39">
         <v>44562</v>
       </c>
@@ -22246,7 +22250,7 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" s="39">
         <v>44593</v>
       </c>
@@ -22266,7 +22270,7 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A815" s="39">
         <v>44621</v>
       </c>
@@ -22290,7 +22294,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A816" s="39">
         <v>44652</v>
       </c>
@@ -22310,7 +22314,7 @@
       <c r="J816" s="11"/>
       <c r="K816" s="20"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A817" s="39">
         <v>44682</v>
       </c>
@@ -22336,7 +22340,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A818" s="39">
         <v>44713</v>
       </c>
@@ -22356,7 +22360,7 @@
       <c r="J818" s="11"/>
       <c r="K818" s="20"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A819" s="39">
         <v>44743</v>
       </c>
@@ -22382,7 +22386,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A820" s="39">
         <v>44774</v>
       </c>
@@ -22402,7 +22406,7 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A821" s="39">
         <v>44805</v>
       </c>
@@ -22426,7 +22430,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A822" s="39">
         <v>44835</v>
       </c>
@@ -22452,7 +22456,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A823" s="39">
         <v>44866</v>
       </c>
@@ -22478,7 +22482,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A824" s="39"/>
       <c r="B824" s="20" t="s">
         <v>50</v>
@@ -22498,7 +22502,7 @@
         <v>44879</v>
       </c>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A825" s="39">
         <v>44896</v>
       </c>
@@ -22524,7 +22528,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A826" s="39"/>
       <c r="B826" s="20" t="s">
         <v>68</v>
@@ -22546,7 +22550,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A827" s="39"/>
       <c r="B827" s="20" t="s">
         <v>56</v>
@@ -22568,7 +22572,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A828" s="45" t="s">
         <v>70</v>
       </c>
@@ -22586,7 +22590,7 @@
       <c r="J828" s="11"/>
       <c r="K828" s="20"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A829" s="39">
         <v>44927</v>
       </c>
@@ -22610,7 +22614,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A830" s="39">
         <v>44958</v>
       </c>
@@ -22636,7 +22640,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A831" s="39">
         <v>44986</v>
       </c>
@@ -22656,7 +22660,7 @@
       <c r="J831" s="11"/>
       <c r="K831" s="20"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A832" s="39">
         <v>45017</v>
       </c>
@@ -22676,7 +22680,7 @@
       <c r="J832" s="11"/>
       <c r="K832" s="20"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A833" s="39">
         <v>45047</v>
       </c>
@@ -22700,20 +22704,22 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A834" s="39">
         <v>45078</v>
       </c>
       <c r="B834" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C834" s="13"/>
+      <c r="C834" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D834" s="38"/>
       <c r="E834" s="9"/>
       <c r="F834" s="20"/>
-      <c r="G834" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G834" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H834" s="38">
         <v>1</v>
@@ -22724,7 +22730,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A835" s="39"/>
       <c r="B835" s="20" t="s">
         <v>53</v>
@@ -22746,11 +22752,13 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A836" s="39">
         <v>45108</v>
       </c>
-      <c r="B836" s="20"/>
+      <c r="B836" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C836" s="13"/>
       <c r="D836" s="38"/>
       <c r="E836" s="9"/>
@@ -22759,18 +22767,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H836" s="38"/>
+      <c r="H836" s="38">
+        <v>1</v>
+      </c>
       <c r="I836" s="9"/>
       <c r="J836" s="11"/>
       <c r="K836" s="20"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A837" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B837" s="20"/>
+    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A837" s="39"/>
+      <c r="B837" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C837" s="13"/>
-      <c r="D837" s="38"/>
+      <c r="D837" s="38">
+        <v>3</v>
+      </c>
       <c r="E837" s="9"/>
       <c r="F837" s="20"/>
       <c r="G837" s="13" t="str">
@@ -22780,11 +22792,13 @@
       <c r="H837" s="38"/>
       <c r="I837" s="9"/>
       <c r="J837" s="11"/>
-      <c r="K837" s="20"/>
-    </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K837" s="20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A838" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B838" s="20"/>
       <c r="C838" s="13"/>
@@ -22800,9 +22814,9 @@
       <c r="J838" s="11"/>
       <c r="K838" s="20"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A839" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B839" s="20"/>
       <c r="C839" s="13"/>
@@ -22818,9 +22832,9 @@
       <c r="J839" s="11"/>
       <c r="K839" s="20"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A840" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B840" s="20"/>
       <c r="C840" s="13"/>
@@ -22836,9 +22850,9 @@
       <c r="J840" s="11"/>
       <c r="K840" s="20"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A841" s="39">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B841" s="20"/>
       <c r="C841" s="13"/>
@@ -22854,9 +22868,9 @@
       <c r="J841" s="11"/>
       <c r="K841" s="20"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A842" s="39">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B842" s="20"/>
       <c r="C842" s="13"/>
@@ -22872,9 +22886,9 @@
       <c r="J842" s="11"/>
       <c r="K842" s="20"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A843" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B843" s="20"/>
       <c r="C843" s="13"/>
@@ -22890,9 +22904,9 @@
       <c r="J843" s="11"/>
       <c r="K843" s="20"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A844" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B844" s="20"/>
       <c r="C844" s="13"/>
@@ -22908,9 +22922,9 @@
       <c r="J844" s="11"/>
       <c r="K844" s="20"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A845" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B845" s="20"/>
       <c r="C845" s="13"/>
@@ -22926,9 +22940,9 @@
       <c r="J845" s="11"/>
       <c r="K845" s="20"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A846" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B846" s="20"/>
       <c r="C846" s="13"/>
@@ -22944,9 +22958,9 @@
       <c r="J846" s="11"/>
       <c r="K846" s="20"/>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A847" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B847" s="20"/>
       <c r="C847" s="13"/>
@@ -22962,9 +22976,9 @@
       <c r="J847" s="11"/>
       <c r="K847" s="20"/>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A848" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B848" s="20"/>
       <c r="C848" s="13"/>
@@ -22980,9 +22994,9 @@
       <c r="J848" s="11"/>
       <c r="K848" s="20"/>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A849" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B849" s="20"/>
       <c r="C849" s="13"/>
@@ -22998,9 +23012,9 @@
       <c r="J849" s="11"/>
       <c r="K849" s="20"/>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A850" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B850" s="20"/>
       <c r="C850" s="13"/>
@@ -23016,9 +23030,9 @@
       <c r="J850" s="11"/>
       <c r="K850" s="20"/>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A851" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B851" s="20"/>
       <c r="C851" s="13"/>
@@ -23034,9 +23048,9 @@
       <c r="J851" s="11"/>
       <c r="K851" s="20"/>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A852" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B852" s="20"/>
       <c r="C852" s="13"/>
@@ -23052,9 +23066,9 @@
       <c r="J852" s="11"/>
       <c r="K852" s="20"/>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A853" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B853" s="20"/>
       <c r="C853" s="13"/>
@@ -23070,9 +23084,9 @@
       <c r="J853" s="11"/>
       <c r="K853" s="20"/>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A854" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B854" s="20"/>
       <c r="C854" s="13"/>
@@ -23088,9 +23102,9 @@
       <c r="J854" s="11"/>
       <c r="K854" s="20"/>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A855" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B855" s="20"/>
       <c r="C855" s="13"/>
@@ -23106,9 +23120,9 @@
       <c r="J855" s="11"/>
       <c r="K855" s="20"/>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A856" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B856" s="20"/>
       <c r="C856" s="13"/>
@@ -23124,9 +23138,9 @@
       <c r="J856" s="11"/>
       <c r="K856" s="20"/>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A857" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B857" s="20"/>
       <c r="C857" s="13"/>
@@ -23142,9 +23156,9 @@
       <c r="J857" s="11"/>
       <c r="K857" s="20"/>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A858" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B858" s="20"/>
       <c r="C858" s="13"/>
@@ -23160,9 +23174,9 @@
       <c r="J858" s="11"/>
       <c r="K858" s="20"/>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A859" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B859" s="20"/>
       <c r="C859" s="13"/>
@@ -23178,9 +23192,9 @@
       <c r="J859" s="11"/>
       <c r="K859" s="20"/>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A860" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B860" s="20"/>
       <c r="C860" s="13"/>
@@ -23196,9 +23210,9 @@
       <c r="J860" s="11"/>
       <c r="K860" s="20"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A861" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B861" s="20"/>
       <c r="C861" s="13"/>
@@ -23214,9 +23228,9 @@
       <c r="J861" s="11"/>
       <c r="K861" s="20"/>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A862" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B862" s="20"/>
       <c r="C862" s="13"/>
@@ -23232,9 +23246,9 @@
       <c r="J862" s="11"/>
       <c r="K862" s="20"/>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A863" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B863" s="20"/>
       <c r="C863" s="13"/>
@@ -23250,9 +23264,9 @@
       <c r="J863" s="11"/>
       <c r="K863" s="20"/>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A864" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B864" s="20"/>
       <c r="C864" s="13"/>
@@ -23268,9 +23282,9 @@
       <c r="J864" s="11"/>
       <c r="K864" s="20"/>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A865" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B865" s="20"/>
       <c r="C865" s="13"/>
@@ -23286,9 +23300,9 @@
       <c r="J865" s="11"/>
       <c r="K865" s="20"/>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A866" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B866" s="20"/>
       <c r="C866" s="13"/>
@@ -23304,9 +23318,9 @@
       <c r="J866" s="11"/>
       <c r="K866" s="20"/>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A867" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B867" s="20"/>
       <c r="C867" s="13"/>
@@ -23322,9 +23336,9 @@
       <c r="J867" s="11"/>
       <c r="K867" s="20"/>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A868" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B868" s="20"/>
       <c r="C868" s="13"/>
@@ -23340,9 +23354,9 @@
       <c r="J868" s="11"/>
       <c r="K868" s="20"/>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A869" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B869" s="20"/>
       <c r="C869" s="13"/>
@@ -23358,9 +23372,9 @@
       <c r="J869" s="11"/>
       <c r="K869" s="20"/>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A870" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B870" s="20"/>
       <c r="C870" s="13"/>
@@ -23376,9 +23390,9 @@
       <c r="J870" s="11"/>
       <c r="K870" s="20"/>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A871" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B871" s="20"/>
       <c r="C871" s="13"/>
@@ -23394,9 +23408,9 @@
       <c r="J871" s="11"/>
       <c r="K871" s="20"/>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A872" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B872" s="20"/>
       <c r="C872" s="13"/>
@@ -23412,9 +23426,9 @@
       <c r="J872" s="11"/>
       <c r="K872" s="20"/>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A873" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B873" s="20"/>
       <c r="C873" s="13"/>
@@ -23430,9 +23444,9 @@
       <c r="J873" s="11"/>
       <c r="K873" s="20"/>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A874" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B874" s="20"/>
       <c r="C874" s="13"/>
@@ -23448,9 +23462,9 @@
       <c r="J874" s="11"/>
       <c r="K874" s="20"/>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A875" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B875" s="20"/>
       <c r="C875" s="13"/>
@@ -23466,9 +23480,9 @@
       <c r="J875" s="11"/>
       <c r="K875" s="20"/>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A876" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B876" s="20"/>
       <c r="C876" s="13"/>
@@ -23484,9 +23498,9 @@
       <c r="J876" s="11"/>
       <c r="K876" s="20"/>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A877" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B877" s="20"/>
       <c r="C877" s="13"/>
@@ -23502,9 +23516,9 @@
       <c r="J877" s="11"/>
       <c r="K877" s="20"/>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A878" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B878" s="20"/>
       <c r="C878" s="13"/>
@@ -23520,9 +23534,9 @@
       <c r="J878" s="11"/>
       <c r="K878" s="20"/>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A879" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B879" s="20"/>
       <c r="C879" s="13"/>
@@ -23538,9 +23552,9 @@
       <c r="J879" s="11"/>
       <c r="K879" s="20"/>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A880" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B880" s="20"/>
       <c r="C880" s="13"/>
@@ -23556,9 +23570,9 @@
       <c r="J880" s="11"/>
       <c r="K880" s="20"/>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A881" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B881" s="20"/>
       <c r="C881" s="13"/>
@@ -23574,9 +23588,9 @@
       <c r="J881" s="11"/>
       <c r="K881" s="20"/>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A882" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B882" s="20"/>
       <c r="C882" s="13"/>
@@ -23592,9 +23606,9 @@
       <c r="J882" s="11"/>
       <c r="K882" s="20"/>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A883" s="39">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B883" s="20"/>
       <c r="C883" s="13"/>
@@ -23610,9 +23624,9 @@
       <c r="J883" s="11"/>
       <c r="K883" s="20"/>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A884" s="39">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B884" s="20"/>
       <c r="C884" s="13"/>
@@ -23628,9 +23642,9 @@
       <c r="J884" s="11"/>
       <c r="K884" s="20"/>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A885" s="39">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B885" s="20"/>
       <c r="C885" s="13"/>
@@ -23646,9 +23660,9 @@
       <c r="J885" s="11"/>
       <c r="K885" s="20"/>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A886" s="39">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B886" s="20"/>
       <c r="C886" s="13"/>
@@ -23664,9 +23678,9 @@
       <c r="J886" s="11"/>
       <c r="K886" s="20"/>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A887" s="39">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B887" s="20"/>
       <c r="C887" s="13"/>
@@ -23682,9 +23696,9 @@
       <c r="J887" s="11"/>
       <c r="K887" s="20"/>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A888" s="39">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B888" s="20"/>
       <c r="C888" s="13"/>
@@ -23700,9 +23714,9 @@
       <c r="J888" s="11"/>
       <c r="K888" s="20"/>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A889" s="39">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B889" s="20"/>
       <c r="C889" s="13"/>
@@ -23718,15 +23732,14 @@
       <c r="J889" s="11"/>
       <c r="K889" s="20"/>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A890" s="39"/>
+    <row r="890" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A890" s="39">
+        <v>46722</v>
+      </c>
       <c r="B890" s="20"/>
       <c r="C890" s="13"/>
       <c r="D890" s="38"/>
-      <c r="E890" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.3920000000000528</v>
-      </c>
+      <c r="E890" s="9"/>
       <c r="F890" s="20"/>
       <c r="G890" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -23737,14 +23750,14 @@
       <c r="J890" s="11"/>
       <c r="K890" s="20"/>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A891" s="39"/>
       <c r="B891" s="20"/>
       <c r="C891" s="13"/>
       <c r="D891" s="38"/>
       <c r="E891" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.3920000000000528</v>
+        <v>5.6420000000000528</v>
       </c>
       <c r="F891" s="20"/>
       <c r="G891" s="13" t="str">
@@ -23756,14 +23769,14 @@
       <c r="J891" s="11"/>
       <c r="K891" s="20"/>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A892" s="39"/>
       <c r="B892" s="20"/>
       <c r="C892" s="13"/>
       <c r="D892" s="38"/>
       <c r="E892" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.3920000000000528</v>
+        <v>5.6420000000000528</v>
       </c>
       <c r="F892" s="20"/>
       <c r="G892" s="13" t="str">
@@ -23775,14 +23788,14 @@
       <c r="J892" s="11"/>
       <c r="K892" s="20"/>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A893" s="39"/>
       <c r="B893" s="20"/>
       <c r="C893" s="13"/>
       <c r="D893" s="38"/>
       <c r="E893" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.3920000000000528</v>
+        <v>5.6420000000000528</v>
       </c>
       <c r="F893" s="20"/>
       <c r="G893" s="13" t="str">
@@ -23794,14 +23807,14 @@
       <c r="J893" s="11"/>
       <c r="K893" s="20"/>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A894" s="39"/>
       <c r="B894" s="20"/>
       <c r="C894" s="13"/>
       <c r="D894" s="38"/>
       <c r="E894" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.3920000000000528</v>
+        <v>5.6420000000000528</v>
       </c>
       <c r="F894" s="20"/>
       <c r="G894" s="13" t="str">
@@ -23813,14 +23826,14 @@
       <c r="J894" s="11"/>
       <c r="K894" s="20"/>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A895" s="39"/>
       <c r="B895" s="20"/>
       <c r="C895" s="13"/>
       <c r="D895" s="38"/>
       <c r="E895" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.3920000000000528</v>
+        <v>5.6420000000000528</v>
       </c>
       <c r="F895" s="20"/>
       <c r="G895" s="13" t="str">
@@ -23831,6 +23844,25 @@
       <c r="I895" s="9"/>
       <c r="J895" s="11"/>
       <c r="K895" s="20"/>
+    </row>
+    <row r="896" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A896" s="39"/>
+      <c r="B896" s="20"/>
+      <c r="C896" s="13"/>
+      <c r="D896" s="38"/>
+      <c r="E896" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>5.6420000000000528</v>
+      </c>
+      <c r="F896" s="20"/>
+      <c r="G896" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H896" s="38"/>
+      <c r="I896" s="9"/>
+      <c r="J896" s="11"/>
+      <c r="K896" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -23847,10 +23879,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23873,28 +23905,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
@@ -23907,7 +23939,7 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -23936,7 +23968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -23958,17 +23990,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -23989,7 +24021,7 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -24016,7 +24048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -24042,7 +24074,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -24068,7 +24100,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -24094,7 +24126,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -24120,7 +24152,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -24146,7 +24178,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -24172,7 +24204,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -24198,7 +24230,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -24218,7 +24250,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -24238,7 +24270,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -24258,7 +24290,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -24279,7 +24311,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -24300,7 +24332,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -24321,7 +24353,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -24342,7 +24374,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -24363,7 +24395,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -24384,7 +24416,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -24405,7 +24437,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -24426,7 +24458,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -24447,7 +24479,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -24468,7 +24500,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -24489,7 +24521,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -24510,7 +24542,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -24531,7 +24563,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -24552,7 +24584,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -24573,7 +24605,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -24594,7 +24626,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -24615,7 +24647,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -24636,7 +24668,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -24657,7 +24689,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -24678,7 +24710,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -24687,7 +24719,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -24696,7 +24728,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -24705,7 +24737,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -24714,7 +24746,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -24723,7 +24755,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -24732,7 +24764,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -24741,7 +24773,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -24750,7 +24782,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -24759,7 +24791,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -24768,7 +24800,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -24777,7 +24809,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -24786,7 +24818,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -24795,7 +24827,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -24804,7 +24836,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -24813,7 +24845,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -24822,7 +24854,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -24831,7 +24863,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -24840,7 +24872,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -24849,7 +24881,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -24858,7 +24890,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -24867,7 +24899,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -24876,7 +24908,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -24885,7 +24917,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -24894,7 +24926,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -24903,7 +24935,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -24912,7 +24944,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -24921,7 +24953,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -24930,7 +24962,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -24939,7 +24971,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/PENALES, GUILLERMA.xlsx
+++ b/REGULAR/OJT/PENALES, GUILLERMA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55007EBA-096E-432E-B4AB-F5B15308A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="476">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1468,7 +1467,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2201,7 +2200,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2243,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2307,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2367,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2433,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2496,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2594,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2653,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2718,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2761,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,7 +2836,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3022,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3089,7 +3088,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3147,7 +3146,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3213,7 +3212,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3269,7 +3268,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,7 +3343,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3387,7 +3386,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3453,7 +3452,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3509,7 +3508,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3588,7 +3587,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3605,26 +3604,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K896" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K896" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K897" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K897"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3931,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3941,7 +3940,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3949,34 +3948,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K896"/>
+  <dimension ref="A2:K897"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A825" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A825" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="K837" sqref="K837"/>
+      <selection pane="bottomLeft" activeCell="I838" sqref="I838"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3999,7 +3998,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4017,7 +4016,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4039,7 +4038,7 @@
       <c r="J4" s="64"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4047,7 +4046,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4060,7 +4059,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -4077,7 +4076,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4131,12 +4130,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>89.25</v>
+        <v>88.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>72</v>
       </c>
@@ -4158,7 +4157,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>32295</v>
       </c>
@@ -4178,7 +4177,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>32325</v>
@@ -4199,7 +4198,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>32356</v>
@@ -4220,7 +4219,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A17" si="0">EDATE(A13,1)</f>
         <v>32387</v>
@@ -4241,7 +4240,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>32417</v>
@@ -4262,7 +4261,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>32448</v>
@@ -4283,7 +4282,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>32478</v>
@@ -4308,7 +4307,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>74</v>
       </c>
@@ -4326,7 +4325,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f>EDATE(A17,1)</f>
         <v>32509</v>
@@ -4347,7 +4346,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>EDATE(A19,1)</f>
         <v>32540</v>
@@ -4368,7 +4367,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" ref="A21:A30" si="1">EDATE(A20,1)</f>
         <v>32568</v>
@@ -4389,7 +4388,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="1"/>
         <v>32599</v>
@@ -4410,7 +4409,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="1"/>
         <v>32629</v>
@@ -4431,7 +4430,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="1"/>
         <v>32660</v>
@@ -4452,7 +4451,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="1"/>
         <v>32690</v>
@@ -4473,7 +4472,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="1"/>
         <v>32721</v>
@@ -4494,7 +4493,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f>EDATE(A26,1)</f>
         <v>32752</v>
@@ -4515,7 +4514,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>32782</v>
@@ -4536,7 +4535,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>32813</v>
@@ -4557,7 +4556,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="1"/>
         <v>32843</v>
@@ -4582,7 +4581,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>75</v>
       </c>
@@ -4600,7 +4599,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f>EDATE(A30,1)</f>
         <v>32874</v>
@@ -4621,7 +4620,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f>EDATE(A32,1)</f>
         <v>32905</v>
@@ -4642,7 +4641,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" ref="A34:A43" si="2">EDATE(A33,1)</f>
         <v>32933</v>
@@ -4663,7 +4662,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="2"/>
         <v>32964</v>
@@ -4684,7 +4683,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="2"/>
         <v>32994</v>
@@ -4705,7 +4704,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f t="shared" si="2"/>
         <v>33025</v>
@@ -4726,7 +4725,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="2"/>
         <v>33055</v>
@@ -4747,7 +4746,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="2"/>
         <v>33086</v>
@@ -4768,7 +4767,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="2"/>
         <v>33117</v>
@@ -4789,7 +4788,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>33147</v>
@@ -4810,7 +4809,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>33178</v>
@@ -4831,7 +4830,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="2"/>
         <v>33208</v>
@@ -4856,7 +4855,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>76</v>
       </c>
@@ -4874,7 +4873,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f>EDATE(A43,1)</f>
         <v>33239</v>
@@ -4895,7 +4894,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f>EDATE(A45,1)</f>
         <v>33270</v>
@@ -4916,7 +4915,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" ref="A47:A56" si="3">EDATE(A46,1)</f>
         <v>33298</v>
@@ -4937,7 +4936,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="3"/>
         <v>33329</v>
@@ -4958,7 +4957,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="3"/>
         <v>33359</v>
@@ -4979,7 +4978,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="3"/>
         <v>33390</v>
@@ -5000,7 +4999,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="3"/>
         <v>33420</v>
@@ -5021,7 +5020,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" si="3"/>
         <v>33451</v>
@@ -5042,7 +5041,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="3"/>
         <v>33482</v>
@@ -5063,7 +5062,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="3"/>
         <v>33512</v>
@@ -5084,7 +5083,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f>EDATE(A54,1)</f>
         <v>33543</v>
@@ -5105,7 +5104,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f t="shared" si="3"/>
         <v>33573</v>
@@ -5130,7 +5129,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
         <v>77</v>
       </c>
@@ -5148,7 +5147,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f>EDATE(A56,1)</f>
         <v>33604</v>
@@ -5169,7 +5168,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f>EDATE(A58,1)</f>
         <v>33635</v>
@@ -5190,7 +5189,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" ref="A60:A69" si="4">EDATE(A59,1)</f>
         <v>33664</v>
@@ -5211,7 +5210,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="4"/>
         <v>33695</v>
@@ -5232,7 +5231,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f t="shared" si="4"/>
         <v>33725</v>
@@ -5253,7 +5252,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="4"/>
         <v>33756</v>
@@ -5274,7 +5273,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="4"/>
         <v>33786</v>
@@ -5295,7 +5294,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" si="4"/>
         <v>33817</v>
@@ -5316,7 +5315,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="4"/>
         <v>33848</v>
@@ -5337,7 +5336,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="4"/>
         <v>33878</v>
@@ -5358,7 +5357,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f>EDATE(A67,1)</f>
         <v>33909</v>
@@ -5379,7 +5378,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="4"/>
         <v>33939</v>
@@ -5404,7 +5403,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
         <v>78</v>
       </c>
@@ -5422,7 +5421,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f>EDATE(A69,1)</f>
         <v>33970</v>
@@ -5443,7 +5442,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f>EDATE(A71,1)</f>
         <v>34001</v>
@@ -5464,7 +5463,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" ref="A73:A81" si="5">EDATE(A72,1)</f>
         <v>34029</v>
@@ -5485,7 +5484,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="5"/>
         <v>34060</v>
@@ -5506,7 +5505,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f t="shared" si="5"/>
         <v>34090</v>
@@ -5527,7 +5526,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" si="5"/>
         <v>34121</v>
@@ -5548,7 +5547,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" si="5"/>
         <v>34151</v>
@@ -5569,7 +5568,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="5"/>
         <v>34182</v>
@@ -5590,7 +5589,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="5"/>
         <v>34213</v>
@@ -5611,7 +5610,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="5"/>
         <v>34243</v>
@@ -5632,7 +5631,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="5"/>
         <v>34274</v>
@@ -5653,7 +5652,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f>EDATE(A81,1)</f>
         <v>34304</v>
@@ -5678,7 +5677,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
         <v>79</v>
       </c>
@@ -5696,7 +5695,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="50" t="s">
         <v>80</v>
       </c>
@@ -5718,7 +5717,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="52" t="s">
         <v>82</v>
       </c>
@@ -5740,7 +5739,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>34608</v>
       </c>
@@ -5764,7 +5763,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f>EDATE(A86,1)</f>
         <v>34639</v>
@@ -5789,7 +5788,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f>EDATE(A87,1)</f>
         <v>34669</v>
@@ -5814,7 +5813,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
         <v>86</v>
       </c>
@@ -5832,7 +5831,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f>EDATE(A88,1)</f>
         <v>34700</v>
@@ -5857,7 +5856,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>87</v>
@@ -5877,7 +5876,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>34731</v>
@@ -5902,7 +5901,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" ref="A93:A107" si="6">EDATE(A92,1)</f>
         <v>34759</v>
@@ -5927,7 +5926,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>53</v>
@@ -5947,7 +5946,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>34790</v>
@@ -5972,7 +5971,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="6"/>
         <v>34820</v>
@@ -5997,7 +5996,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>53</v>
@@ -6017,7 +6016,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f>EDATE(A96,1)</f>
         <v>34851</v>
@@ -6042,7 +6041,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>91</v>
@@ -6062,7 +6061,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>34881</v>
@@ -6087,7 +6086,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>54</v>
@@ -6107,7 +6106,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f>EDATE(A100,1)</f>
         <v>34912</v>
@@ -6132,7 +6131,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>54</v>
@@ -6152,7 +6151,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f>EDATE(A102,1)</f>
         <v>34943</v>
@@ -6177,7 +6176,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" si="6"/>
         <v>34973</v>
@@ -6202,7 +6201,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f>EDATE(A105,1)</f>
         <v>35004</v>
@@ -6223,7 +6222,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="6"/>
         <v>35034</v>
@@ -6246,7 +6245,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="45" t="s">
         <v>94</v>
       </c>
@@ -6264,7 +6263,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f>EDATE(A107,1)</f>
         <v>35065</v>
@@ -6285,7 +6284,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f>EDATE(A109,1)</f>
         <v>35096</v>
@@ -6310,7 +6309,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>95</v>
@@ -6330,7 +6329,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f>EDATE(A110,1)</f>
         <v>35125</v>
@@ -6351,7 +6350,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" ref="A113:A122" si="7">EDATE(A112,1)</f>
         <v>35156</v>
@@ -6372,7 +6371,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" si="7"/>
         <v>35186</v>
@@ -6397,7 +6396,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>53</v>
@@ -6417,7 +6416,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f>EDATE(A114,1)</f>
         <v>35217</v>
@@ -6442,7 +6441,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>96</v>
@@ -6462,7 +6461,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f>EDATE(A116,1)</f>
         <v>35247</v>
@@ -6483,7 +6482,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f t="shared" si="7"/>
         <v>35278</v>
@@ -6508,7 +6507,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>53</v>
@@ -6528,7 +6527,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f>EDATE(A119,1)</f>
         <v>35309</v>
@@ -6549,7 +6548,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f t="shared" si="7"/>
         <v>35339</v>
@@ -6574,7 +6573,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>85</v>
@@ -6594,7 +6593,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f>EDATE(A122,1)</f>
         <v>35370</v>
@@ -6619,7 +6618,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f>EDATE(A124,1)</f>
         <v>35400</v>
@@ -6644,7 +6643,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
         <v>98</v>
       </c>
@@ -6662,7 +6661,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <f>EDATE(A125,1)</f>
         <v>35431</v>
@@ -6683,7 +6682,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A127,1)</f>
         <v>35462</v>
@@ -6704,7 +6703,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" ref="A129:A140" si="8">EDATE(A128,1)</f>
         <v>35490</v>
@@ -6725,7 +6724,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" si="8"/>
         <v>35521</v>
@@ -6746,7 +6745,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f t="shared" si="8"/>
         <v>35551</v>
@@ -6767,7 +6766,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f t="shared" si="8"/>
         <v>35582</v>
@@ -6788,7 +6787,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f t="shared" si="8"/>
         <v>35612</v>
@@ -6815,7 +6814,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>53</v>
@@ -6837,7 +6836,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f>EDATE(A133,1)</f>
         <v>35643</v>
@@ -6864,7 +6863,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>53</v>
@@ -6886,7 +6885,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f>EDATE(A135,1)</f>
         <v>35674</v>
@@ -6913,7 +6912,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f>EDATE(A137,1)</f>
         <v>35704</v>
@@ -6940,7 +6939,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f t="shared" si="8"/>
         <v>35735</v>
@@ -6965,7 +6964,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <f t="shared" si="8"/>
         <v>35765</v>
@@ -6990,7 +6989,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="45" t="s">
         <v>101</v>
       </c>
@@ -7008,7 +7007,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EDATE(A140,1)</f>
         <v>35796</v>
@@ -7029,7 +7028,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f>EDATE(A142,1)</f>
         <v>35827</v>
@@ -7050,7 +7049,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f t="shared" ref="A144:A148" si="9">EDATE(A143,1)</f>
         <v>35855</v>
@@ -7071,7 +7070,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f t="shared" si="9"/>
         <v>35886</v>
@@ -7096,7 +7095,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <f t="shared" si="9"/>
         <v>35916</v>
@@ -7121,7 +7120,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f t="shared" si="9"/>
         <v>35947</v>
@@ -7146,7 +7145,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <f t="shared" si="9"/>
         <v>35977</v>
@@ -7173,7 +7172,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>103</v>
@@ -7193,7 +7192,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <f>EDATE(A148,1)</f>
         <v>36008</v>
@@ -7220,7 +7219,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>50</v>
@@ -7240,7 +7239,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>104</v>
@@ -7260,7 +7259,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f>EDATE(A150,1)</f>
         <v>36039</v>
@@ -7287,7 +7286,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>105</v>
@@ -7307,7 +7306,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>36069</v>
@@ -7334,7 +7333,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>53</v>
@@ -7354,7 +7353,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="53"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>106</v>
@@ -7374,7 +7373,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="53"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <f>EDATE(A155,1)</f>
         <v>36100</v>
@@ -7399,7 +7398,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A158,1)</f>
         <v>36130</v>
@@ -7420,7 +7419,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="45" t="s">
         <v>108</v>
       </c>
@@ -7438,7 +7437,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f>EDATE(A159,1)</f>
         <v>36161</v>
@@ -7465,7 +7464,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>109</v>
@@ -7485,7 +7484,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <f>EDATE(A161,1)</f>
         <v>36192</v>
@@ -7512,7 +7511,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>51</v>
@@ -7532,7 +7531,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>53</v>
@@ -7554,7 +7553,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>110</v>
@@ -7574,7 +7573,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <f>EDATE(A163,1)</f>
         <v>36220</v>
@@ -7599,7 +7598,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f t="shared" ref="A168" si="10">EDATE(A167,1)</f>
         <v>36251</v>
@@ -7624,7 +7623,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>53</v>
@@ -7646,7 +7645,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>112</v>
@@ -7666,7 +7665,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <f>EDATE(A168,1)</f>
         <v>36281</v>
@@ -7693,7 +7692,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>50</v>
@@ -7713,7 +7712,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>113</v>
@@ -7733,7 +7732,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <f>EDATE(A171,1)</f>
         <v>36312</v>
@@ -7760,7 +7759,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>50</v>
@@ -7780,7 +7779,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>114</v>
@@ -7800,7 +7799,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f>EDATE(A174,1)</f>
         <v>36342</v>
@@ -7827,7 +7826,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>53</v>
@@ -7849,7 +7848,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>116</v>
@@ -7869,7 +7868,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="53"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f>EDATE(A177,1)</f>
         <v>36373</v>
@@ -7896,7 +7895,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>117</v>
@@ -7916,7 +7915,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>50</v>
@@ -7936,7 +7935,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <f>EDATE(A180,1)</f>
         <v>36404</v>
@@ -7963,7 +7962,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>53</v>
@@ -7985,7 +7984,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>118</v>
@@ -8005,7 +8004,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f>EDATE(A183,1)</f>
         <v>36434</v>
@@ -8032,7 +8031,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>91</v>
@@ -8054,7 +8053,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>119</v>
@@ -8074,7 +8073,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f>EDATE(A186,1)</f>
         <v>36465</v>
@@ -8101,7 +8100,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>97</v>
@@ -8123,7 +8122,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>120</v>
@@ -8143,7 +8142,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f>EDATE(A189,1)</f>
         <v>36495</v>
@@ -8170,7 +8169,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8192,7 +8191,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>121</v>
@@ -8212,7 +8211,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="45" t="s">
         <v>122</v>
       </c>
@@ -8230,7 +8229,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f>EDATE(A192,1)</f>
         <v>36526</v>
@@ -8257,7 +8256,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>50</v>
@@ -8277,7 +8276,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>123</v>
@@ -8297,7 +8296,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>56</v>
@@ -8319,7 +8318,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f>EDATE(A196,1)</f>
         <v>36557</v>
@@ -8344,7 +8343,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f t="shared" ref="A201" si="11">EDATE(A200,1)</f>
         <v>36586</v>
@@ -8371,7 +8370,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>124</v>
@@ -8391,7 +8390,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <f>EDATE(A201,1)</f>
         <v>36617</v>
@@ -8418,7 +8417,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>50</v>
@@ -8438,7 +8437,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>125</v>
@@ -8458,7 +8457,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <f>EDATE(A203,1)</f>
         <v>36647</v>
@@ -8483,7 +8482,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <f>EDATE(A206,1)</f>
         <v>36678</v>
@@ -8508,7 +8507,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>127</v>
@@ -8528,7 +8527,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f>EDATE(A207,1)</f>
         <v>36708</v>
@@ -8555,7 +8554,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>128</v>
@@ -8575,7 +8574,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f>EDATE(A209,1)</f>
         <v>36739</v>
@@ -8602,7 +8601,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>91</v>
@@ -8624,7 +8623,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>123</v>
@@ -8644,7 +8643,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <f>EDATE(A211,1)</f>
         <v>36770</v>
@@ -8671,7 +8670,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>91</v>
@@ -8693,7 +8692,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>129</v>
@@ -8713,7 +8712,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f>EDATE(A214,1)</f>
         <v>36800</v>
@@ -8740,7 +8739,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>91</v>
@@ -8762,7 +8761,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>130</v>
@@ -8782,7 +8781,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f>EDATE(A217,1)</f>
         <v>36831</v>
@@ -8809,7 +8808,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>54</v>
@@ -8831,7 +8830,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>56</v>
@@ -8853,7 +8852,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>131</v>
@@ -8873,7 +8872,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <f>EDATE(A220,1)</f>
         <v>36861</v>
@@ -8900,7 +8899,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>92</v>
@@ -8922,7 +8921,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>132</v>
@@ -8942,7 +8941,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="s">
         <v>133</v>
       </c>
@@ -8960,7 +8959,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f>EDATE(A224,1)</f>
         <v>36892</v>
@@ -8985,7 +8984,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f>EDATE(A228,1)</f>
         <v>36923</v>
@@ -9012,7 +9011,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>53</v>
@@ -9034,7 +9033,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>134</v>
@@ -9054,7 +9053,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f>EDATE(A229,1)</f>
         <v>36951</v>
@@ -9079,7 +9078,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <f t="shared" ref="A233:A234" si="12">EDATE(A232,1)</f>
         <v>36982</v>
@@ -9104,7 +9103,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f t="shared" si="12"/>
         <v>37012</v>
@@ -9131,7 +9130,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>137</v>
@@ -9151,7 +9150,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>37043</v>
@@ -9178,7 +9177,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>50</v>
@@ -9198,7 +9197,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>50</v>
@@ -9218,7 +9217,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>138</v>
@@ -9238,7 +9237,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="53"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <f>EDATE(A236,1)</f>
         <v>37073</v>
@@ -9265,7 +9264,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>53</v>
@@ -9287,7 +9286,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>139</v>
@@ -9307,7 +9306,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f>EDATE(A240,1)</f>
         <v>37104</v>
@@ -9334,7 +9333,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>140</v>
@@ -9354,7 +9353,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>37135</v>
@@ -9381,7 +9380,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>115</v>
@@ -9403,7 +9402,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>141</v>
@@ -9423,7 +9422,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <f>EDATE(A245,1)</f>
         <v>37165</v>
@@ -9450,7 +9449,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>53</v>
@@ -9472,7 +9471,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>142</v>
@@ -9492,7 +9491,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f>EDATE(A248,1)</f>
         <v>37196</v>
@@ -9519,7 +9518,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>53</v>
@@ -9541,7 +9540,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>143</v>
@@ -9561,7 +9560,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>37226</v>
@@ -9586,7 +9585,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="45" t="s">
         <v>145</v>
       </c>
@@ -9604,7 +9603,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>37257</v>
@@ -9629,7 +9628,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f>EDATE(A256,1)</f>
         <v>37288</v>
@@ -9656,7 +9655,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>92</v>
@@ -9678,7 +9677,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>54</v>
@@ -9700,7 +9699,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>50</v>
@@ -9720,7 +9719,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>50</v>
@@ -9740,7 +9739,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>53</v>
@@ -9762,7 +9761,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>56</v>
@@ -9784,7 +9783,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>148</v>
@@ -9804,7 +9803,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="53"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f>EDATE(A257,1)</f>
         <v>37316</v>
@@ -9829,7 +9828,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f t="shared" ref="A266:A291" si="13">EDATE(A265,1)</f>
         <v>37347</v>
@@ -9856,7 +9855,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>149</v>
@@ -9876,7 +9875,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f>EDATE(A266,1)</f>
         <v>37377</v>
@@ -9903,7 +9902,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>56</v>
@@ -9925,7 +9924,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>53</v>
@@ -9947,7 +9946,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>53</v>
@@ -9969,7 +9968,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>56</v>
@@ -9991,7 +9990,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>150</v>
@@ -10011,7 +10010,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f>EDATE(A268,1)</f>
         <v>37408</v>
@@ -10036,7 +10035,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>56</v>
@@ -10058,7 +10057,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>151</v>
@@ -10078,7 +10077,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="53"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>53</v>
@@ -10100,7 +10099,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <f>EDATE(A274,1)</f>
         <v>37438</v>
@@ -10127,7 +10126,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>92</v>
@@ -10149,7 +10148,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>152</v>
@@ -10169,7 +10168,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <f>EDATE(A278,1)</f>
         <v>37469</v>
@@ -10196,7 +10195,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>153</v>
@@ -10216,7 +10215,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>53</v>
@@ -10238,7 +10237,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f>EDATE(A281,1)</f>
         <v>37500</v>
@@ -10265,7 +10264,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>92</v>
@@ -10287,7 +10286,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>56</v>
@@ -10309,7 +10308,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>154</v>
@@ -10329,7 +10328,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="53"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <f>EDATE(A284,1)</f>
         <v>37530</v>
@@ -10356,7 +10355,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>155</v>
@@ -10376,7 +10375,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <f>EDATE(A288,1)</f>
         <v>37561</v>
@@ -10401,7 +10400,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f t="shared" si="13"/>
         <v>37591</v>
@@ -10428,7 +10427,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>157</v>
@@ -10448,7 +10447,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="45" t="s">
         <v>158</v>
       </c>
@@ -10466,7 +10465,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f>EDATE(A291,1)</f>
         <v>37622</v>
@@ -10493,7 +10492,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>53</v>
@@ -10515,7 +10514,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>159</v>
@@ -10535,7 +10534,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f>EDATE(A294,1)</f>
         <v>37653</v>
@@ -10562,7 +10561,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>161</v>
@@ -10582,7 +10581,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <f>EDATE(A297,1)</f>
         <v>37681</v>
@@ -10607,7 +10606,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>163</v>
@@ -10627,7 +10626,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f>EDATE(A299,1)</f>
         <v>37712</v>
@@ -10654,7 +10653,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>53</v>
@@ -10676,7 +10675,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>164</v>
@@ -10696,7 +10695,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f>EDATE(A301,1)</f>
         <v>37742</v>
@@ -10723,7 +10722,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>50</v>
@@ -10743,7 +10742,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>165</v>
@@ -10763,7 +10762,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="53"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f>EDATE(A304,1)</f>
         <v>37773</v>
@@ -10790,7 +10789,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>166</v>
@@ -10810,7 +10809,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f>EDATE(A307,1)</f>
         <v>37803</v>
@@ -10837,7 +10836,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>50</v>
@@ -10857,7 +10856,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>167</v>
@@ -10877,7 +10876,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>92</v>
@@ -10899,7 +10898,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f>EDATE(A309,1)</f>
         <v>37834</v>
@@ -10920,7 +10919,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f t="shared" ref="A314:A318" si="14">EDATE(A313,1)</f>
         <v>37865</v>
@@ -10943,7 +10942,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>56</v>
@@ -10963,7 +10962,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>168</v>
@@ -10983,7 +10982,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f>EDATE(A314,1)</f>
         <v>37895</v>
@@ -11008,7 +11007,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <f t="shared" si="14"/>
         <v>37926</v>
@@ -11035,7 +11034,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>170</v>
@@ -11055,7 +11054,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="53"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <f>EDATE(A318,1)</f>
         <v>37956</v>
@@ -11082,7 +11081,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>53</v>
@@ -11104,7 +11103,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>171</v>
@@ -11124,7 +11123,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="45" t="s">
         <v>172</v>
       </c>
@@ -11142,7 +11141,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f>EDATE(A320,1)</f>
         <v>37987</v>
@@ -11167,7 +11166,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <f>EDATE(A324,1)</f>
         <v>38018</v>
@@ -11192,7 +11191,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>54</v>
@@ -11214,7 +11213,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <f>EDATE(A325,1)</f>
         <v>38047</v>
@@ -11241,7 +11240,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>50</v>
@@ -11261,7 +11260,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>175</v>
@@ -11281,7 +11280,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <f>EDATE(A327,1)</f>
         <v>38078</v>
@@ -11306,7 +11305,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>54</v>
@@ -11328,7 +11327,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>176</v>
@@ -11348,7 +11347,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <f>EDATE(A330,1)</f>
         <v>38108</v>
@@ -11375,7 +11374,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>50</v>
@@ -11395,7 +11394,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>177</v>
@@ -11415,7 +11414,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f>EDATE(A333,1)</f>
         <v>38139</v>
@@ -11442,7 +11441,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>51</v>
@@ -11464,7 +11463,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>53</v>
@@ -11486,7 +11485,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>56</v>
@@ -11508,7 +11507,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>127</v>
@@ -11528,7 +11527,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A336,1)</f>
         <v>38169</v>
@@ -11551,7 +11550,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>178</v>
@@ -11571,7 +11570,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>38200</v>
@@ -11598,7 +11597,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>92</v>
@@ -11620,7 +11619,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>119</v>
@@ -11640,7 +11639,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f>EDATE(A343,1)</f>
         <v>38231</v>
@@ -11667,7 +11666,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>53</v>
@@ -11689,7 +11688,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>179</v>
@@ -11709,7 +11708,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="53"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <f>EDATE(A346,1)</f>
         <v>38261</v>
@@ -11736,7 +11735,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>180</v>
@@ -11756,7 +11755,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="53"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f t="shared" ref="A351" si="15">EDATE(A349,1)</f>
         <v>38292</v>
@@ -11783,7 +11782,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>181</v>
@@ -11803,7 +11802,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <f>EDATE(A351,1)</f>
         <v>38322</v>
@@ -11830,7 +11829,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>53</v>
@@ -11852,7 +11851,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>182</v>
@@ -11872,7 +11871,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="45" t="s">
         <v>183</v>
       </c>
@@ -11890,7 +11889,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <f>EDATE(A353,1)</f>
         <v>38353</v>
@@ -11915,7 +11914,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>53</v>
@@ -11937,7 +11936,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>53</v>
@@ -11959,7 +11958,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>184</v>
@@ -11979,7 +11978,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <f>EDATE(A357,1)</f>
         <v>38384</v>
@@ -12006,7 +12005,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>185</v>
@@ -12026,7 +12025,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <f>EDATE(A361,1)</f>
         <v>38412</v>
@@ -12053,7 +12052,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>186</v>
@@ -12073,7 +12072,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>38443</v>
@@ -12098,7 +12097,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <f t="shared" ref="A366:A388" si="16">EDATE(A365,1)</f>
         <v>38473</v>
@@ -12125,7 +12124,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>68</v>
@@ -12147,7 +12146,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>56</v>
@@ -12169,7 +12168,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>188</v>
@@ -12189,7 +12188,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="53"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <f>EDATE(A366,1)</f>
         <v>38504</v>
@@ -12216,7 +12215,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>50</v>
@@ -12236,7 +12235,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>56</v>
@@ -12258,7 +12257,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>53</v>
@@ -12280,7 +12279,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>189</v>
@@ -12300,7 +12299,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <f>EDATE(A370,1)</f>
         <v>38534</v>
@@ -12327,7 +12326,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>53</v>
@@ -12349,7 +12348,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>53</v>
@@ -12371,7 +12370,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>190</v>
@@ -12391,7 +12390,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f>EDATE(A375,1)</f>
         <v>38565</v>
@@ -12416,7 +12415,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>53</v>
@@ -12434,7 +12433,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>191</v>
@@ -12454,7 +12453,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <f>EDATE(A379,1)</f>
         <v>38596</v>
@@ -12481,7 +12480,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>68</v>
@@ -12503,7 +12502,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>192</v>
@@ -12523,7 +12522,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <f>EDATE(A382,1)</f>
         <v>38626</v>
@@ -12548,7 +12547,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>194</v>
@@ -12568,7 +12567,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <f>EDATE(A385,1)</f>
         <v>38657</v>
@@ -12593,7 +12592,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <f t="shared" si="16"/>
         <v>38687</v>
@@ -12620,7 +12619,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>196</v>
@@ -12642,7 +12641,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="45" t="s">
         <v>197</v>
       </c>
@@ -12660,7 +12659,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>38718</v>
@@ -12687,7 +12686,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>50</v>
@@ -12707,7 +12706,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>198</v>
@@ -12727,7 +12726,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <f>EDATE(A391,1)</f>
         <v>38749</v>
@@ -12752,7 +12751,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <f t="shared" ref="A395:A411" si="17">EDATE(A394,1)</f>
         <v>38777</v>
@@ -12777,7 +12776,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>50</v>
@@ -12797,7 +12796,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>200</v>
@@ -12817,7 +12816,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <f>EDATE(A395,1)</f>
         <v>38808</v>
@@ -12842,7 +12841,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>68</v>
@@ -12864,7 +12863,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>202</v>
@@ -12886,7 +12885,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>54</v>
@@ -12908,7 +12907,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>68</v>
@@ -12930,7 +12929,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <f>EDATE(A398,1)</f>
         <v>38838</v>
@@ -12955,7 +12954,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <f t="shared" si="17"/>
         <v>38869</v>
@@ -12980,7 +12979,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <f t="shared" si="17"/>
         <v>38899</v>
@@ -13007,7 +13006,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>53</v>
@@ -13029,7 +13028,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>68</v>
@@ -13051,7 +13050,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>92</v>
@@ -13073,7 +13072,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>205</v>
@@ -13093,7 +13092,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <f>EDATE(A405,1)</f>
         <v>38930</v>
@@ -13118,7 +13117,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <f t="shared" si="17"/>
         <v>38961</v>
@@ -13145,7 +13144,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>207</v>
@@ -13165,7 +13164,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <f>EDATE(A411,1)</f>
         <v>38991</v>
@@ -13190,7 +13189,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <f>EDATE(A413,1)</f>
         <v>39022</v>
@@ -13217,7 +13216,7 @@
         <v>45260</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>209</v>
@@ -13237,7 +13236,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <f>EDATE(A414,1)</f>
         <v>39052</v>
@@ -13264,7 +13263,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>210</v>
@@ -13284,7 +13283,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="45" t="s">
         <v>211</v>
       </c>
@@ -13302,7 +13301,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <f>EDATE(A416,1)</f>
         <v>39083</v>
@@ -13329,7 +13328,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>68</v>
@@ -13351,7 +13350,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>50</v>
@@ -13371,7 +13370,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>212</v>
@@ -13391,7 +13390,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <f>EDATE(A419,1)</f>
         <v>39114</v>
@@ -13418,7 +13417,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>213</v>
@@ -13440,7 +13439,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>214</v>
@@ -13460,7 +13459,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <f>EDATE(A423,1)</f>
         <v>39142</v>
@@ -13485,7 +13484,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>68</v>
@@ -13507,7 +13506,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
         <v>53</v>
@@ -13529,7 +13528,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>215</v>
@@ -13549,7 +13548,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <f>EDATE(A426,1)</f>
         <v>39173</v>
@@ -13576,7 +13575,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>216</v>
@@ -13596,7 +13595,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="53"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <f>EDATE(A430,1)</f>
         <v>39203</v>
@@ -13623,7 +13622,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>53</v>
@@ -13645,7 +13644,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>50</v>
@@ -13665,7 +13664,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>217</v>
@@ -13685,7 +13684,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23">
         <f>EDATE(A432,1)</f>
         <v>39234</v>
@@ -13712,7 +13711,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
         <v>218</v>
@@ -13732,7 +13731,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <f>EDATE(A436,1)</f>
         <v>39264</v>
@@ -13759,7 +13758,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>219</v>
@@ -13779,7 +13778,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <f>EDATE(A438,1)</f>
         <v>39295</v>
@@ -13806,7 +13805,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23"/>
       <c r="B441" s="20" t="s">
         <v>220</v>
@@ -13826,7 +13825,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23">
         <f>EDATE(A440,1)</f>
         <v>39326</v>
@@ -13853,7 +13852,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>221</v>
@@ -13873,7 +13872,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <f>EDATE(A442,1)</f>
         <v>39356</v>
@@ -13898,7 +13897,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <f t="shared" ref="A445" si="18">EDATE(A444,1)</f>
         <v>39387</v>
@@ -13925,7 +13924,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>54</v>
@@ -13947,7 +13946,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>68</v>
@@ -13969,7 +13968,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>223</v>
@@ -13989,7 +13988,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <f>EDATE(A445,1)</f>
         <v>39417</v>
@@ -14014,7 +14013,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="45" t="s">
         <v>225</v>
       </c>
@@ -14032,7 +14031,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <f>EDATE(A449,1)</f>
         <v>39448</v>
@@ -14057,7 +14056,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>68</v>
@@ -14079,7 +14078,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>226</v>
@@ -14099,7 +14098,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <f>EDATE(A451,1)</f>
         <v>39479</v>
@@ -14126,7 +14125,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>53</v>
@@ -14148,7 +14147,7 @@
         <v>47150</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>227</v>
@@ -14168,7 +14167,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23">
         <f>EDATE(A454,1)</f>
         <v>39508</v>
@@ -14195,7 +14194,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>50</v>
@@ -14215,7 +14214,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23"/>
       <c r="B459" s="20" t="s">
         <v>228</v>
@@ -14235,7 +14234,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23">
         <f>EDATE(A457,1)</f>
         <v>39539</v>
@@ -14262,7 +14261,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>53</v>
@@ -14284,7 +14283,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23"/>
       <c r="B462" s="20" t="s">
         <v>229</v>
@@ -14304,7 +14303,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <f>EDATE(A460,1)</f>
         <v>39569</v>
@@ -14331,7 +14330,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23"/>
       <c r="B464" s="20" t="s">
         <v>85</v>
@@ -14353,7 +14352,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
         <v>230</v>
@@ -14373,7 +14372,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f>EDATE(A463,1)</f>
         <v>39600</v>
@@ -14400,7 +14399,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>53</v>
@@ -14422,7 +14421,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>50</v>
@@ -14442,7 +14441,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <f>EDATE(A466,1)</f>
         <v>39630</v>
@@ -14469,7 +14468,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23"/>
       <c r="B470" s="20" t="s">
         <v>231</v>
@@ -14489,7 +14488,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="53"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <f>EDATE(A469,1)</f>
         <v>39661</v>
@@ -14514,7 +14513,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23"/>
       <c r="B472" s="20" t="s">
         <v>232</v>
@@ -14534,7 +14533,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <f>EDATE(A471,1)</f>
         <v>39692</v>
@@ -14561,7 +14560,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23"/>
       <c r="B474" s="20" t="s">
         <v>233</v>
@@ -14581,7 +14580,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23">
         <f>EDATE(A473,1)</f>
         <v>39722</v>
@@ -14608,7 +14607,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23"/>
       <c r="B476" s="20" t="s">
         <v>68</v>
@@ -14630,7 +14629,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>234</v>
@@ -14650,7 +14649,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23">
         <f t="shared" ref="A478" si="19">EDATE(A475,1)</f>
         <v>39753</v>
@@ -14675,7 +14674,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <f>EDATE(A478,1)</f>
         <v>39783</v>
@@ -14702,7 +14701,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>236</v>
@@ -14722,7 +14721,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="45" t="s">
         <v>237</v>
       </c>
@@ -14740,7 +14739,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23">
         <f>EDATE(A479,1)</f>
         <v>39814</v>
@@ -14767,7 +14766,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>238</v>
@@ -14787,7 +14786,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <f>EDATE(A482,1)</f>
         <v>39845</v>
@@ -14814,7 +14813,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23"/>
       <c r="B485" s="20" t="s">
         <v>53</v>
@@ -14836,7 +14835,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23"/>
       <c r="B486" s="20" t="s">
         <v>213</v>
@@ -14858,7 +14857,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>50</v>
@@ -14878,7 +14877,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>239</v>
@@ -14898,7 +14897,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <f>EDATE(A484,1)</f>
         <v>39873</v>
@@ -14923,7 +14922,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <f t="shared" ref="A490:A501" si="20">EDATE(A489,1)</f>
         <v>39904</v>
@@ -14948,7 +14947,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23">
         <f t="shared" si="20"/>
         <v>39934</v>
@@ -14975,7 +14974,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23"/>
       <c r="B492" s="20" t="s">
         <v>53</v>
@@ -14997,7 +14996,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23"/>
       <c r="B493" s="20" t="s">
         <v>242</v>
@@ -15017,7 +15016,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23">
         <f>EDATE(A491,1)</f>
         <v>39965</v>
@@ -15044,7 +15043,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>243</v>
@@ -15064,7 +15063,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23">
         <f>EDATE(A494,1)</f>
         <v>39995</v>
@@ -15089,7 +15088,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
         <v>53</v>
@@ -15111,7 +15110,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23">
         <f>EDATE(A496,1)</f>
         <v>40026</v>
@@ -15138,7 +15137,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23"/>
       <c r="B499" s="20" t="s">
         <v>245</v>
@@ -15158,7 +15157,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23">
         <f>EDATE(A498,1)</f>
         <v>40057</v>
@@ -15183,7 +15182,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23">
         <f t="shared" si="20"/>
         <v>40087</v>
@@ -15210,7 +15209,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>50</v>
@@ -15230,7 +15229,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23"/>
       <c r="B503" s="20" t="s">
         <v>247</v>
@@ -15250,7 +15249,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23">
         <f>EDATE(A501,1)</f>
         <v>40118</v>
@@ -15277,7 +15276,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="23"/>
       <c r="B505" s="20" t="s">
         <v>248</v>
@@ -15297,7 +15296,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="23">
         <f>EDATE(A504,1)</f>
         <v>40148</v>
@@ -15322,7 +15321,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23"/>
       <c r="B507" s="20" t="s">
         <v>249</v>
@@ -15342,7 +15341,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23"/>
       <c r="B508" s="20" t="s">
         <v>53</v>
@@ -15364,7 +15363,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="45" t="s">
         <v>250</v>
       </c>
@@ -15382,7 +15381,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23">
         <f>EDATE(A506,1)</f>
         <v>40179</v>
@@ -15409,7 +15408,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23"/>
       <c r="B511" s="20" t="s">
         <v>50</v>
@@ -15429,7 +15428,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>53</v>
@@ -15451,7 +15450,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="23"/>
       <c r="B513" s="20" t="s">
         <v>251</v>
@@ -15471,7 +15470,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="23">
         <f>EDATE(A510,1)</f>
         <v>40210</v>
@@ -15496,7 +15495,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23"/>
       <c r="B515" s="20" t="s">
         <v>53</v>
@@ -15518,7 +15517,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>53</v>
@@ -15540,7 +15539,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23"/>
       <c r="B517" s="20" t="s">
         <v>54</v>
@@ -15562,7 +15561,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23"/>
       <c r="B518" s="20" t="s">
         <v>252</v>
@@ -15582,7 +15581,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="23">
         <f>EDATE(A514,1)</f>
         <v>40238</v>
@@ -15609,7 +15608,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="23"/>
       <c r="B520" s="20" t="s">
         <v>53</v>
@@ -15631,7 +15630,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="23"/>
       <c r="B521" s="20" t="s">
         <v>127</v>
@@ -15651,7 +15650,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="23">
         <f>EDATE(A519,1)</f>
         <v>40269</v>
@@ -15678,7 +15677,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="23"/>
       <c r="B523" s="20" t="s">
         <v>53</v>
@@ -15700,7 +15699,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="23"/>
       <c r="B524" s="20" t="s">
         <v>253</v>
@@ -15720,7 +15719,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="23">
         <f>EDATE(A522,1)</f>
         <v>40299</v>
@@ -15747,7 +15746,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="23"/>
       <c r="B526" s="20" t="s">
         <v>53</v>
@@ -15769,7 +15768,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="23"/>
       <c r="B527" s="20" t="s">
         <v>53</v>
@@ -15791,7 +15790,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="23"/>
       <c r="B528" s="20" t="s">
         <v>53</v>
@@ -15813,7 +15812,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="23"/>
       <c r="B529" s="20" t="s">
         <v>254</v>
@@ -15833,7 +15832,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="23">
         <f>EDATE(A525,1)</f>
         <v>40330</v>
@@ -15860,7 +15859,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="23"/>
       <c r="B531" s="20" t="s">
         <v>256</v>
@@ -15880,7 +15879,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23">
         <f>EDATE(A530,1)</f>
         <v>40360</v>
@@ -15907,7 +15906,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="23"/>
       <c r="B533" s="20" t="s">
         <v>53</v>
@@ -15929,7 +15928,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
         <v>50</v>
@@ -15949,7 +15948,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="23"/>
       <c r="B535" s="20" t="s">
         <v>257</v>
@@ -15969,7 +15968,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="23">
         <f>EDATE(A532,1)</f>
         <v>40391</v>
@@ -15996,7 +15995,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="23"/>
       <c r="B537" s="20" t="s">
         <v>54</v>
@@ -16018,7 +16017,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="23"/>
       <c r="B538" s="20" t="s">
         <v>258</v>
@@ -16038,7 +16037,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="23"/>
       <c r="B539" s="20" t="s">
         <v>92</v>
@@ -16058,7 +16057,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="23">
         <f>EDATE(A536,1)</f>
         <v>40422</v>
@@ -16085,7 +16084,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="23"/>
       <c r="B541" s="20" t="s">
         <v>56</v>
@@ -16107,7 +16106,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="23"/>
       <c r="B542" s="20" t="s">
         <v>259</v>
@@ -16127,7 +16126,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="23">
         <f>EDATE(A540,1)</f>
         <v>40452</v>
@@ -16154,7 +16153,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="23"/>
       <c r="B544" s="20" t="s">
         <v>260</v>
@@ -16174,7 +16173,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="23">
         <f>EDATE(A543,1)</f>
         <v>40483</v>
@@ -16201,7 +16200,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="23"/>
       <c r="B546" s="20" t="s">
         <v>261</v>
@@ -16221,7 +16220,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="23"/>
       <c r="B547" s="20" t="s">
         <v>53</v>
@@ -16243,7 +16242,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="23">
         <f t="shared" ref="A548" si="21">EDATE(A545,1)</f>
         <v>40513</v>
@@ -16268,7 +16267,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="45" t="s">
         <v>262</v>
       </c>
@@ -16286,7 +16285,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="23">
         <f>EDATE(A548,1)</f>
         <v>40544</v>
@@ -16311,7 +16310,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="23"/>
       <c r="B551" s="20" t="s">
         <v>54</v>
@@ -16333,7 +16332,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="23"/>
       <c r="B552" s="20" t="s">
         <v>263</v>
@@ -16353,7 +16352,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="23">
         <f>EDATE(A550,1)</f>
         <v>40575</v>
@@ -16380,7 +16379,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="23"/>
       <c r="B554" s="20" t="s">
         <v>92</v>
@@ -16402,7 +16401,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="23"/>
       <c r="B555" s="20" t="s">
         <v>264</v>
@@ -16422,7 +16421,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="23">
         <f>EDATE(A553,1)</f>
         <v>40603</v>
@@ -16449,7 +16448,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="23"/>
       <c r="B557" s="20" t="s">
         <v>50</v>
@@ -16469,7 +16468,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="23"/>
       <c r="B558" s="20" t="s">
         <v>53</v>
@@ -16491,7 +16490,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="23"/>
       <c r="B559" s="20" t="s">
         <v>265</v>
@@ -16511,7 +16510,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="23">
         <f>EDATE(A556,1)</f>
         <v>40634</v>
@@ -16536,7 +16535,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="23">
         <f t="shared" ref="A561:A566" si="22">EDATE(A560,1)</f>
         <v>40664</v>
@@ -16561,7 +16560,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="23">
         <f t="shared" si="22"/>
         <v>40695</v>
@@ -16588,7 +16587,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="23"/>
       <c r="B563" s="20" t="s">
         <v>50</v>
@@ -16608,7 +16607,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="23"/>
       <c r="B564" s="20" t="s">
         <v>268</v>
@@ -16628,7 +16627,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="23">
         <f>EDATE(A562,1)</f>
         <v>40725</v>
@@ -16653,7 +16652,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="23">
         <f t="shared" si="22"/>
         <v>40756</v>
@@ -16680,7 +16679,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="23"/>
       <c r="B567" s="20" t="s">
         <v>53</v>
@@ -16702,7 +16701,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="23"/>
       <c r="B568" s="20" t="s">
         <v>270</v>
@@ -16722,7 +16721,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="23">
         <f>EDATE(A566,1)</f>
         <v>40787</v>
@@ -16749,7 +16748,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="23"/>
       <c r="B570" s="20" t="s">
         <v>53</v>
@@ -16771,7 +16770,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="23"/>
       <c r="B571" s="20" t="s">
         <v>271</v>
@@ -16791,7 +16790,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="23">
         <f>EDATE(A569,1)</f>
         <v>40817</v>
@@ -16818,7 +16817,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="23"/>
       <c r="B573" s="20" t="s">
         <v>54</v>
@@ -16840,7 +16839,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="23"/>
       <c r="B574" s="20" t="s">
         <v>53</v>
@@ -16862,7 +16861,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="23"/>
       <c r="B575" s="20" t="s">
         <v>272</v>
@@ -16882,7 +16881,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="23">
         <f>EDATE(A572,1)</f>
         <v>40848</v>
@@ -16909,7 +16908,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="23"/>
       <c r="B577" s="20" t="s">
         <v>273</v>
@@ -16929,7 +16928,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="23">
         <f>EDATE(A576,1)</f>
         <v>40878</v>
@@ -16956,7 +16955,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="23"/>
       <c r="B579" s="20" t="s">
         <v>274</v>
@@ -16976,7 +16975,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="45" t="s">
         <v>275</v>
       </c>
@@ -16994,7 +16993,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="23">
         <f>EDATE(A578,1)</f>
         <v>40909</v>
@@ -17019,7 +17018,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="23"/>
       <c r="B582" s="20" t="s">
         <v>53</v>
@@ -17041,7 +17040,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="23"/>
       <c r="B583" s="20" t="s">
         <v>276</v>
@@ -17061,7 +17060,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="23">
         <f>EDATE(A581,1)</f>
         <v>40940</v>
@@ -17088,7 +17087,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="23"/>
       <c r="B585" s="20" t="s">
         <v>54</v>
@@ -17110,7 +17109,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="23"/>
       <c r="B586" s="20" t="s">
         <v>56</v>
@@ -17132,7 +17131,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="23"/>
       <c r="B587" s="20" t="s">
         <v>277</v>
@@ -17152,7 +17151,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="23">
         <f>EDATE(A584,1)</f>
         <v>40969</v>
@@ -17179,7 +17178,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="23"/>
       <c r="B589" s="20" t="s">
         <v>278</v>
@@ -17199,7 +17198,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="23">
         <f>EDATE(A588,1)</f>
         <v>41000</v>
@@ -17226,7 +17225,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="23"/>
       <c r="B591" s="20" t="s">
         <v>50</v>
@@ -17246,7 +17245,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="23"/>
       <c r="B592" s="20" t="s">
         <v>53</v>
@@ -17268,7 +17267,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="23"/>
       <c r="B593" s="20" t="s">
         <v>279</v>
@@ -17288,7 +17287,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="53"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="23">
         <f>EDATE(A590,1)</f>
         <v>41030</v>
@@ -17315,7 +17314,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="23"/>
       <c r="B595" s="20" t="s">
         <v>54</v>
@@ -17337,7 +17336,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="23"/>
       <c r="B596" s="20" t="s">
         <v>53</v>
@@ -17359,7 +17358,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="23"/>
       <c r="B597" s="20" t="s">
         <v>280</v>
@@ -17379,7 +17378,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="23">
         <f>EDATE(A594,1)</f>
         <v>41061</v>
@@ -17404,7 +17403,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="23">
         <f t="shared" ref="A599:A601" si="23">EDATE(A598,1)</f>
         <v>41091</v>
@@ -17429,7 +17428,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="23">
         <f t="shared" si="23"/>
         <v>41122</v>
@@ -17454,7 +17453,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="23">
         <f t="shared" si="23"/>
         <v>41153</v>
@@ -17481,7 +17480,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="23"/>
       <c r="B602" s="20" t="s">
         <v>92</v>
@@ -17503,7 +17502,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="23"/>
       <c r="B603" s="20" t="s">
         <v>283</v>
@@ -17523,7 +17522,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="23">
         <f>EDATE(A601,1)</f>
         <v>41183</v>
@@ -17550,7 +17549,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="23"/>
       <c r="B605" s="20" t="s">
         <v>284</v>
@@ -17570,7 +17569,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="23">
         <f>EDATE(A604,1)</f>
         <v>41214</v>
@@ -17597,7 +17596,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="23"/>
       <c r="B607" s="20" t="s">
         <v>285</v>
@@ -17617,7 +17616,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="23">
         <f>EDATE(A606,1)</f>
         <v>41244</v>
@@ -17642,7 +17641,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="23"/>
       <c r="B609" s="20" t="s">
         <v>286</v>
@@ -17662,7 +17661,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="45" t="s">
         <v>287</v>
       </c>
@@ -17680,7 +17679,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="23">
         <f>EDATE(A608,1)</f>
         <v>41275</v>
@@ -17707,7 +17706,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="23"/>
       <c r="B612" s="20" t="s">
         <v>288</v>
@@ -17727,7 +17726,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="53"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="23">
         <f>EDATE(A611,1)</f>
         <v>41306</v>
@@ -17752,7 +17751,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="23"/>
       <c r="B614" s="20" t="s">
         <v>53</v>
@@ -17774,7 +17773,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="23"/>
       <c r="B615" s="20" t="s">
         <v>289</v>
@@ -17794,7 +17793,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="53"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="23">
         <f>EDATE(A613,1)</f>
         <v>41334</v>
@@ -17819,7 +17818,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="23">
         <f t="shared" ref="A617:A631" si="24">EDATE(A616,1)</f>
         <v>41365</v>
@@ -17844,7 +17843,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="23"/>
       <c r="B618" s="20" t="s">
         <v>54</v>
@@ -17866,7 +17865,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="23"/>
       <c r="B619" s="20" t="s">
         <v>53</v>
@@ -17888,7 +17887,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="23"/>
       <c r="B620" s="20" t="s">
         <v>291</v>
@@ -17908,7 +17907,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="23">
         <f>EDATE(A617,1)</f>
         <v>41395</v>
@@ -17935,7 +17934,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="23"/>
       <c r="B622" s="20" t="s">
         <v>292</v>
@@ -17955,7 +17954,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="23">
         <f>EDATE(A621,1)</f>
         <v>41426</v>
@@ -17982,7 +17981,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="23"/>
       <c r="B624" s="20" t="s">
         <v>293</v>
@@ -18002,7 +18001,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="23">
         <f>EDATE(A623,1)</f>
         <v>41456</v>
@@ -18029,7 +18028,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="23"/>
       <c r="B626" s="20" t="s">
         <v>87</v>
@@ -18051,7 +18050,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="23"/>
       <c r="B627" s="20" t="s">
         <v>294</v>
@@ -18071,7 +18070,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="23">
         <f>EDATE(A625,1)</f>
         <v>41487</v>
@@ -18098,7 +18097,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="23"/>
       <c r="B629" s="20" t="s">
         <v>295</v>
@@ -18118,7 +18117,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="23">
         <f>EDATE(A628,1)</f>
         <v>41518</v>
@@ -18143,7 +18142,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="23">
         <f t="shared" si="24"/>
         <v>41548</v>
@@ -18170,7 +18169,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="23"/>
       <c r="B632" s="20" t="s">
         <v>185</v>
@@ -18190,7 +18189,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="23">
         <f>EDATE(A631,1)</f>
         <v>41579</v>
@@ -18217,7 +18216,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="23"/>
       <c r="B634" s="20" t="s">
         <v>50</v>
@@ -18237,7 +18236,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="23"/>
       <c r="B635" s="20" t="s">
         <v>87</v>
@@ -18259,7 +18258,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="23"/>
       <c r="B636" s="20" t="s">
         <v>116</v>
@@ -18279,7 +18278,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="23">
         <f>EDATE(A633,1)</f>
         <v>41609</v>
@@ -18306,7 +18305,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="23"/>
       <c r="B638" s="20" t="s">
         <v>53</v>
@@ -18328,7 +18327,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="23"/>
       <c r="B639" s="20" t="s">
         <v>297</v>
@@ -18348,7 +18347,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="23"/>
       <c r="B640" s="20" t="s">
         <v>298</v>
@@ -18368,7 +18367,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="45" t="s">
         <v>299</v>
       </c>
@@ -18386,7 +18385,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="23">
         <f>EDATE(A637,1)</f>
         <v>41640</v>
@@ -18413,7 +18412,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="23"/>
       <c r="B643" s="20" t="s">
         <v>202</v>
@@ -18435,7 +18434,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="23"/>
       <c r="B644" s="20" t="s">
         <v>300</v>
@@ -18455,7 +18454,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="23">
         <f>EDATE(A642,1)</f>
         <v>41671</v>
@@ -18480,7 +18479,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="23">
         <f t="shared" ref="A646:A663" si="25">EDATE(A645,1)</f>
         <v>41699</v>
@@ -18501,7 +18500,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="23">
         <f t="shared" si="25"/>
         <v>41730</v>
@@ -18526,7 +18525,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="23"/>
       <c r="B648" s="20" t="s">
         <v>302</v>
@@ -18548,7 +18547,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="23">
         <f>EDATE(A647,1)</f>
         <v>41760</v>
@@ -18575,7 +18574,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="23"/>
       <c r="B650" s="20" t="s">
         <v>303</v>
@@ -18595,7 +18594,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="23">
         <f>EDATE(A649,1)</f>
         <v>41791</v>
@@ -18622,7 +18621,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="23"/>
       <c r="B652" s="20" t="s">
         <v>53</v>
@@ -18644,7 +18643,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="23"/>
       <c r="B653" s="20" t="s">
         <v>53</v>
@@ -18666,7 +18665,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="23"/>
       <c r="B654" s="20" t="s">
         <v>304</v>
@@ -18686,7 +18685,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="23">
         <f>EDATE(A651,1)</f>
         <v>41821</v>
@@ -18713,7 +18712,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="23"/>
       <c r="B656" s="20" t="s">
         <v>50</v>
@@ -18733,7 +18732,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="23"/>
       <c r="B657" s="20" t="s">
         <v>92</v>
@@ -18755,7 +18754,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="23"/>
       <c r="B658" s="20" t="s">
         <v>305</v>
@@ -18775,7 +18774,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="23">
         <f>EDATE(A655,1)</f>
         <v>41852</v>
@@ -18802,7 +18801,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="23"/>
       <c r="B660" s="20" t="s">
         <v>53</v>
@@ -18824,7 +18823,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="23"/>
       <c r="B661" s="20" t="s">
         <v>306</v>
@@ -18844,7 +18843,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="23">
         <f>EDATE(A659,1)</f>
         <v>41883</v>
@@ -18869,7 +18868,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="23">
         <f t="shared" si="25"/>
         <v>41913</v>
@@ -18896,7 +18895,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="23"/>
       <c r="B664" s="20" t="s">
         <v>308</v>
@@ -18916,7 +18915,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="23">
         <f>EDATE(A663,1)</f>
         <v>41944</v>
@@ -18943,7 +18942,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="23"/>
       <c r="B666" s="20" t="s">
         <v>54</v>
@@ -18965,7 +18964,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="23"/>
       <c r="B667" s="20" t="s">
         <v>310</v>
@@ -18985,7 +18984,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="23">
         <f>EDATE(A665,1)</f>
         <v>41974</v>
@@ -19012,7 +19011,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="23"/>
       <c r="B669" s="20" t="s">
         <v>311</v>
@@ -19032,7 +19031,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="45" t="s">
         <v>312</v>
       </c>
@@ -19050,7 +19049,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="23">
         <f>EDATE(A668,1)</f>
         <v>42005</v>
@@ -19077,7 +19076,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="23"/>
       <c r="B672" s="20" t="s">
         <v>50</v>
@@ -19097,7 +19096,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="23"/>
       <c r="B673" s="20" t="s">
         <v>313</v>
@@ -19117,7 +19116,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="23">
         <f>EDATE(A671,1)</f>
         <v>42036</v>
@@ -19144,7 +19143,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="23"/>
       <c r="B675" s="20" t="s">
         <v>314</v>
@@ -19164,7 +19163,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="23">
         <f>EDATE(A674,1)</f>
         <v>42064</v>
@@ -19185,7 +19184,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="23">
         <f t="shared" ref="A677:A692" si="26">EDATE(A676,1)</f>
         <v>42095</v>
@@ -19212,7 +19211,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="23"/>
       <c r="B678" s="20" t="s">
         <v>50</v>
@@ -19232,7 +19231,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="23"/>
       <c r="B679" s="20" t="s">
         <v>315</v>
@@ -19252,7 +19251,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="23">
         <f>EDATE(A677,1)</f>
         <v>42125</v>
@@ -19279,7 +19278,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="23"/>
       <c r="B681" s="20" t="s">
         <v>68</v>
@@ -19301,7 +19300,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="23"/>
       <c r="B682" s="20" t="s">
         <v>316</v>
@@ -19321,7 +19320,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="23">
         <f>EDATE(A680,1)</f>
         <v>42156</v>
@@ -19348,7 +19347,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="23"/>
       <c r="B684" s="20" t="s">
         <v>317</v>
@@ -19368,7 +19367,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="23">
         <f>EDATE(A683,1)</f>
         <v>42186</v>
@@ -19395,7 +19394,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="23"/>
       <c r="B686" s="20" t="s">
         <v>53</v>
@@ -19417,7 +19416,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="23"/>
       <c r="B687" s="20" t="s">
         <v>53</v>
@@ -19439,7 +19438,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="23"/>
       <c r="B688" s="20" t="s">
         <v>318</v>
@@ -19459,7 +19458,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="23">
         <f>EDATE(A685,1)</f>
         <v>42217</v>
@@ -19486,7 +19485,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="23"/>
       <c r="B690" s="20" t="s">
         <v>319</v>
@@ -19506,7 +19505,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="23">
         <f>EDATE(A689,1)</f>
         <v>42248</v>
@@ -19531,7 +19530,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="23">
         <f t="shared" si="26"/>
         <v>42278</v>
@@ -19558,7 +19557,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="23"/>
       <c r="B693" s="20" t="s">
         <v>50</v>
@@ -19578,7 +19577,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="23"/>
       <c r="B694" s="20" t="s">
         <v>53</v>
@@ -19598,7 +19597,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="23"/>
       <c r="B695" s="20" t="s">
         <v>321</v>
@@ -19618,7 +19617,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="23">
         <f>EDATE(A692,1)</f>
         <v>42309</v>
@@ -19643,7 +19642,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="23"/>
       <c r="B697" s="20" t="s">
         <v>53</v>
@@ -19665,7 +19664,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="23">
         <f>EDATE(A696,1)</f>
         <v>42339</v>
@@ -19692,7 +19691,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="23"/>
       <c r="B699" s="20" t="s">
         <v>323</v>
@@ -19712,7 +19711,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="45" t="s">
         <v>324</v>
       </c>
@@ -19730,7 +19729,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="23">
         <f>EDATE(A698,1)</f>
         <v>42370</v>
@@ -19757,7 +19756,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="23"/>
       <c r="B702" s="20" t="s">
         <v>50</v>
@@ -19777,7 +19776,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="23"/>
       <c r="B703" s="20" t="s">
         <v>223</v>
@@ -19797,7 +19796,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="23">
         <f>EDATE(A701,1)</f>
         <v>42401</v>
@@ -19824,7 +19823,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="23"/>
       <c r="B705" s="20" t="s">
         <v>50</v>
@@ -19844,7 +19843,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="23"/>
       <c r="B706" s="20" t="s">
         <v>53</v>
@@ -19866,7 +19865,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="23"/>
       <c r="B707" s="20" t="s">
         <v>325</v>
@@ -19886,7 +19885,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="23">
         <f>EDATE(A704,1)</f>
         <v>42430</v>
@@ -19911,7 +19910,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="23">
         <f t="shared" ref="A709:A717" si="27">EDATE(A708,1)</f>
         <v>42461</v>
@@ -19938,7 +19937,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="23"/>
       <c r="B710" s="20" t="s">
         <v>327</v>
@@ -19958,7 +19957,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="23">
         <f>EDATE(A709,1)</f>
         <v>42491</v>
@@ -19983,7 +19982,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="23">
         <f t="shared" si="27"/>
         <v>42522</v>
@@ -20010,7 +20009,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="23"/>
       <c r="B713" s="20" t="s">
         <v>329</v>
@@ -20030,7 +20029,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="53"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="23">
         <f>EDATE(A712,1)</f>
         <v>42552</v>
@@ -20055,7 +20054,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="23">
         <f t="shared" si="27"/>
         <v>42583</v>
@@ -20080,7 +20079,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="23">
         <f t="shared" si="27"/>
         <v>42614</v>
@@ -20105,7 +20104,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="23">
         <f t="shared" si="27"/>
         <v>42644</v>
@@ -20132,7 +20131,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="23"/>
       <c r="B718" s="20" t="s">
         <v>53</v>
@@ -20154,7 +20153,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="23"/>
       <c r="B719" s="20" t="s">
         <v>332</v>
@@ -20174,7 +20173,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="23">
         <f>EDATE(A717,1)</f>
         <v>42675</v>
@@ -20201,7 +20200,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="23"/>
       <c r="B721" s="20" t="s">
         <v>50</v>
@@ -20221,7 +20220,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="23"/>
       <c r="B722" s="20" t="s">
         <v>333</v>
@@ -20241,7 +20240,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="23">
         <f>EDATE(A720,1)</f>
         <v>42705</v>
@@ -20268,7 +20267,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="23"/>
       <c r="B724" s="20" t="s">
         <v>87</v>
@@ -20290,7 +20289,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="23"/>
       <c r="B725" s="20" t="s">
         <v>334</v>
@@ -20310,7 +20309,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="45" t="s">
         <v>335</v>
       </c>
@@ -20328,7 +20327,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="23">
         <f>EDATE(A723,1)</f>
         <v>42736</v>
@@ -20353,7 +20352,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="23"/>
       <c r="B728" s="20" t="s">
         <v>53</v>
@@ -20375,7 +20374,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="23"/>
       <c r="B729" s="20" t="s">
         <v>336</v>
@@ -20395,7 +20394,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="23">
         <f>EDATE(A727,1)</f>
         <v>42767</v>
@@ -20420,7 +20419,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="23"/>
       <c r="B731" s="20" t="s">
         <v>53</v>
@@ -20442,7 +20441,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="23"/>
       <c r="B732" s="20" t="s">
         <v>57</v>
@@ -20464,7 +20463,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="23"/>
       <c r="B733" s="20" t="s">
         <v>53</v>
@@ -20486,7 +20485,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="23"/>
       <c r="B734" s="20" t="s">
         <v>56</v>
@@ -20508,7 +20507,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="23"/>
       <c r="B735" s="20" t="s">
         <v>337</v>
@@ -20528,7 +20527,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="23">
         <f>EDATE(A730,1)</f>
         <v>42795</v>
@@ -20549,7 +20548,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="23">
         <f t="shared" ref="A737:A746" si="28">EDATE(A736,1)</f>
         <v>42826</v>
@@ -20570,7 +20569,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="23">
         <f t="shared" si="28"/>
         <v>42856</v>
@@ -20591,7 +20590,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="23">
         <f t="shared" si="28"/>
         <v>42887</v>
@@ -20618,7 +20617,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="23"/>
       <c r="B740" s="20" t="s">
         <v>87</v>
@@ -20640,7 +20639,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="23">
         <f>EDATE(A739,1)</f>
         <v>42917</v>
@@ -20667,7 +20666,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="23"/>
       <c r="B742" s="20" t="s">
         <v>53</v>
@@ -20689,7 +20688,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="23">
         <f>EDATE(A741,1)</f>
         <v>42948</v>
@@ -20710,7 +20709,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="23">
         <f t="shared" si="28"/>
         <v>42979</v>
@@ -20731,7 +20730,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="23">
         <f t="shared" si="28"/>
         <v>43009</v>
@@ -20752,7 +20751,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="23">
         <f t="shared" si="28"/>
         <v>43040</v>
@@ -20773,7 +20772,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="23">
         <f>EDATE(A746,1)</f>
         <v>43070</v>
@@ -20798,7 +20797,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="23"/>
       <c r="B748" s="20" t="s">
         <v>73</v>
@@ -20818,7 +20817,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="45" t="s">
         <v>339</v>
       </c>
@@ -20836,7 +20835,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="23">
         <f>EDATE(A747,1)</f>
         <v>43101</v>
@@ -20863,7 +20862,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="23"/>
       <c r="B751" s="20" t="s">
         <v>50</v>
@@ -20883,7 +20882,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="23">
         <f>EDATE(A750,1)</f>
         <v>43132</v>
@@ -20904,7 +20903,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="23">
         <f t="shared" ref="A753:A762" si="29">EDATE(A752,1)</f>
         <v>43160</v>
@@ -20929,7 +20928,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="23"/>
       <c r="B754" s="20" t="s">
         <v>53</v>
@@ -20951,7 +20950,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="23"/>
       <c r="B755" s="20" t="s">
         <v>50</v>
@@ -20971,7 +20970,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="23">
         <f>EDATE(A753,1)</f>
         <v>43191</v>
@@ -20992,7 +20991,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="23">
         <f t="shared" si="29"/>
         <v>43221</v>
@@ -21013,7 +21012,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="23">
         <f t="shared" si="29"/>
         <v>43252</v>
@@ -21040,7 +21039,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="23">
         <f t="shared" si="29"/>
         <v>43282</v>
@@ -21061,7 +21060,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="23">
         <f t="shared" si="29"/>
         <v>43313</v>
@@ -21082,7 +21081,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="23">
         <f t="shared" si="29"/>
         <v>43344</v>
@@ -21103,7 +21102,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="23">
         <f t="shared" si="29"/>
         <v>43374</v>
@@ -21130,7 +21129,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="23">
         <f>EDATE(A762,1)</f>
         <v>43405</v>
@@ -21157,7 +21156,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="23">
         <f>EDATE(A763,1)</f>
         <v>43435</v>
@@ -21184,7 +21183,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="23"/>
       <c r="B765" s="20" t="s">
         <v>53</v>
@@ -21206,7 +21205,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="23"/>
       <c r="B766" s="20" t="s">
         <v>53</v>
@@ -21228,7 +21227,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="45" t="s">
         <v>46</v>
       </c>
@@ -21246,7 +21245,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="39">
         <v>43466</v>
       </c>
@@ -21270,7 +21269,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="39">
         <v>43497</v>
       </c>
@@ -21296,7 +21295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="39">
         <v>43525</v>
       </c>
@@ -21316,7 +21315,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="39">
         <v>43556</v>
       </c>
@@ -21336,7 +21335,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="39">
         <v>43586</v>
       </c>
@@ -21362,7 +21361,7 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="39">
         <v>43617</v>
       </c>
@@ -21382,7 +21381,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="39">
         <v>43647</v>
       </c>
@@ -21406,7 +21405,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="39">
         <v>43678</v>
       </c>
@@ -21426,7 +21425,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="39">
         <v>43709</v>
       </c>
@@ -21452,7 +21451,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="39"/>
       <c r="B777" s="20" t="s">
         <v>56</v>
@@ -21474,7 +21473,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="39">
         <v>43739</v>
       </c>
@@ -21500,7 +21499,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="39">
         <v>43770</v>
       </c>
@@ -21520,7 +21519,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="39">
         <v>43800</v>
       </c>
@@ -21546,7 +21545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="39"/>
       <c r="B781" s="20" t="s">
         <v>50</v>
@@ -21566,7 +21565,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="45" t="s">
         <v>48</v>
       </c>
@@ -21584,7 +21583,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="39">
         <v>43831</v>
       </c>
@@ -21608,7 +21607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="39">
         <v>43862</v>
       </c>
@@ -21634,7 +21633,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="39">
         <v>43891</v>
       </c>
@@ -21654,7 +21653,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="39">
         <v>43922</v>
       </c>
@@ -21674,7 +21673,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="39">
         <v>43952</v>
       </c>
@@ -21694,7 +21693,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="39">
         <v>43983</v>
       </c>
@@ -21714,7 +21713,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="39">
         <v>44013</v>
       </c>
@@ -21738,7 +21737,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="39">
         <v>44044</v>
       </c>
@@ -21758,7 +21757,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="39">
         <v>44075</v>
       </c>
@@ -21778,7 +21777,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="39">
         <v>44105</v>
       </c>
@@ -21802,7 +21801,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="39">
         <v>44136</v>
       </c>
@@ -21826,7 +21825,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="39">
         <v>44166</v>
       </c>
@@ -21852,7 +21851,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="39"/>
       <c r="B795" s="20" t="s">
         <v>51</v>
@@ -21874,7 +21873,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="45" t="s">
         <v>47</v>
       </c>
@@ -21892,7 +21891,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="39">
         <v>44197</v>
       </c>
@@ -21912,7 +21911,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="39">
         <v>44228</v>
       </c>
@@ -21936,7 +21935,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="39">
         <v>44256</v>
       </c>
@@ -21956,7 +21955,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="39">
         <v>44287</v>
       </c>
@@ -21976,7 +21975,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="39">
         <v>44317</v>
       </c>
@@ -21996,7 +21995,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="39">
         <v>44348</v>
       </c>
@@ -22020,7 +22019,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="39"/>
       <c r="B803" s="20" t="s">
         <v>57</v>
@@ -22042,7 +22041,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="39"/>
       <c r="B804" s="20" t="s">
         <v>56</v>
@@ -22064,7 +22063,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="39">
         <v>44378</v>
       </c>
@@ -22084,7 +22083,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="39">
         <v>44409</v>
       </c>
@@ -22104,7 +22103,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="39">
         <v>44440</v>
       </c>
@@ -22124,7 +22123,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="39">
         <v>44470</v>
       </c>
@@ -22144,7 +22143,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="39">
         <v>44501</v>
       </c>
@@ -22168,7 +22167,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="39"/>
       <c r="B810" s="20" t="s">
         <v>65</v>
@@ -22188,7 +22187,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="39">
         <v>44531</v>
       </c>
@@ -22212,7 +22211,7 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="45" t="s">
         <v>49</v>
       </c>
@@ -22230,7 +22229,7 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="39">
         <v>44562</v>
       </c>
@@ -22250,7 +22249,7 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="39">
         <v>44593</v>
       </c>
@@ -22270,7 +22269,7 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="39">
         <v>44621</v>
       </c>
@@ -22294,7 +22293,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="39">
         <v>44652</v>
       </c>
@@ -22314,7 +22313,7 @@
       <c r="J816" s="11"/>
       <c r="K816" s="20"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="39">
         <v>44682</v>
       </c>
@@ -22340,7 +22339,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="39">
         <v>44713</v>
       </c>
@@ -22360,7 +22359,7 @@
       <c r="J818" s="11"/>
       <c r="K818" s="20"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="39">
         <v>44743</v>
       </c>
@@ -22386,7 +22385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="39">
         <v>44774</v>
       </c>
@@ -22406,7 +22405,7 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="39">
         <v>44805</v>
       </c>
@@ -22430,7 +22429,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="39">
         <v>44835</v>
       </c>
@@ -22456,7 +22455,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="39">
         <v>44866</v>
       </c>
@@ -22482,7 +22481,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="39"/>
       <c r="B824" s="20" t="s">
         <v>50</v>
@@ -22502,7 +22501,7 @@
         <v>44879</v>
       </c>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="39">
         <v>44896</v>
       </c>
@@ -22528,7 +22527,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="39"/>
       <c r="B826" s="20" t="s">
         <v>68</v>
@@ -22550,7 +22549,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="39"/>
       <c r="B827" s="20" t="s">
         <v>56</v>
@@ -22572,7 +22571,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="45" t="s">
         <v>70</v>
       </c>
@@ -22590,7 +22589,7 @@
       <c r="J828" s="11"/>
       <c r="K828" s="20"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="39">
         <v>44927</v>
       </c>
@@ -22614,7 +22613,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="39">
         <v>44958</v>
       </c>
@@ -22640,7 +22639,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="39">
         <v>44986</v>
       </c>
@@ -22660,7 +22659,7 @@
       <c r="J831" s="11"/>
       <c r="K831" s="20"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" s="39">
         <v>45017</v>
       </c>
@@ -22680,7 +22679,7 @@
       <c r="J832" s="11"/>
       <c r="K832" s="20"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" s="39">
         <v>45047</v>
       </c>
@@ -22704,7 +22703,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" s="39">
         <v>45078</v>
       </c>
@@ -22730,7 +22729,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" s="39"/>
       <c r="B835" s="20" t="s">
         <v>53</v>
@@ -22752,7 +22751,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" s="39">
         <v>45108</v>
       </c>
@@ -22774,7 +22773,7 @@
       <c r="J836" s="11"/>
       <c r="K836" s="20"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" s="39"/>
       <c r="B837" s="20" t="s">
         <v>57</v>
@@ -22796,11 +22795,11 @@
         <v>475</v>
       </c>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A838" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B838" s="20"/>
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A838" s="39"/>
+      <c r="B838" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C838" s="13"/>
       <c r="D838" s="38"/>
       <c r="E838" s="9"/>
@@ -22809,14 +22808,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H838" s="38"/>
+      <c r="H838" s="38">
+        <v>1</v>
+      </c>
       <c r="I838" s="9"/>
       <c r="J838" s="11"/>
-      <c r="K838" s="20"/>
-    </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K838" s="46">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B839" s="20"/>
       <c r="C839" s="13"/>
@@ -22832,9 +22835,9 @@
       <c r="J839" s="11"/>
       <c r="K839" s="20"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A840" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B840" s="20"/>
       <c r="C840" s="13"/>
@@ -22850,9 +22853,9 @@
       <c r="J840" s="11"/>
       <c r="K840" s="20"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A841" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B841" s="20"/>
       <c r="C841" s="13"/>
@@ -22868,9 +22871,9 @@
       <c r="J841" s="11"/>
       <c r="K841" s="20"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A842" s="39">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B842" s="20"/>
       <c r="C842" s="13"/>
@@ -22886,9 +22889,9 @@
       <c r="J842" s="11"/>
       <c r="K842" s="20"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A843" s="39">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B843" s="20"/>
       <c r="C843" s="13"/>
@@ -22904,9 +22907,9 @@
       <c r="J843" s="11"/>
       <c r="K843" s="20"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A844" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B844" s="20"/>
       <c r="C844" s="13"/>
@@ -22922,9 +22925,9 @@
       <c r="J844" s="11"/>
       <c r="K844" s="20"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A845" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B845" s="20"/>
       <c r="C845" s="13"/>
@@ -22940,9 +22943,9 @@
       <c r="J845" s="11"/>
       <c r="K845" s="20"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B846" s="20"/>
       <c r="C846" s="13"/>
@@ -22958,9 +22961,9 @@
       <c r="J846" s="11"/>
       <c r="K846" s="20"/>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A847" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B847" s="20"/>
       <c r="C847" s="13"/>
@@ -22976,9 +22979,9 @@
       <c r="J847" s="11"/>
       <c r="K847" s="20"/>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A848" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B848" s="20"/>
       <c r="C848" s="13"/>
@@ -22994,9 +22997,9 @@
       <c r="J848" s="11"/>
       <c r="K848" s="20"/>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A849" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B849" s="20"/>
       <c r="C849" s="13"/>
@@ -23012,9 +23015,9 @@
       <c r="J849" s="11"/>
       <c r="K849" s="20"/>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A850" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B850" s="20"/>
       <c r="C850" s="13"/>
@@ -23030,9 +23033,9 @@
       <c r="J850" s="11"/>
       <c r="K850" s="20"/>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A851" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B851" s="20"/>
       <c r="C851" s="13"/>
@@ -23048,9 +23051,9 @@
       <c r="J851" s="11"/>
       <c r="K851" s="20"/>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A852" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B852" s="20"/>
       <c r="C852" s="13"/>
@@ -23066,9 +23069,9 @@
       <c r="J852" s="11"/>
       <c r="K852" s="20"/>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A853" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B853" s="20"/>
       <c r="C853" s="13"/>
@@ -23084,9 +23087,9 @@
       <c r="J853" s="11"/>
       <c r="K853" s="20"/>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A854" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B854" s="20"/>
       <c r="C854" s="13"/>
@@ -23102,9 +23105,9 @@
       <c r="J854" s="11"/>
       <c r="K854" s="20"/>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A855" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B855" s="20"/>
       <c r="C855" s="13"/>
@@ -23120,9 +23123,9 @@
       <c r="J855" s="11"/>
       <c r="K855" s="20"/>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A856" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B856" s="20"/>
       <c r="C856" s="13"/>
@@ -23138,9 +23141,9 @@
       <c r="J856" s="11"/>
       <c r="K856" s="20"/>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A857" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B857" s="20"/>
       <c r="C857" s="13"/>
@@ -23156,9 +23159,9 @@
       <c r="J857" s="11"/>
       <c r="K857" s="20"/>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A858" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B858" s="20"/>
       <c r="C858" s="13"/>
@@ -23174,9 +23177,9 @@
       <c r="J858" s="11"/>
       <c r="K858" s="20"/>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A859" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B859" s="20"/>
       <c r="C859" s="13"/>
@@ -23192,9 +23195,9 @@
       <c r="J859" s="11"/>
       <c r="K859" s="20"/>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A860" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B860" s="20"/>
       <c r="C860" s="13"/>
@@ -23210,9 +23213,9 @@
       <c r="J860" s="11"/>
       <c r="K860" s="20"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A861" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B861" s="20"/>
       <c r="C861" s="13"/>
@@ -23228,9 +23231,9 @@
       <c r="J861" s="11"/>
       <c r="K861" s="20"/>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A862" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B862" s="20"/>
       <c r="C862" s="13"/>
@@ -23246,9 +23249,9 @@
       <c r="J862" s="11"/>
       <c r="K862" s="20"/>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A863" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B863" s="20"/>
       <c r="C863" s="13"/>
@@ -23264,9 +23267,9 @@
       <c r="J863" s="11"/>
       <c r="K863" s="20"/>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A864" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B864" s="20"/>
       <c r="C864" s="13"/>
@@ -23282,9 +23285,9 @@
       <c r="J864" s="11"/>
       <c r="K864" s="20"/>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A865" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B865" s="20"/>
       <c r="C865" s="13"/>
@@ -23300,9 +23303,9 @@
       <c r="J865" s="11"/>
       <c r="K865" s="20"/>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A866" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B866" s="20"/>
       <c r="C866" s="13"/>
@@ -23318,9 +23321,9 @@
       <c r="J866" s="11"/>
       <c r="K866" s="20"/>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A867" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B867" s="20"/>
       <c r="C867" s="13"/>
@@ -23336,9 +23339,9 @@
       <c r="J867" s="11"/>
       <c r="K867" s="20"/>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A868" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B868" s="20"/>
       <c r="C868" s="13"/>
@@ -23354,9 +23357,9 @@
       <c r="J868" s="11"/>
       <c r="K868" s="20"/>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A869" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B869" s="20"/>
       <c r="C869" s="13"/>
@@ -23372,9 +23375,9 @@
       <c r="J869" s="11"/>
       <c r="K869" s="20"/>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A870" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B870" s="20"/>
       <c r="C870" s="13"/>
@@ -23390,9 +23393,9 @@
       <c r="J870" s="11"/>
       <c r="K870" s="20"/>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A871" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B871" s="20"/>
       <c r="C871" s="13"/>
@@ -23408,9 +23411,9 @@
       <c r="J871" s="11"/>
       <c r="K871" s="20"/>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A872" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B872" s="20"/>
       <c r="C872" s="13"/>
@@ -23426,9 +23429,9 @@
       <c r="J872" s="11"/>
       <c r="K872" s="20"/>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A873" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B873" s="20"/>
       <c r="C873" s="13"/>
@@ -23444,9 +23447,9 @@
       <c r="J873" s="11"/>
       <c r="K873" s="20"/>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A874" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B874" s="20"/>
       <c r="C874" s="13"/>
@@ -23462,9 +23465,9 @@
       <c r="J874" s="11"/>
       <c r="K874" s="20"/>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A875" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B875" s="20"/>
       <c r="C875" s="13"/>
@@ -23480,9 +23483,9 @@
       <c r="J875" s="11"/>
       <c r="K875" s="20"/>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A876" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B876" s="20"/>
       <c r="C876" s="13"/>
@@ -23498,9 +23501,9 @@
       <c r="J876" s="11"/>
       <c r="K876" s="20"/>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A877" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B877" s="20"/>
       <c r="C877" s="13"/>
@@ -23516,9 +23519,9 @@
       <c r="J877" s="11"/>
       <c r="K877" s="20"/>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A878" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B878" s="20"/>
       <c r="C878" s="13"/>
@@ -23534,9 +23537,9 @@
       <c r="J878" s="11"/>
       <c r="K878" s="20"/>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A879" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B879" s="20"/>
       <c r="C879" s="13"/>
@@ -23552,9 +23555,9 @@
       <c r="J879" s="11"/>
       <c r="K879" s="20"/>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A880" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B880" s="20"/>
       <c r="C880" s="13"/>
@@ -23570,9 +23573,9 @@
       <c r="J880" s="11"/>
       <c r="K880" s="20"/>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A881" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B881" s="20"/>
       <c r="C881" s="13"/>
@@ -23588,9 +23591,9 @@
       <c r="J881" s="11"/>
       <c r="K881" s="20"/>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A882" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B882" s="20"/>
       <c r="C882" s="13"/>
@@ -23606,9 +23609,9 @@
       <c r="J882" s="11"/>
       <c r="K882" s="20"/>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A883" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B883" s="20"/>
       <c r="C883" s="13"/>
@@ -23624,9 +23627,9 @@
       <c r="J883" s="11"/>
       <c r="K883" s="20"/>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A884" s="39">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B884" s="20"/>
       <c r="C884" s="13"/>
@@ -23642,9 +23645,9 @@
       <c r="J884" s="11"/>
       <c r="K884" s="20"/>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A885" s="39">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B885" s="20"/>
       <c r="C885" s="13"/>
@@ -23660,9 +23663,9 @@
       <c r="J885" s="11"/>
       <c r="K885" s="20"/>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A886" s="39">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B886" s="20"/>
       <c r="C886" s="13"/>
@@ -23678,9 +23681,9 @@
       <c r="J886" s="11"/>
       <c r="K886" s="20"/>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A887" s="39">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B887" s="20"/>
       <c r="C887" s="13"/>
@@ -23696,9 +23699,9 @@
       <c r="J887" s="11"/>
       <c r="K887" s="20"/>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A888" s="39">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B888" s="20"/>
       <c r="C888" s="13"/>
@@ -23714,9 +23717,9 @@
       <c r="J888" s="11"/>
       <c r="K888" s="20"/>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A889" s="39">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B889" s="20"/>
       <c r="C889" s="13"/>
@@ -23732,9 +23735,9 @@
       <c r="J889" s="11"/>
       <c r="K889" s="20"/>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A890" s="39">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B890" s="20"/>
       <c r="C890" s="13"/>
@@ -23750,15 +23753,14 @@
       <c r="J890" s="11"/>
       <c r="K890" s="20"/>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A891" s="39"/>
+    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A891" s="39">
+        <v>46722</v>
+      </c>
       <c r="B891" s="20"/>
       <c r="C891" s="13"/>
       <c r="D891" s="38"/>
-      <c r="E891" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.6420000000000528</v>
-      </c>
+      <c r="E891" s="9"/>
       <c r="F891" s="20"/>
       <c r="G891" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -23769,7 +23771,7 @@
       <c r="J891" s="11"/>
       <c r="K891" s="20"/>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A892" s="39"/>
       <c r="B892" s="20"/>
       <c r="C892" s="13"/>
@@ -23788,7 +23790,7 @@
       <c r="J892" s="11"/>
       <c r="K892" s="20"/>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A893" s="39"/>
       <c r="B893" s="20"/>
       <c r="C893" s="13"/>
@@ -23807,7 +23809,7 @@
       <c r="J893" s="11"/>
       <c r="K893" s="20"/>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A894" s="39"/>
       <c r="B894" s="20"/>
       <c r="C894" s="13"/>
@@ -23826,7 +23828,7 @@
       <c r="J894" s="11"/>
       <c r="K894" s="20"/>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A895" s="39"/>
       <c r="B895" s="20"/>
       <c r="C895" s="13"/>
@@ -23845,7 +23847,7 @@
       <c r="J895" s="11"/>
       <c r="K895" s="20"/>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A896" s="39"/>
       <c r="B896" s="20"/>
       <c r="C896" s="13"/>
@@ -23863,6 +23865,25 @@
       <c r="I896" s="9"/>
       <c r="J896" s="11"/>
       <c r="K896" s="20"/>
+    </row>
+    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A897" s="39"/>
+      <c r="B897" s="20"/>
+      <c r="C897" s="13"/>
+      <c r="D897" s="38"/>
+      <c r="E897" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>5.6420000000000528</v>
+      </c>
+      <c r="F897" s="20"/>
+      <c r="G897" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H897" s="38"/>
+      <c r="I897" s="9"/>
+      <c r="J897" s="11"/>
+      <c r="K897" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -23879,10 +23900,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23905,28 +23926,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
@@ -23939,7 +23960,7 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -23968,7 +23989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -23990,17 +24011,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -24021,7 +24042,7 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -24048,7 +24069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -24074,7 +24095,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -24100,7 +24121,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -24126,7 +24147,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -24152,7 +24173,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -24178,7 +24199,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -24204,7 +24225,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -24230,7 +24251,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -24250,7 +24271,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -24270,7 +24291,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -24290,7 +24311,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -24311,7 +24332,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -24332,7 +24353,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -24353,7 +24374,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -24374,7 +24395,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -24395,7 +24416,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -24416,7 +24437,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -24437,7 +24458,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -24458,7 +24479,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -24479,7 +24500,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -24500,7 +24521,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -24521,7 +24542,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -24542,7 +24563,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -24563,7 +24584,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -24584,7 +24605,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -24605,7 +24626,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -24626,7 +24647,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -24647,7 +24668,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -24668,7 +24689,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -24689,7 +24710,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -24710,7 +24731,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -24719,7 +24740,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -24728,7 +24749,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -24737,7 +24758,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -24746,7 +24767,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -24755,7 +24776,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -24764,7 +24785,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -24773,7 +24794,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -24782,7 +24803,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -24791,7 +24812,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -24800,7 +24821,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -24809,7 +24830,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -24818,7 +24839,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -24827,7 +24848,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -24836,7 +24857,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -24845,7 +24866,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -24854,7 +24875,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -24863,7 +24884,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -24872,7 +24893,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -24881,7 +24902,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -24890,7 +24911,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -24899,7 +24920,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -24908,7 +24929,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -24917,7 +24938,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -24926,7 +24947,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -24935,7 +24956,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -24944,7 +24965,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -24953,7 +24974,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -24962,7 +24983,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -24971,7 +24992,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
